--- a/Project 1: Equal-Weight S&P 500 Index Fund/recommended_trades.xlsx
+++ b/Project 1: Equal-Weight S&P 500 Index Fund/recommended_trades.xlsx
@@ -1930,13 +1930,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>125.05</v>
+        <v>126.065</v>
       </c>
       <c r="C2" s="2">
-        <v>36936769536</v>
+        <v>37236576256</v>
       </c>
       <c r="D2" s="3">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1944,13 +1944,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>15.98</v>
+        <v>16.035</v>
       </c>
       <c r="C3" s="2">
-        <v>10440724480</v>
+        <v>10476659712</v>
       </c>
       <c r="D3" s="3">
-        <v>1244</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1958,13 +1958,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>72.03</v>
+        <v>71.73</v>
       </c>
       <c r="C4" s="2">
-        <v>4281744128</v>
+        <v>4263911168</v>
       </c>
       <c r="D4" s="3">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1972,13 +1972,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>191.17</v>
+        <v>185.25</v>
       </c>
       <c r="C5" s="2">
-        <v>3006855643136</v>
+        <v>2913741832192</v>
       </c>
       <c r="D5" s="3">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1986,10 +1986,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>149.05</v>
+        <v>149.445</v>
       </c>
       <c r="C6" s="2">
-        <v>262967443456</v>
+        <v>263664336896</v>
       </c>
       <c r="D6" s="3">
         <v>133</v>
@@ -2000,13 +2000,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>191.36</v>
+        <v>186.755</v>
       </c>
       <c r="C7" s="2">
-        <v>38704283648</v>
+        <v>37772881920</v>
       </c>
       <c r="D7" s="3">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2014,13 +2014,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>107.54</v>
+        <v>108.38</v>
       </c>
       <c r="C8" s="2">
-        <v>187006681088</v>
+        <v>188467396608</v>
       </c>
       <c r="D8" s="3">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2028,13 +2028,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>77.39</v>
+        <v>77.19499999999999</v>
       </c>
       <c r="C9" s="2">
-        <v>28821817344</v>
+        <v>28749193216</v>
       </c>
       <c r="D9" s="3">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2042,10 +2042,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>317.13</v>
+        <v>315.77</v>
       </c>
       <c r="C10" s="2">
-        <v>200205123584</v>
+        <v>199346536448</v>
       </c>
       <c r="D10" s="3">
         <v>62</v>
@@ -2056,10 +2056,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>523.76</v>
+        <v>528.335</v>
       </c>
       <c r="C11" s="2">
-        <v>238729805824</v>
+        <v>240815095808</v>
       </c>
       <c r="D11" s="3">
         <v>37</v>
@@ -2070,13 +2070,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>191.49</v>
+        <v>187.125</v>
       </c>
       <c r="C12" s="2">
-        <v>96016531456</v>
+        <v>93827842048</v>
       </c>
       <c r="D12" s="3">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2084,13 +2084,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>84.97</v>
+        <v>86.78</v>
       </c>
       <c r="C13" s="2">
-        <v>46277636096</v>
+        <v>47263424512</v>
       </c>
       <c r="D13" s="3">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2098,10 +2098,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>248</v>
+        <v>247.19</v>
       </c>
       <c r="C14" s="2">
-        <v>102454509568</v>
+        <v>102119874560</v>
       </c>
       <c r="D14" s="3">
         <v>80</v>
@@ -2112,13 +2112,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>202.62</v>
+        <v>203.075</v>
       </c>
       <c r="C15" s="2">
-        <v>43305160704</v>
+        <v>43402407936</v>
       </c>
       <c r="D15" s="3">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2126,10 +2126,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>82.92</v>
+        <v>82.86499999999999</v>
       </c>
       <c r="C16" s="2">
-        <v>21775536128</v>
+        <v>21761093632</v>
       </c>
       <c r="D16" s="3">
         <v>239</v>
@@ -2140,13 +2140,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>81.98999999999999</v>
+        <v>82.36</v>
       </c>
       <c r="C17" s="2">
-        <v>42207715328</v>
+        <v>42398187520</v>
       </c>
       <c r="D17" s="3">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2154,13 +2154,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>20.65</v>
+        <v>20.53</v>
       </c>
       <c r="C18" s="2">
-        <v>13821788160</v>
+        <v>13741468672</v>
       </c>
       <c r="D18" s="3">
-        <v>962</v>
+        <v>968</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2168,13 +2168,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>77.05</v>
+        <v>77.88</v>
       </c>
       <c r="C19" s="2">
-        <v>46555693056</v>
+        <v>47057199104</v>
       </c>
       <c r="D19" s="3">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2182,13 +2182,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>61.14</v>
+        <v>61.67</v>
       </c>
       <c r="C20" s="2">
-        <v>44250259456</v>
+        <v>44633845760</v>
       </c>
       <c r="D20" s="3">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2196,13 +2196,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>141.69</v>
+        <v>144.9914</v>
       </c>
       <c r="C21" s="2">
-        <v>7531050496</v>
+        <v>7706524672</v>
       </c>
       <c r="D21" s="3">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2210,10 +2210,10 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>222.2</v>
+        <v>223.345</v>
       </c>
       <c r="C22" s="2">
-        <v>47605460992</v>
+        <v>47850774528</v>
       </c>
       <c r="D22" s="3">
         <v>89</v>
@@ -2224,13 +2224,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>92.73999999999999</v>
+        <v>93.005</v>
       </c>
       <c r="C23" s="2">
-        <v>14115213312</v>
+        <v>14155546624</v>
       </c>
       <c r="D23" s="3">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2238,13 +2238,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>199.35</v>
+        <v>205.255</v>
       </c>
       <c r="C24" s="2">
-        <v>23390932992</v>
+        <v>24083802112</v>
       </c>
       <c r="D24" s="3">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2252,10 +2252,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>366.24</v>
+        <v>366.19</v>
       </c>
       <c r="C25" s="2">
-        <v>28023584768</v>
+        <v>28019761152</v>
       </c>
       <c r="D25" s="3">
         <v>54</v>
@@ -2266,13 +2266,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>46.81</v>
+        <v>47.16</v>
       </c>
       <c r="C26" s="2">
-        <v>5987513856</v>
+        <v>6032282624</v>
       </c>
       <c r="D26" s="3">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2280,10 +2280,10 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>111.36</v>
+        <v>111.18</v>
       </c>
       <c r="C27" s="2">
-        <v>29271199744</v>
+        <v>29223884800</v>
       </c>
       <c r="D27" s="3">
         <v>178</v>
@@ -2294,13 +2294,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>111.59</v>
+        <v>112.7875</v>
       </c>
       <c r="C28" s="2">
-        <v>9813971968</v>
+        <v>9919288320</v>
       </c>
       <c r="D28" s="3">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2308,10 +2308,10 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>147.81</v>
+        <v>147.39</v>
       </c>
       <c r="C29" s="2">
-        <v>124123004928</v>
+        <v>123770314752</v>
       </c>
       <c r="D29" s="3">
         <v>134</v>
@@ -2322,13 +2322,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>9.77</v>
+        <v>9.895</v>
       </c>
       <c r="C30" s="2">
-        <v>14477870080</v>
+        <v>14663103488</v>
       </c>
       <c r="D30" s="3">
-        <v>2034</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2336,13 +2336,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>113.15</v>
+        <v>115.87</v>
       </c>
       <c r="C31" s="2">
-        <v>182212247552</v>
+        <v>186592428032</v>
       </c>
       <c r="D31" s="3">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2350,13 +2350,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>157.85</v>
+        <v>157.305</v>
       </c>
       <c r="C32" s="2">
-        <v>36380479488</v>
+        <v>36254867456</v>
       </c>
       <c r="D32" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2364,13 +2364,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>230.7</v>
+        <v>244.43</v>
       </c>
       <c r="C33" s="2">
-        <v>123269242880</v>
+        <v>130605547520</v>
       </c>
       <c r="D33" s="3">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2378,10 +2378,10 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>352.49</v>
+        <v>351.68</v>
       </c>
       <c r="C34" s="2">
-        <v>37109792768</v>
+        <v>37024518144</v>
       </c>
       <c r="D34" s="3">
         <v>56</v>
@@ -2392,13 +2392,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>185.75</v>
+        <v>187.64</v>
       </c>
       <c r="C35" s="2">
-        <v>86567485440</v>
+        <v>87448305664</v>
       </c>
       <c r="D35" s="3">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2406,13 +2406,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>128.91</v>
+        <v>142.6773</v>
       </c>
       <c r="C36" s="2">
-        <v>1322668261376</v>
+        <v>1463926259712</v>
       </c>
       <c r="D36" s="3">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2420,13 +2420,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>177.76</v>
+        <v>179.8076</v>
       </c>
       <c r="C37" s="2">
-        <v>54800384000</v>
+        <v>55431626752</v>
       </c>
       <c r="D37" s="3">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2434,13 +2434,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>305.47</v>
+        <v>306.97</v>
       </c>
       <c r="C38" s="2">
-        <v>26472425472</v>
+        <v>26602418176</v>
       </c>
       <c r="D38" s="3">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2448,10 +2448,10 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>317.32</v>
+        <v>317.73</v>
       </c>
       <c r="C39" s="2">
-        <v>64811343872</v>
+        <v>64895082496</v>
       </c>
       <c r="D39" s="3">
         <v>62</v>
@@ -2462,13 +2462,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>72.3</v>
+        <v>72.875</v>
       </c>
       <c r="C40" s="2">
-        <v>10876956672</v>
+        <v>10963461120</v>
       </c>
       <c r="D40" s="3">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2476,13 +2476,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>41.66</v>
+        <v>42.06</v>
       </c>
       <c r="C41" s="2">
-        <v>12856235008</v>
+        <v>12979675136</v>
       </c>
       <c r="D41" s="3">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2490,13 +2490,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>281.82</v>
+        <v>286.9</v>
       </c>
       <c r="C42" s="2">
-        <v>62598709248</v>
+        <v>63727087616</v>
       </c>
       <c r="D42" s="3">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2504,13 +2504,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>88.48</v>
+        <v>88.185</v>
       </c>
       <c r="C43" s="2">
-        <v>52673826816</v>
+        <v>52498202624</v>
       </c>
       <c r="D43" s="3">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2518,13 +2518,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>109.58</v>
+        <v>107.75</v>
       </c>
       <c r="C44" s="2">
-        <v>29642045440</v>
+        <v>29147019264</v>
       </c>
       <c r="D44" s="3">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2532,10 +2532,10 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>122.38</v>
+        <v>122.215</v>
       </c>
       <c r="C45" s="2">
-        <v>21175166976</v>
+        <v>21146615808</v>
       </c>
       <c r="D45" s="3">
         <v>162</v>
@@ -2546,13 +2546,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>118.34</v>
+        <v>119.36</v>
       </c>
       <c r="C46" s="2">
-        <v>17098592256</v>
+        <v>17245968384</v>
       </c>
       <c r="D46" s="3">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2560,10 +2560,10 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>91.68000000000001</v>
+        <v>91.765</v>
       </c>
       <c r="C47" s="2">
-        <v>72075059200</v>
+        <v>72141881344</v>
       </c>
       <c r="D47" s="3">
         <v>216</v>
@@ -2574,13 +2574,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>184.39</v>
+        <v>186.915</v>
       </c>
       <c r="C48" s="2">
-        <v>26183196672</v>
+        <v>26541744128</v>
       </c>
       <c r="D48" s="3">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2588,10 +2588,10 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>884.98</v>
+        <v>880.04</v>
       </c>
       <c r="C49" s="2">
-        <v>365217972224</v>
+        <v>363179278336</v>
       </c>
       <c r="D49" s="3">
         <v>22</v>
@@ -2602,13 +2602,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>185.16</v>
+        <v>187.41</v>
       </c>
       <c r="C50" s="2">
-        <v>14947652608</v>
+        <v>15129291776</v>
       </c>
       <c r="D50" s="3">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2616,10 +2616,10 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>142.13</v>
+        <v>142.345</v>
       </c>
       <c r="C51" s="2">
-        <v>27664752640</v>
+        <v>27706599424</v>
       </c>
       <c r="D51" s="3">
         <v>139</v>
@@ -2630,13 +2630,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>177.1</v>
+        <v>181</v>
       </c>
       <c r="C52" s="2">
-        <v>13085086720</v>
+        <v>13373238272</v>
       </c>
       <c r="D52" s="3">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2644,13 +2644,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>166.41</v>
+        <v>167.09</v>
       </c>
       <c r="C53" s="2">
-        <v>122554146816</v>
+        <v>123054931968</v>
       </c>
       <c r="D53" s="3">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2658,10 +2658,10 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>2476.95</v>
+        <v>2464.15</v>
       </c>
       <c r="C54" s="2">
-        <v>44971503616</v>
+        <v>44739104768</v>
       </c>
       <c r="D54" s="3">
         <v>8</v>
@@ -2672,10 +2672,10 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>231.36</v>
+        <v>232.715</v>
       </c>
       <c r="C55" s="2">
-        <v>139184783360</v>
+        <v>139999936512</v>
       </c>
       <c r="D55" s="3">
         <v>85</v>
@@ -2686,13 +2686,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>31.41</v>
+        <v>31.577</v>
       </c>
       <c r="C56" s="2">
-        <v>249821315072</v>
+        <v>251149565952</v>
       </c>
       <c r="D56" s="3">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2700,13 +2700,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>59.07</v>
+        <v>58.945</v>
       </c>
       <c r="C57" s="2">
-        <v>18580350976</v>
+        <v>18541031424</v>
       </c>
       <c r="D57" s="3">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2714,13 +2714,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>43.94</v>
+        <v>44.31</v>
       </c>
       <c r="C58" s="2">
-        <v>22227048448</v>
+        <v>22414213120</v>
       </c>
       <c r="D58" s="3">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2728,13 +2728,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>37.15</v>
+        <v>38.56</v>
       </c>
       <c r="C59" s="2">
-        <v>8504080896</v>
+        <v>8826847232</v>
       </c>
       <c r="D59" s="3">
-        <v>535</v>
+        <v>515</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2742,13 +2742,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>81.31</v>
+        <v>80.77500000000001</v>
       </c>
       <c r="C60" s="2">
-        <v>17742737408</v>
+        <v>17625995264</v>
       </c>
       <c r="D60" s="3">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2756,13 +2756,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>268.7</v>
+        <v>273.105</v>
       </c>
       <c r="C61" s="2">
-        <v>76314836992</v>
+        <v>77565919232</v>
       </c>
       <c r="D61" s="3">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2770,13 +2770,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>28.38</v>
+        <v>28.87</v>
       </c>
       <c r="C62" s="2">
-        <v>14214492160</v>
+        <v>14459915264</v>
       </c>
       <c r="D62" s="3">
-        <v>700</v>
+        <v>688</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2784,13 +2784,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>70.38</v>
+        <v>70.58499999999999</v>
       </c>
       <c r="C63" s="2">
-        <v>33961306112</v>
+        <v>34060228608</v>
       </c>
       <c r="D63" s="3">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2798,13 +2798,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>114.39</v>
+        <v>115.455</v>
       </c>
       <c r="C64" s="2">
-        <v>17229193216</v>
+        <v>17389600768</v>
       </c>
       <c r="D64" s="3">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2812,10 +2812,10 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>267.75</v>
+        <v>268</v>
       </c>
       <c r="C65" s="2">
-        <v>38754668544</v>
+        <v>38790856704</v>
       </c>
       <c r="D65" s="3">
         <v>74</v>
@@ -2826,13 +2826,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>401.8</v>
+        <v>415.265</v>
       </c>
       <c r="C66" s="2">
-        <v>11515587584</v>
+        <v>11901495296</v>
       </c>
       <c r="D66" s="3">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2840,13 +2840,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>45.56</v>
+        <v>45.96</v>
       </c>
       <c r="C67" s="2">
-        <v>35481309184</v>
+        <v>35792822272</v>
       </c>
       <c r="D67" s="3">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2854,13 +2854,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>2839.91</v>
+        <v>3095.84</v>
       </c>
       <c r="C68" s="2">
-        <v>104888377344</v>
+        <v>114340831232</v>
       </c>
       <c r="D68" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2868,13 +2868,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>35.65</v>
+        <v>35.76</v>
       </c>
       <c r="C69" s="2">
-        <v>36243574784</v>
+        <v>36355399680</v>
       </c>
       <c r="D69" s="3">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2882,10 +2882,10 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>710.17</v>
+        <v>716.9299999999999</v>
       </c>
       <c r="C70" s="2">
-        <v>106099392512</v>
+        <v>107109343232</v>
       </c>
       <c r="D70" s="3">
         <v>27</v>
@@ -2896,13 +2896,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>61.23</v>
+        <v>60.9993</v>
       </c>
       <c r="C71" s="2">
-        <v>128635043840</v>
+        <v>128150380544</v>
       </c>
       <c r="D71" s="3">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2910,10 +2910,10 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>165.9</v>
+        <v>166.73</v>
       </c>
       <c r="C72" s="2">
-        <v>19573047296</v>
+        <v>19670972416</v>
       </c>
       <c r="D72" s="3">
         <v>119</v>
@@ -2924,10 +2924,10 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>353.81</v>
+        <v>353.33</v>
       </c>
       <c r="C73" s="2">
-        <v>773170397184</v>
+        <v>772121427968</v>
       </c>
       <c r="D73" s="3">
         <v>56</v>
@@ -2938,10 +2938,10 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>70.62</v>
+        <v>70.52500000000001</v>
       </c>
       <c r="C74" s="2">
-        <v>20030939136</v>
+        <v>20003993600</v>
       </c>
       <c r="D74" s="3">
         <v>281</v>
@@ -2952,13 +2952,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>50.88</v>
+        <v>51.195</v>
       </c>
       <c r="C75" s="2">
-        <v>73150177280</v>
+        <v>73603047424</v>
       </c>
       <c r="D75" s="3">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2966,13 +2966,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>41.4</v>
+        <v>42.13</v>
       </c>
       <c r="C76" s="2">
-        <v>9703042048</v>
+        <v>9874134016</v>
       </c>
       <c r="D76" s="3">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2980,13 +2980,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>67.09999999999999</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="C77" s="2">
-        <v>10523628544</v>
+        <v>10754176000</v>
       </c>
       <c r="D77" s="3">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2994,13 +2994,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>46.21</v>
+        <v>46.605</v>
       </c>
       <c r="C78" s="2">
-        <v>88986591232</v>
+        <v>89747243008</v>
       </c>
       <c r="D78" s="3">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3008,10 +3008,10 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>32.51</v>
+        <v>32.5305</v>
       </c>
       <c r="C79" s="2">
-        <v>15509219328</v>
+        <v>15518999552</v>
       </c>
       <c r="D79" s="3">
         <v>611</v>
@@ -3022,13 +3022,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>93.77</v>
+        <v>92.20999999999999</v>
       </c>
       <c r="C80" s="2">
-        <v>23873841152</v>
+        <v>23476666368</v>
       </c>
       <c r="D80" s="3">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3036,13 +3036,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>58.1</v>
+        <v>57.68</v>
       </c>
       <c r="C81" s="2">
-        <v>48504086528</v>
+        <v>48153456640</v>
       </c>
       <c r="D81" s="3">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3050,10 +3050,10 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>281.45</v>
+        <v>280.45</v>
       </c>
       <c r="C82" s="2">
-        <v>145325588480</v>
+        <v>144809230336</v>
       </c>
       <c r="D82" s="3">
         <v>70</v>
@@ -3064,10 +3064,10 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>202.9</v>
+        <v>203.08</v>
       </c>
       <c r="C83" s="2">
-        <v>84035903488</v>
+        <v>84110458880</v>
       </c>
       <c r="D83" s="3">
         <v>97</v>
@@ -3078,13 +3078,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>140.01</v>
+        <v>144.61</v>
       </c>
       <c r="C84" s="2">
-        <v>14781415424</v>
+        <v>15267056640</v>
       </c>
       <c r="D84" s="3">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3092,10 +3092,10 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>83.61</v>
+        <v>83.69</v>
       </c>
       <c r="C85" s="2">
-        <v>25988663296</v>
+        <v>26013530112</v>
       </c>
       <c r="D85" s="3">
         <v>237</v>
@@ -3106,13 +3106,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>104.93</v>
+        <v>105.715</v>
       </c>
       <c r="C86" s="2">
-        <v>45505097728</v>
+        <v>45845528576</v>
       </c>
       <c r="D86" s="3">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3120,13 +3120,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>17.56</v>
+        <v>17.465</v>
       </c>
       <c r="C87" s="2">
-        <v>22934589440</v>
+        <v>22810513408</v>
       </c>
       <c r="D87" s="3">
-        <v>1132</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3134,13 +3134,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>71.54000000000001</v>
+        <v>72.05249999999999</v>
       </c>
       <c r="C88" s="2">
-        <v>11090918400</v>
+        <v>11170371584</v>
       </c>
       <c r="D88" s="3">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3148,10 +3148,10 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>228.59</v>
+        <v>229.9</v>
       </c>
       <c r="C89" s="2">
-        <v>62128480256</v>
+        <v>62484525056</v>
       </c>
       <c r="D89" s="3">
         <v>86</v>
@@ -3162,10 +3162,10 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>199.28</v>
+        <v>200.72</v>
       </c>
       <c r="C90" s="2">
-        <v>26860355584</v>
+        <v>27054448640</v>
       </c>
       <c r="D90" s="3">
         <v>99</v>
@@ -3176,13 +3176,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>124.41</v>
+        <v>125.93</v>
       </c>
       <c r="C91" s="2">
-        <v>13534315520</v>
+        <v>13699673088</v>
       </c>
       <c r="D91" s="3">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3190,13 +3190,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>101.14</v>
+        <v>102.96</v>
       </c>
       <c r="C92" s="2">
-        <v>32810928128</v>
+        <v>33401356288</v>
       </c>
       <c r="D92" s="3">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3204,13 +3204,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>81.23</v>
+        <v>83.7</v>
       </c>
       <c r="C93" s="2">
-        <v>15839850496</v>
+        <v>16321499136</v>
       </c>
       <c r="D93" s="3">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3218,13 +3218,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>31.48</v>
+        <v>31.555</v>
       </c>
       <c r="C94" s="2">
-        <v>14943021056</v>
+        <v>14978622464</v>
       </c>
       <c r="D94" s="3">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3232,10 +3232,10 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>95.11</v>
+        <v>94.88</v>
       </c>
       <c r="C95" s="2">
-        <v>23243743232</v>
+        <v>23187531776</v>
       </c>
       <c r="D95" s="3">
         <v>209</v>
@@ -3246,13 +3246,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>98.22</v>
+        <v>98.72</v>
       </c>
       <c r="C96" s="2">
-        <v>11436639232</v>
+        <v>11494857728</v>
       </c>
       <c r="D96" s="3">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3260,13 +3260,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>422.78</v>
+        <v>423.01</v>
       </c>
       <c r="C97" s="2">
-        <v>63660101632</v>
+        <v>63694737408</v>
       </c>
       <c r="D97" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3274,13 +3274,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>287.64</v>
+        <v>289.62</v>
       </c>
       <c r="C98" s="2">
-        <v>85104623616</v>
+        <v>85690449920</v>
       </c>
       <c r="D98" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3288,13 +3288,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>109.39</v>
+        <v>109.89</v>
       </c>
       <c r="C99" s="2">
-        <v>17197529088</v>
+        <v>17276135424</v>
       </c>
       <c r="D99" s="3">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3302,13 +3302,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>76.58</v>
+        <v>76.79000000000001</v>
       </c>
       <c r="C100" s="2">
-        <v>63528316928</v>
+        <v>63702528000</v>
       </c>
       <c r="D100" s="3">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3316,13 +3316,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>166.13</v>
+        <v>161.925</v>
       </c>
       <c r="C101" s="2">
-        <v>20537655296</v>
+        <v>20017817600</v>
       </c>
       <c r="D101" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3330,13 +3330,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>52.94</v>
+        <v>53.92</v>
       </c>
       <c r="C102" s="2">
-        <v>6970609664</v>
+        <v>7099645952</v>
       </c>
       <c r="D102" s="3">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3344,13 +3344,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>45.17</v>
+        <v>45.41</v>
       </c>
       <c r="C103" s="2">
-        <v>188306046976</v>
+        <v>189306568704</v>
       </c>
       <c r="D103" s="3">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3358,13 +3358,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>202.84</v>
+        <v>206.12</v>
       </c>
       <c r="C104" s="2">
-        <v>72965201920</v>
+        <v>74145079296</v>
       </c>
       <c r="D104" s="3">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3372,10 +3372,10 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>1922.92</v>
+        <v>1909.8</v>
       </c>
       <c r="C105" s="2">
-        <v>53052981248</v>
+        <v>52691001344</v>
       </c>
       <c r="D105" s="3">
         <v>10</v>
@@ -3386,13 +3386,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>242.64</v>
+        <v>237.79</v>
       </c>
       <c r="C106" s="2">
-        <v>34348603392</v>
+        <v>33662027776</v>
       </c>
       <c r="D106" s="3">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3400,13 +3400,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>58.35</v>
+        <v>58.68</v>
       </c>
       <c r="C107" s="2">
-        <v>17018127360</v>
+        <v>17114374144</v>
       </c>
       <c r="D107" s="3">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3414,10 +3414,10 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>66.06</v>
+        <v>66.1497</v>
       </c>
       <c r="C108" s="2">
-        <v>36251680768</v>
+        <v>36300902400</v>
       </c>
       <c r="D108" s="3">
         <v>300</v>
@@ -3428,10 +3428,10 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>29.35</v>
+        <v>29.355</v>
       </c>
       <c r="C109" s="2">
-        <v>18520700928</v>
+        <v>18523854848</v>
       </c>
       <c r="D109" s="3">
         <v>677</v>
@@ -3442,13 +3442,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>112.92</v>
+        <v>113.875</v>
       </c>
       <c r="C110" s="2">
-        <v>43067686912</v>
+        <v>43431923712</v>
       </c>
       <c r="D110" s="3">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3456,10 +3456,10 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>389.82</v>
+        <v>390.425</v>
       </c>
       <c r="C111" s="2">
-        <v>19299170304</v>
+        <v>19329120256</v>
       </c>
       <c r="D111" s="3">
         <v>50</v>
@@ -3470,10 +3470,10 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>114.99</v>
+        <v>115.47</v>
       </c>
       <c r="C112" s="2">
-        <v>139144806400</v>
+        <v>139725635584</v>
       </c>
       <c r="D112" s="3">
         <v>172</v>
@@ -3484,10 +3484,10 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>557.6900000000001</v>
+        <v>558.3099999999999</v>
       </c>
       <c r="C113" s="2">
-        <v>247139205120</v>
+        <v>247413964800</v>
       </c>
       <c r="D113" s="3">
         <v>35</v>
@@ -3498,13 +3498,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>45.63</v>
+        <v>45.43</v>
       </c>
       <c r="C114" s="2">
-        <v>13601938432</v>
+        <v>13542320128</v>
       </c>
       <c r="D114" s="3">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3512,10 +3512,10 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>89.31</v>
+        <v>89.53</v>
       </c>
       <c r="C115" s="2">
-        <v>42640166912</v>
+        <v>42745200640</v>
       </c>
       <c r="D115" s="3">
         <v>222</v>
@@ -3526,13 +3526,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>106.49</v>
+        <v>109.59</v>
       </c>
       <c r="C116" s="2">
-        <v>11369084928</v>
+        <v>11700046848</v>
       </c>
       <c r="D116" s="3">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3540,13 +3540,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>201.54</v>
+        <v>206.16</v>
       </c>
       <c r="C117" s="2">
-        <v>10315401216</v>
+        <v>10551866368</v>
       </c>
       <c r="D117" s="3">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3554,10 +3554,10 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>215.56</v>
+        <v>214.975</v>
       </c>
       <c r="C118" s="2">
-        <v>209955438592</v>
+        <v>209385652224</v>
       </c>
       <c r="D118" s="3">
         <v>92</v>
@@ -3568,13 +3568,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>53.15</v>
+        <v>52.985</v>
       </c>
       <c r="C119" s="2">
-        <v>216589451264</v>
+        <v>215917051904</v>
       </c>
       <c r="D119" s="3">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3582,13 +3582,13 @@
         <v>122</v>
       </c>
       <c r="B120" s="2">
-        <v>80.92</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="C120" s="2">
-        <v>33058975744</v>
+        <v>33300015104</v>
       </c>
       <c r="D120" s="3">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3596,13 +3596,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>32.91</v>
+        <v>31.685</v>
       </c>
       <c r="C121" s="2">
-        <v>66028318720</v>
+        <v>63570563072</v>
       </c>
       <c r="D121" s="3">
-        <v>604</v>
+        <v>627</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3610,10 +3610,10 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>496.91</v>
+        <v>494.46</v>
       </c>
       <c r="C122" s="2">
-        <v>50551648256</v>
+        <v>50302402560</v>
       </c>
       <c r="D122" s="3">
         <v>40</v>
@@ -3624,13 +3624,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>46.07</v>
+        <v>46.43</v>
       </c>
       <c r="C123" s="2">
-        <v>8305131008</v>
+        <v>8370029056</v>
       </c>
       <c r="D123" s="3">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3638,13 +3638,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="C124" s="2">
-        <v>20981448704</v>
+        <v>21208684544</v>
       </c>
       <c r="D124" s="3">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3652,13 +3652,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>70.47</v>
+        <v>71.2257</v>
       </c>
       <c r="C125" s="2">
-        <v>35761905664</v>
+        <v>36145405952</v>
       </c>
       <c r="D125" s="3">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3666,13 +3666,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>55.69</v>
+        <v>56.585</v>
       </c>
       <c r="C126" s="2">
-        <v>39588515840</v>
+        <v>40224747520</v>
       </c>
       <c r="D126" s="3">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3680,13 +3680,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>74.31999999999999</v>
+        <v>74.16</v>
       </c>
       <c r="C127" s="2">
-        <v>95280463872</v>
+        <v>95075344384</v>
       </c>
       <c r="D127" s="3">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3694,13 +3694,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>159.67</v>
+        <v>162.51</v>
       </c>
       <c r="C128" s="2">
-        <v>298495082496</v>
+        <v>303804317696</v>
       </c>
       <c r="D128" s="3">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3708,13 +3708,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>55</v>
+        <v>56.74</v>
       </c>
       <c r="C129" s="2">
-        <v>11836220416</v>
+        <v>12210675712</v>
       </c>
       <c r="D129" s="3">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3722,13 +3722,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>50.74</v>
+        <v>50.3</v>
       </c>
       <c r="C130" s="2">
-        <v>42415648768</v>
+        <v>42047832064</v>
       </c>
       <c r="D130" s="3">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3736,13 +3736,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>44.19</v>
+        <v>44.64</v>
       </c>
       <c r="C131" s="2">
-        <v>28432640000</v>
+        <v>28722178048</v>
       </c>
       <c r="D131" s="3">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3750,13 +3750,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>77.13</v>
+        <v>78.09</v>
       </c>
       <c r="C132" s="2">
-        <v>35403980800</v>
+        <v>35844636672</v>
       </c>
       <c r="D132" s="3">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3764,10 +3764,10 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>423.94</v>
+        <v>427.37</v>
       </c>
       <c r="C133" s="2">
-        <v>124295815168</v>
+        <v>125301465088</v>
       </c>
       <c r="D133" s="3">
         <v>46</v>
@@ -3778,13 +3778,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>102.59</v>
+        <v>103.0801</v>
       </c>
       <c r="C134" s="2">
-        <v>25647499264</v>
+        <v>25770024960</v>
       </c>
       <c r="D134" s="3">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3792,10 +3792,10 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>168.84</v>
+        <v>169.29</v>
       </c>
       <c r="C135" s="2">
-        <v>37033533440</v>
+        <v>37132234752</v>
       </c>
       <c r="D135" s="3">
         <v>117</v>
@@ -3806,10 +3806,10 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>136.69</v>
+        <v>136.725</v>
       </c>
       <c r="C136" s="2">
-        <v>15310510080</v>
+        <v>15314430976</v>
       </c>
       <c r="D136" s="3">
         <v>145</v>
@@ -3820,13 +3820,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="2">
-        <v>123.15</v>
+        <v>125.715</v>
       </c>
       <c r="C137" s="2">
-        <v>41652162560</v>
+        <v>42519703552</v>
       </c>
       <c r="D137" s="3">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3834,10 +3834,10 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>257.46</v>
+        <v>256.305</v>
       </c>
       <c r="C138" s="2">
-        <v>190096097280</v>
+        <v>189243310080</v>
       </c>
       <c r="D138" s="3">
         <v>77</v>
@@ -3848,13 +3848,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>85.48999999999999</v>
+        <v>86.45999999999999</v>
       </c>
       <c r="C139" s="2">
-        <v>156215869440</v>
+        <v>157988356096</v>
       </c>
       <c r="D139" s="3">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3862,13 +3862,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>120.85</v>
+        <v>122.405</v>
       </c>
       <c r="C140" s="2">
-        <v>35209285632</v>
+        <v>35662331904</v>
       </c>
       <c r="D140" s="3">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3876,13 +3876,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>150.57</v>
+        <v>150.64</v>
       </c>
       <c r="C141" s="2">
-        <v>33183369216</v>
+        <v>33198794752</v>
       </c>
       <c r="D141" s="3">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3890,13 +3890,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>142.71</v>
+        <v>143.3</v>
       </c>
       <c r="C142" s="2">
-        <v>19962134528</v>
+        <v>20044662784</v>
       </c>
       <c r="D142" s="3">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3904,13 +3904,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>54.9</v>
+        <v>55.185</v>
       </c>
       <c r="C143" s="2">
-        <v>38831595520</v>
+        <v>39033180160</v>
       </c>
       <c r="D143" s="3">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3918,10 +3918,10 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>401.36</v>
+        <v>397.89</v>
       </c>
       <c r="C144" s="2">
-        <v>14085447680</v>
+        <v>13963671552</v>
       </c>
       <c r="D144" s="3">
         <v>49</v>
@@ -3932,10 +3932,10 @@
         <v>147</v>
       </c>
       <c r="B145" s="2">
-        <v>162.93</v>
+        <v>162.735</v>
       </c>
       <c r="C145" s="2">
-        <v>19726096384</v>
+        <v>19702489088</v>
       </c>
       <c r="D145" s="3">
         <v>122</v>
@@ -3946,13 +3946,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>109.48</v>
+        <v>109.15</v>
       </c>
       <c r="C146" s="2">
-        <v>22564812800</v>
+        <v>22496796672</v>
       </c>
       <c r="D146" s="3">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3960,10 +3960,10 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>90.37</v>
+        <v>90.5433</v>
       </c>
       <c r="C147" s="2">
-        <v>69643829248</v>
+        <v>69777375232</v>
       </c>
       <c r="D147" s="3">
         <v>219</v>
@@ -3974,13 +3974,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>101.56</v>
+        <v>108.59</v>
       </c>
       <c r="C148" s="2">
-        <v>9272843264</v>
+        <v>9914711040</v>
       </c>
       <c r="D148" s="3">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3988,13 +3988,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>50.83</v>
+        <v>51.34</v>
       </c>
       <c r="C149" s="2">
-        <v>32617611264</v>
+        <v>32944875520</v>
       </c>
       <c r="D149" s="3">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4002,13 +4002,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>19.1</v>
+        <v>19.415</v>
       </c>
       <c r="C150" s="2">
-        <v>4024733184</v>
+        <v>4091109632</v>
       </c>
       <c r="D150" s="3">
-        <v>1040</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4016,13 +4016,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>122.07</v>
+        <v>121.86</v>
       </c>
       <c r="C151" s="2">
-        <v>47318724608</v>
+        <v>47237324800</v>
       </c>
       <c r="D151" s="3">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4030,10 +4030,10 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>123.83</v>
+        <v>124.02</v>
       </c>
       <c r="C152" s="2">
-        <v>33696247808</v>
+        <v>33747947520</v>
       </c>
       <c r="D152" s="3">
         <v>160</v>
@@ -4044,10 +4044,10 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>43.61</v>
+        <v>43.65</v>
       </c>
       <c r="C153" s="2">
-        <v>23319879680</v>
+        <v>23341271040</v>
       </c>
       <c r="D153" s="3">
         <v>455</v>
@@ -4058,13 +4058,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>181.49</v>
+        <v>184.42</v>
       </c>
       <c r="C154" s="2">
-        <v>51674013696</v>
+        <v>52508246016</v>
       </c>
       <c r="D154" s="3">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4072,13 +4072,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>90.33</v>
+        <v>91.23999999999999</v>
       </c>
       <c r="C155" s="2">
-        <v>31302959104</v>
+        <v>31618308096</v>
       </c>
       <c r="D155" s="3">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4086,10 +4086,10 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>197.11</v>
+        <v>198.235</v>
       </c>
       <c r="C156" s="2">
-        <v>24864440320</v>
+        <v>25006354432</v>
       </c>
       <c r="D156" s="3">
         <v>100</v>
@@ -4100,13 +4100,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>362.3</v>
+        <v>361.28</v>
       </c>
       <c r="C157" s="2">
-        <v>15729326080</v>
+        <v>15685043200</v>
       </c>
       <c r="D157" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4114,10 +4114,10 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>70.34</v>
+        <v>70.39</v>
       </c>
       <c r="C158" s="2">
-        <v>26939023360</v>
+        <v>26958174208</v>
       </c>
       <c r="D158" s="3">
         <v>282</v>
@@ -4128,10 +4128,10 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>171.84</v>
+        <v>171.855</v>
       </c>
       <c r="C159" s="2">
-        <v>61417848832</v>
+        <v>61423206400</v>
       </c>
       <c r="D159" s="3">
         <v>115</v>
@@ -4142,10 +4142,10 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>468.01</v>
+        <v>466.885</v>
       </c>
       <c r="C160" s="2">
-        <v>110285619200</v>
+        <v>110020517888</v>
       </c>
       <c r="D160" s="3">
         <v>42</v>
@@ -4156,13 +4156,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>83.37</v>
+        <v>85.59</v>
       </c>
       <c r="C161" s="2">
-        <v>9933702144</v>
+        <v>10198218752</v>
       </c>
       <c r="D161" s="3">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4170,13 +4170,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>95.89</v>
+        <v>96.73</v>
       </c>
       <c r="C162" s="2">
-        <v>54801137664</v>
+        <v>55281201152</v>
       </c>
       <c r="D162" s="3">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4184,13 +4184,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>140.36</v>
+        <v>143.77</v>
       </c>
       <c r="C163" s="2">
-        <v>19235495936</v>
+        <v>19702816768</v>
       </c>
       <c r="D163" s="3">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4198,13 +4198,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>131.69</v>
+        <v>130.19</v>
       </c>
       <c r="C164" s="2">
-        <v>77020086272</v>
+        <v>76142796800</v>
       </c>
       <c r="D164" s="3">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4212,13 +4212,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>245.02</v>
+        <v>247.4</v>
       </c>
       <c r="C165" s="2">
-        <v>14188005376</v>
+        <v>14325820416</v>
       </c>
       <c r="D165" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4226,13 +4226,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>759.42</v>
+        <v>769.21</v>
       </c>
       <c r="C166" s="2">
-        <v>71023460352</v>
+        <v>71939055616</v>
       </c>
       <c r="D166" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4240,13 +4240,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>65.44</v>
+        <v>66.455</v>
       </c>
       <c r="C167" s="2">
-        <v>24795543552</v>
+        <v>25180131328</v>
       </c>
       <c r="D167" s="3">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4254,13 +4254,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>41.73</v>
+        <v>42.43</v>
       </c>
       <c r="C168" s="2">
-        <v>15091362816</v>
+        <v>15344513024</v>
       </c>
       <c r="D168" s="3">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4268,13 +4268,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>68.12</v>
+        <v>68.45</v>
       </c>
       <c r="C169" s="2">
-        <v>23763116032</v>
+        <v>23878232064</v>
       </c>
       <c r="D169" s="3">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4282,13 +4282,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>244.17</v>
+        <v>248.455</v>
       </c>
       <c r="C170" s="2">
-        <v>16223264768</v>
+        <v>16507971584</v>
       </c>
       <c r="D170" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4296,10 +4296,10 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>217.1</v>
+        <v>217.8</v>
       </c>
       <c r="C171" s="2">
-        <v>86536060928</v>
+        <v>86815080448</v>
       </c>
       <c r="D171" s="3">
         <v>91</v>
@@ -4310,13 +4310,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>98.28</v>
+        <v>99.04000000000001</v>
       </c>
       <c r="C172" s="2">
-        <v>20781010944</v>
+        <v>20941711360</v>
       </c>
       <c r="D172" s="3">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4324,10 +4324,10 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>82.92</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="C173" s="2">
-        <v>10228347904</v>
+        <v>10243149824</v>
       </c>
       <c r="D173" s="3">
         <v>239</v>
@@ -4338,13 +4338,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>58.38</v>
+        <v>58.17</v>
       </c>
       <c r="C174" s="2">
-        <v>13408776192</v>
+        <v>13360542720</v>
       </c>
       <c r="D174" s="3">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4352,10 +4352,10 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>80</v>
+        <v>79.985</v>
       </c>
       <c r="C175" s="2">
-        <v>49118240768</v>
+        <v>49109028864</v>
       </c>
       <c r="D175" s="3">
         <v>248</v>
@@ -4380,13 +4380,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>124.43</v>
+        <v>125.055</v>
       </c>
       <c r="C177" s="2">
-        <v>19011907584</v>
+        <v>19107403776</v>
       </c>
       <c r="D177" s="3">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4394,13 +4394,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>98.67</v>
+        <v>103.515</v>
       </c>
       <c r="C178" s="2">
-        <v>14615492608</v>
+        <v>15333158912</v>
       </c>
       <c r="D178" s="3">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4408,13 +4408,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="2">
-        <v>139.45</v>
+        <v>128.04</v>
       </c>
       <c r="C179" s="2">
-        <v>30459086848</v>
+        <v>27966879744</v>
       </c>
       <c r="D179" s="3">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4422,13 +4422,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>13.1</v>
+        <v>12.9742</v>
       </c>
       <c r="C180" s="2">
-        <v>52410089472</v>
+        <v>51906793472</v>
       </c>
       <c r="D180" s="3">
-        <v>1517</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4436,13 +4436,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>148.41</v>
+        <v>149.72</v>
       </c>
       <c r="C181" s="2">
-        <v>26876162048</v>
+        <v>27113394176</v>
       </c>
       <c r="D181" s="3">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4450,10 +4450,10 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>56.91</v>
+        <v>56.82</v>
       </c>
       <c r="C182" s="2">
-        <v>32514560000</v>
+        <v>32463140864</v>
       </c>
       <c r="D182" s="3">
         <v>349</v>
@@ -4464,13 +4464,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>43.05</v>
+        <v>42.91</v>
       </c>
       <c r="C183" s="2">
-        <v>61703131136</v>
+        <v>61502472192</v>
       </c>
       <c r="D183" s="3">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4478,10 +4478,10 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>431.04</v>
+        <v>429.755</v>
       </c>
       <c r="C184" s="2">
-        <v>16517237760</v>
+        <v>16467996672</v>
       </c>
       <c r="D184" s="3">
         <v>46</v>
@@ -4492,10 +4492,10 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>263.52</v>
+        <v>264.75</v>
       </c>
       <c r="C185" s="2">
-        <v>66192797696</v>
+        <v>66501758976</v>
       </c>
       <c r="D185" s="3">
         <v>75</v>
@@ -4506,13 +4506,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>37.17</v>
+        <v>36.8</v>
       </c>
       <c r="C186" s="2">
-        <v>21292349440</v>
+        <v>21080399872</v>
       </c>
       <c r="D186" s="3">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4520,10 +4520,10 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>161.31</v>
+        <v>161.175</v>
       </c>
       <c r="C187" s="2">
-        <v>9754092544</v>
+        <v>9745930240</v>
       </c>
       <c r="D187" s="3">
         <v>123</v>
@@ -4534,10 +4534,10 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>125.18</v>
+        <v>125.14</v>
       </c>
       <c r="C188" s="2">
-        <v>77274865664</v>
+        <v>77250174976</v>
       </c>
       <c r="D188" s="3">
         <v>158</v>
@@ -4548,10 +4548,10 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>855.1799999999999</v>
+        <v>840.8049999999999</v>
       </c>
       <c r="C189" s="2">
-        <v>21373599744</v>
+        <v>21014323200</v>
       </c>
       <c r="D189" s="3">
         <v>23</v>
@@ -4562,13 +4562,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>57.29</v>
+        <v>58.46</v>
       </c>
       <c r="C190" s="2">
-        <v>33940715520</v>
+        <v>34633867264</v>
       </c>
       <c r="D190" s="3">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4576,13 +4576,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>28.48</v>
+        <v>28.72</v>
       </c>
       <c r="C191" s="2">
-        <v>19390607360</v>
+        <v>19554011136</v>
       </c>
       <c r="D191" s="3">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4590,10 +4590,10 @@
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>247</v>
+        <v>247.51</v>
       </c>
       <c r="C192" s="2">
-        <v>18237046784</v>
+        <v>18274703360</v>
       </c>
       <c r="D192" s="3">
         <v>80</v>
@@ -4604,13 +4604,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>90.98999999999999</v>
+        <v>93.48909999999999</v>
       </c>
       <c r="C193" s="2">
-        <v>11386670080</v>
+        <v>11699412992</v>
       </c>
       <c r="D193" s="3">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4618,13 +4618,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>30.99</v>
+        <v>31.38</v>
       </c>
       <c r="C194" s="2">
-        <v>16168381440</v>
+        <v>16371855360</v>
       </c>
       <c r="D194" s="3">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4632,13 +4632,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>32.96</v>
+        <v>33.425</v>
       </c>
       <c r="C195" s="2">
-        <v>16169088000</v>
+        <v>16397201408</v>
       </c>
       <c r="D195" s="3">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4646,13 +4646,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>102.63</v>
+        <v>103.645</v>
       </c>
       <c r="C196" s="2">
-        <v>8431300608</v>
+        <v>8514685440</v>
       </c>
       <c r="D196" s="3">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4660,13 +4660,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>196.24</v>
+        <v>198.89</v>
       </c>
       <c r="C197" s="2">
-        <v>20963534848</v>
+        <v>21246623744</v>
       </c>
       <c r="D197" s="3">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4674,13 +4674,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>75.76000000000001</v>
+        <v>57.2601</v>
       </c>
       <c r="C198" s="2">
-        <v>59486453760</v>
+        <v>44960403456</v>
       </c>
       <c r="D198" s="3">
-        <v>262</v>
+        <v>347</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4688,10 +4688,10 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>78.16</v>
+        <v>78.2</v>
       </c>
       <c r="C199" s="2">
-        <v>27514198016</v>
+        <v>27528275968</v>
       </c>
       <c r="D199" s="3">
         <v>254</v>
@@ -4702,13 +4702,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>225.63</v>
+        <v>226.7</v>
       </c>
       <c r="C200" s="2">
-        <v>61606694912</v>
+        <v>61898850304</v>
       </c>
       <c r="D200" s="3">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4716,10 +4716,10 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>112.36</v>
+        <v>112.45</v>
       </c>
       <c r="C201" s="2">
-        <v>122290380800</v>
+        <v>122388332544</v>
       </c>
       <c r="D201" s="3">
         <v>176</v>
@@ -4730,13 +4730,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>76.02</v>
+        <v>76.39</v>
       </c>
       <c r="C202" s="2">
-        <v>34576785408</v>
+        <v>34745077760</v>
       </c>
       <c r="D202" s="3">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4744,13 +4744,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>18.62</v>
+        <v>20.23</v>
       </c>
       <c r="C203" s="2">
-        <v>11931156480</v>
+        <v>12962797568</v>
       </c>
       <c r="D203" s="3">
-        <v>1067</v>
+        <v>982</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4758,13 +4758,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>75.53</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="C204" s="2">
-        <v>94212341760</v>
+        <v>98528174080</v>
       </c>
       <c r="D204" s="3">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4772,13 +4772,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>74.52</v>
+        <v>74.22499999999999</v>
       </c>
       <c r="C205" s="2">
-        <v>43607834624</v>
+        <v>43435204608</v>
       </c>
       <c r="D205" s="3">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4786,13 +4786,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>114</v>
+        <v>115.225</v>
       </c>
       <c r="C206" s="2">
-        <v>10893247488</v>
+        <v>11010301952</v>
       </c>
       <c r="D206" s="3">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4800,13 +4800,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>33.57</v>
+        <v>33.605</v>
       </c>
       <c r="C207" s="2">
-        <v>27527399424</v>
+        <v>27556100096</v>
       </c>
       <c r="D207" s="3">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4814,13 +4814,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>36.92</v>
+        <v>36.965</v>
       </c>
       <c r="C208" s="2">
-        <v>51323224064</v>
+        <v>51385782272</v>
       </c>
       <c r="D208" s="3">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4828,13 +4828,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>110.77</v>
+        <v>113.29</v>
       </c>
       <c r="C209" s="2">
-        <v>6889151488</v>
+        <v>7045878784</v>
       </c>
       <c r="D209" s="3">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4842,13 +4842,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>128.77</v>
+        <v>129.91</v>
       </c>
       <c r="C210" s="2">
-        <v>1632571883520</v>
+        <v>1647025061888</v>
       </c>
       <c r="D210" s="3">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4856,13 +4856,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>128.45</v>
+        <v>129.5</v>
       </c>
       <c r="C211" s="2">
-        <v>1633023295488</v>
+        <v>1646372323328</v>
       </c>
       <c r="D211" s="3">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4870,13 +4870,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>155.69</v>
+        <v>157.45</v>
       </c>
       <c r="C212" s="2">
-        <v>21864792064</v>
+        <v>22111963136</v>
       </c>
       <c r="D212" s="3">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4884,13 +4884,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>121.65</v>
+        <v>123.83</v>
       </c>
       <c r="C213" s="2">
-        <v>31866580992</v>
+        <v>32437639168</v>
       </c>
       <c r="D213" s="3">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4898,10 +4898,10 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>106.32</v>
+        <v>106.75</v>
       </c>
       <c r="C214" s="2">
-        <v>20337952768</v>
+        <v>20420206592</v>
       </c>
       <c r="D214" s="3">
         <v>186</v>
@@ -4912,13 +4912,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>353.16</v>
+        <v>358.06</v>
       </c>
       <c r="C215" s="2">
-        <v>117407334400</v>
+        <v>119036329984</v>
       </c>
       <c r="D215" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4926,10 +4926,10 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>722.88</v>
+        <v>714.9400000000001</v>
       </c>
       <c r="C216" s="2">
-        <v>36264722432</v>
+        <v>35866394624</v>
       </c>
       <c r="D216" s="3">
         <v>27</v>
@@ -4940,13 +4940,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>39.69</v>
+        <v>39.78</v>
       </c>
       <c r="C217" s="2">
-        <v>35808116736</v>
+        <v>35889315840</v>
       </c>
       <c r="D217" s="3">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4954,13 +4954,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>65.09</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C218" s="2">
-        <v>9022058496</v>
+        <v>8954140672</v>
       </c>
       <c r="D218" s="3">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4968,13 +4968,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>12.21</v>
+        <v>12.255</v>
       </c>
       <c r="C219" s="2">
-        <v>17678614528</v>
+        <v>17743769600</v>
       </c>
       <c r="D219" s="3">
-        <v>1628</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4982,10 +4982,10 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>270.75</v>
+        <v>269.41</v>
       </c>
       <c r="C220" s="2">
-        <v>74480345088</v>
+        <v>74111729664</v>
       </c>
       <c r="D220" s="3">
         <v>73</v>
@@ -4996,10 +4996,10 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>329.85</v>
+        <v>328.64</v>
       </c>
       <c r="C221" s="2">
-        <v>331624579072</v>
+        <v>330408099840</v>
       </c>
       <c r="D221" s="3">
         <v>60</v>
@@ -5010,13 +5010,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>151.94</v>
+        <v>153.79</v>
       </c>
       <c r="C222" s="2">
-        <v>46653480960</v>
+        <v>47221526528</v>
       </c>
       <c r="D222" s="3">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5024,13 +5024,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>72.59999999999999</v>
+        <v>73.41500000000001</v>
       </c>
       <c r="C223" s="2">
-        <v>22523060224</v>
+        <v>22775904256</v>
       </c>
       <c r="D223" s="3">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5038,10 +5038,10 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>226.26</v>
+        <v>227.2825</v>
       </c>
       <c r="C224" s="2">
-        <v>9025669120</v>
+        <v>9066458112</v>
       </c>
       <c r="D224" s="3">
         <v>87</v>
@@ -5052,13 +5052,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>150.66</v>
+        <v>153.46</v>
       </c>
       <c r="C225" s="2">
-        <v>39868706816</v>
+        <v>40609660928</v>
       </c>
       <c r="D225" s="3">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5066,10 +5066,10 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>76.18000000000001</v>
+        <v>76.25</v>
       </c>
       <c r="C226" s="2">
-        <v>18782484480</v>
+        <v>18799742976</v>
       </c>
       <c r="D226" s="3">
         <v>260</v>
@@ -5080,10 +5080,10 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>190.51</v>
+        <v>190.92</v>
       </c>
       <c r="C227" s="2">
-        <v>126818123776</v>
+        <v>127091048448</v>
       </c>
       <c r="D227" s="3">
         <v>104</v>
@@ -5094,13 +5094,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>17.32</v>
+        <v>17.385</v>
       </c>
       <c r="C228" s="2">
-        <v>22369126400</v>
+        <v>22453075968</v>
       </c>
       <c r="D228" s="3">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5108,13 +5108,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>32.7</v>
+        <v>32.635</v>
       </c>
       <c r="C229" s="2">
-        <v>32240760832</v>
+        <v>32176670720</v>
       </c>
       <c r="D229" s="3">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5122,13 +5122,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>40.82</v>
+        <v>40.86</v>
       </c>
       <c r="C230" s="2">
-        <v>22298660864</v>
+        <v>22320513024</v>
       </c>
       <c r="D230" s="3">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5136,10 +5136,10 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>78.31</v>
+        <v>78.38</v>
       </c>
       <c r="C231" s="2">
-        <v>10258844672</v>
+        <v>10268014592</v>
       </c>
       <c r="D231" s="3">
         <v>253</v>
@@ -5150,13 +5150,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>16.805</v>
+        <v>16.8701</v>
       </c>
       <c r="C232" s="2">
-        <v>11952405504</v>
+        <v>11998707712</v>
       </c>
       <c r="D232" s="3">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5164,10 +5164,10 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>231.03</v>
+        <v>229.695</v>
       </c>
       <c r="C233" s="2">
-        <v>47222300672</v>
+        <v>46949433344</v>
       </c>
       <c r="D233" s="3">
         <v>86</v>
@@ -5178,10 +5178,10 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>487.15</v>
+        <v>487.985</v>
       </c>
       <c r="C234" s="2">
-        <v>60866957312</v>
+        <v>60971282432</v>
       </c>
       <c r="D234" s="3">
         <v>40</v>
@@ -5192,13 +5192,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>48.18</v>
+        <v>49.155</v>
       </c>
       <c r="C235" s="2">
-        <v>19912359936</v>
+        <v>20315318272</v>
       </c>
       <c r="D235" s="3">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5206,13 +5206,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>144.45</v>
+        <v>145.4799</v>
       </c>
       <c r="C236" s="2">
-        <v>131594813440</v>
+        <v>132533067776</v>
       </c>
       <c r="D236" s="3">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5220,13 +5220,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>112.07</v>
+        <v>115.83</v>
       </c>
       <c r="C237" s="2">
-        <v>62744293376</v>
+        <v>64849395712</v>
       </c>
       <c r="D237" s="3">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5234,10 +5234,10 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>507.77</v>
+        <v>507.04</v>
       </c>
       <c r="C238" s="2">
-        <v>42147393536</v>
+        <v>42086801408</v>
       </c>
       <c r="D238" s="3">
         <v>39</v>
@@ -5248,13 +5248,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>222.06</v>
+        <v>224.015</v>
       </c>
       <c r="C239" s="2">
-        <v>16782494720</v>
+        <v>16930247680</v>
       </c>
       <c r="D239" s="3">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5262,13 +5262,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>80.16</v>
+        <v>81.405</v>
       </c>
       <c r="C240" s="2">
-        <v>20448096256</v>
+        <v>20765683712</v>
       </c>
       <c r="D240" s="3">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5276,13 +5276,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>185.34</v>
+        <v>186.54</v>
       </c>
       <c r="C241" s="2">
-        <v>29302253568</v>
+        <v>29491972096</v>
       </c>
       <c r="D241" s="3">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5290,13 +5290,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>64.98</v>
+        <v>64.48</v>
       </c>
       <c r="C242" s="2">
-        <v>14496259072</v>
+        <v>14384714752</v>
       </c>
       <c r="D242" s="3">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5304,13 +5304,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>34.87</v>
+        <v>34.885</v>
       </c>
       <c r="C243" s="2">
-        <v>145993007104</v>
+        <v>146055806976</v>
       </c>
       <c r="D243" s="3">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>496.98</v>
+        <v>501.566</v>
       </c>
       <c r="C244" s="2">
-        <v>139184226304</v>
+        <v>140468584448</v>
       </c>
       <c r="D244" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5332,13 +5332,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>35.16</v>
+        <v>35.45</v>
       </c>
       <c r="C245" s="2">
-        <v>21604308992</v>
+        <v>21782501376</v>
       </c>
       <c r="D245" s="3">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5346,13 +5346,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>36.62</v>
+        <v>36.96</v>
       </c>
       <c r="C246" s="2">
-        <v>12709226496</v>
+        <v>12827226112</v>
       </c>
       <c r="D246" s="3">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5360,13 +5360,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>33.19</v>
+        <v>35.03</v>
       </c>
       <c r="C247" s="2">
-        <v>12812434432</v>
+        <v>13522735104</v>
       </c>
       <c r="D247" s="3">
-        <v>598</v>
+        <v>567</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5374,13 +5374,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>216.29</v>
+        <v>218.97</v>
       </c>
       <c r="C248" s="2">
-        <v>40132390912</v>
+        <v>40629661696</v>
       </c>
       <c r="D248" s="3">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5388,13 +5388,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>67.12</v>
+        <v>67.215</v>
       </c>
       <c r="C249" s="2">
-        <v>27151316992</v>
+        <v>27189743616</v>
       </c>
       <c r="D249" s="3">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5402,13 +5402,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>59.8</v>
+        <v>60.5</v>
       </c>
       <c r="C250" s="2">
-        <v>17439055872</v>
+        <v>17643192320</v>
       </c>
       <c r="D250" s="3">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5416,10 +5416,10 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>311.28</v>
+        <v>312.09</v>
       </c>
       <c r="C251" s="2">
-        <v>109369786368</v>
+        <v>109654384640</v>
       </c>
       <c r="D251" s="3">
         <v>63</v>
@@ -5430,13 +5430,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>340.68</v>
+        <v>343.725</v>
       </c>
       <c r="C252" s="2">
-        <v>26934364160</v>
+        <v>27175104512</v>
       </c>
       <c r="D252" s="3">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5444,10 +5444,10 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>250.23</v>
+        <v>249.54</v>
       </c>
       <c r="C253" s="2">
-        <v>76045647872</v>
+        <v>75835957248</v>
       </c>
       <c r="D253" s="3">
         <v>79</v>
@@ -5458,13 +5458,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>16.65</v>
+        <v>17.1</v>
       </c>
       <c r="C254" s="2">
-        <v>7754204672</v>
+        <v>7963778048</v>
       </c>
       <c r="D254" s="3">
-        <v>1194</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5472,10 +5472,10 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>127.45</v>
+        <v>127.795</v>
       </c>
       <c r="C255" s="2">
-        <v>16167031808</v>
+        <v>16210795520</v>
       </c>
       <c r="D255" s="3">
         <v>155</v>
@@ -5486,13 +5486,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>208.24</v>
+        <v>206.1</v>
       </c>
       <c r="C256" s="2">
-        <v>21520564224</v>
+        <v>21299404800</v>
       </c>
       <c r="D256" s="3">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5500,13 +5500,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>62.04</v>
+        <v>63.13</v>
       </c>
       <c r="C257" s="2">
-        <v>42565582848</v>
+        <v>43313430528</v>
       </c>
       <c r="D257" s="3">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5514,13 +5514,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>171.16</v>
+        <v>169.735</v>
       </c>
       <c r="C258" s="2">
-        <v>12473335808</v>
+        <v>12369488896</v>
       </c>
       <c r="D258" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5528,13 +5528,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>170.64</v>
+        <v>172.4</v>
       </c>
       <c r="C259" s="2">
-        <v>443447279616</v>
+        <v>448021037056</v>
       </c>
       <c r="D259" s="3">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5542,13 +5542,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>28.28</v>
+        <v>28.525</v>
       </c>
       <c r="C260" s="2">
-        <v>9094622208</v>
+        <v>9173411840</v>
       </c>
       <c r="D260" s="3">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5556,13 +5556,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>156.35</v>
+        <v>157.68</v>
       </c>
       <c r="C261" s="2">
-        <v>454368755712</v>
+        <v>458233806848</v>
       </c>
       <c r="D261" s="3">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5570,13 +5570,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>66.25</v>
+        <v>65.37</v>
       </c>
       <c r="C262" s="2">
-        <v>22707718144</v>
+        <v>22406092800</v>
       </c>
       <c r="D262" s="3">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5584,13 +5584,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>33.93</v>
+        <v>33.78</v>
       </c>
       <c r="C263" s="2">
-        <v>47630254080</v>
+        <v>47419686912</v>
       </c>
       <c r="D263" s="3">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5598,13 +5598,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>12.04</v>
+        <v>12.015</v>
       </c>
       <c r="C264" s="2">
-        <v>11266225152</v>
+        <v>11242831872</v>
       </c>
       <c r="D264" s="3">
-        <v>1651</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5612,13 +5612,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>158.57</v>
+        <v>159.265</v>
       </c>
       <c r="C265" s="2">
-        <v>28283815936</v>
+        <v>28407779328</v>
       </c>
       <c r="D265" s="3">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5626,13 +5626,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>35.57</v>
+        <v>35.56</v>
       </c>
       <c r="C266" s="2">
-        <v>43652923392</v>
+        <v>43640651776</v>
       </c>
       <c r="D266" s="3">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5640,13 +5640,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>20.08</v>
+        <v>20.29</v>
       </c>
       <c r="C267" s="2">
-        <v>12447430656</v>
+        <v>12577608704</v>
       </c>
       <c r="D267" s="3">
-        <v>990</v>
+        <v>979</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5654,10 +5654,10 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>502.33</v>
+        <v>499.965</v>
       </c>
       <c r="C268" s="2">
-        <v>68919173120</v>
+        <v>68594700288</v>
       </c>
       <c r="D268" s="3">
         <v>39</v>
@@ -5668,13 +5668,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>128.66</v>
+        <v>128.19</v>
       </c>
       <c r="C269" s="2">
-        <v>43510882304</v>
+        <v>43351932928</v>
       </c>
       <c r="D269" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5682,13 +5682,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>17.46</v>
+        <v>17.7</v>
       </c>
       <c r="C270" s="2">
-        <v>38903844864</v>
+        <v>39438610432</v>
       </c>
       <c r="D270" s="3">
-        <v>1138</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5696,13 +5696,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>82.59</v>
+        <v>83.63</v>
       </c>
       <c r="C271" s="2">
-        <v>13066563584</v>
+        <v>13231101952</v>
       </c>
       <c r="D271" s="3">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5710,13 +5710,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>61.64</v>
+        <v>61.365</v>
       </c>
       <c r="C272" s="2">
-        <v>266567106560</v>
+        <v>265377841152</v>
       </c>
       <c r="D272" s="3">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5724,13 +5724,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>49.4</v>
+        <v>49.6371</v>
       </c>
       <c r="C273" s="2">
-        <v>35456651264</v>
+        <v>35626827776</v>
       </c>
       <c r="D273" s="3">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5738,13 +5738,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>63.32</v>
+        <v>63.67</v>
       </c>
       <c r="C274" s="2">
-        <v>14430500864</v>
+        <v>14510265344</v>
       </c>
       <c r="D274" s="3">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5752,10 +5752,10 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>98.40000000000001</v>
+        <v>98.155</v>
       </c>
       <c r="C275" s="2">
-        <v>13499790336</v>
+        <v>13466177536</v>
       </c>
       <c r="D275" s="3">
         <v>202</v>
@@ -5766,13 +5766,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="2">
-        <v>122.64</v>
+        <v>125.585</v>
       </c>
       <c r="C276" s="2">
-        <v>34857967616</v>
+        <v>35695026176</v>
       </c>
       <c r="D276" s="3">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5780,13 +5780,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>215.26</v>
+        <v>216.83</v>
       </c>
       <c r="C277" s="2">
-        <v>19072034816</v>
+        <v>19211139072</v>
       </c>
       <c r="D277" s="3">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5794,13 +5794,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>185.18</v>
+        <v>187.364</v>
       </c>
       <c r="C278" s="2">
-        <v>35082903552</v>
+        <v>35496669184</v>
       </c>
       <c r="D278" s="3">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5808,10 +5808,10 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>380.75</v>
+        <v>382.01</v>
       </c>
       <c r="C279" s="2">
-        <v>186414055424</v>
+        <v>187030945792</v>
       </c>
       <c r="D279" s="3">
         <v>52</v>
@@ -5822,13 +5822,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>54.83</v>
+        <v>55.13</v>
       </c>
       <c r="C280" s="2">
-        <v>14655511552</v>
+        <v>14735697920</v>
       </c>
       <c r="D280" s="3">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5836,10 +5836,10 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>449.16</v>
+        <v>447.72</v>
       </c>
       <c r="C281" s="2">
-        <v>426375479296</v>
+        <v>425008529408</v>
       </c>
       <c r="D281" s="3">
         <v>44</v>
@@ -5850,10 +5850,10 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>447.92</v>
+        <v>449.66</v>
       </c>
       <c r="C282" s="2">
-        <v>112800145408</v>
+        <v>113238335488</v>
       </c>
       <c r="D282" s="3">
         <v>44</v>
@@ -5864,13 +5864,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>28.01</v>
+        <v>27.97</v>
       </c>
       <c r="C283" s="2">
-        <v>4749347840</v>
+        <v>4742565376</v>
       </c>
       <c r="D283" s="3">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5878,13 +5878,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>51.76</v>
+        <v>52.05</v>
       </c>
       <c r="C284" s="2">
-        <v>13011842048</v>
+        <v>13084744704</v>
       </c>
       <c r="D284" s="3">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5892,13 +5892,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>226.72</v>
+        <v>225.285</v>
       </c>
       <c r="C285" s="2">
-        <v>132853612544</v>
+        <v>132012728320</v>
       </c>
       <c r="D285" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5906,10 +5906,10 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>693.36</v>
+        <v>693.42</v>
       </c>
       <c r="C286" s="2">
-        <v>93145980928</v>
+        <v>93154041856</v>
       </c>
       <c r="D286" s="3">
         <v>28</v>
@@ -5920,13 +5920,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>32.26</v>
+        <v>32.655</v>
       </c>
       <c r="C287" s="2">
-        <v>19197054976</v>
+        <v>19432108032</v>
       </c>
       <c r="D287" s="3">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5934,13 +5934,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>58.07</v>
+        <v>58.51</v>
       </c>
       <c r="C288" s="2">
-        <v>44391436288</v>
+        <v>44727791616</v>
       </c>
       <c r="D288" s="3">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5948,13 +5948,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>102.21</v>
+        <v>103.63</v>
       </c>
       <c r="C289" s="2">
-        <v>14892405760</v>
+        <v>15099304960</v>
       </c>
       <c r="D289" s="3">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5962,13 +5962,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>96.43000000000001</v>
+        <v>96.78</v>
       </c>
       <c r="C290" s="2">
-        <v>31697793024</v>
+        <v>31812843520</v>
       </c>
       <c r="D290" s="3">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5976,13 +5976,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>86.25</v>
+        <v>88.1384</v>
       </c>
       <c r="C291" s="2">
-        <v>20530520064</v>
+        <v>20980023296</v>
       </c>
       <c r="D291" s="3">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5990,10 +5990,10 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>393.01</v>
+        <v>392.76</v>
       </c>
       <c r="C292" s="2">
-        <v>372427685888</v>
+        <v>372190773248</v>
       </c>
       <c r="D292" s="3">
         <v>50</v>
@@ -6004,13 +6004,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>145.83</v>
+        <v>148</v>
       </c>
       <c r="C293" s="2">
-        <v>17474080768</v>
+        <v>17734100992</v>
       </c>
       <c r="D293" s="3">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6018,13 +6018,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>200.85</v>
+        <v>204.075</v>
       </c>
       <c r="C294" s="2">
-        <v>60928651264</v>
+        <v>61906964480</v>
       </c>
       <c r="D294" s="3">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6032,13 +6032,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>59.32</v>
+        <v>59.95</v>
       </c>
       <c r="C295" s="2">
-        <v>13352279040</v>
+        <v>13494085632</v>
       </c>
       <c r="D295" s="3">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6046,10 +6046,10 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>291.02</v>
+        <v>289.91</v>
       </c>
       <c r="C296" s="2">
-        <v>212471955456</v>
+        <v>211661553664</v>
       </c>
       <c r="D296" s="3">
         <v>68</v>
@@ -6060,13 +6060,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>89.52</v>
+        <v>83.06</v>
       </c>
       <c r="C297" s="2">
-        <v>48728780800</v>
+        <v>45212381184</v>
       </c>
       <c r="D297" s="3">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6074,13 +6074,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>435.12</v>
+        <v>428.725</v>
       </c>
       <c r="C298" s="2">
-        <v>58964414464</v>
+        <v>58097807360</v>
       </c>
       <c r="D298" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6088,10 +6088,10 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>338.05</v>
+        <v>340.05</v>
       </c>
       <c r="C299" s="2">
-        <v>62032171008</v>
+        <v>62399172608</v>
       </c>
       <c r="D299" s="3">
         <v>58</v>
@@ -6102,13 +6102,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>75.29000000000001</v>
+        <v>74.97499999999999</v>
       </c>
       <c r="C300" s="2">
-        <v>102533685248</v>
+        <v>102104702976</v>
       </c>
       <c r="D300" s="3">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6116,13 +6116,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>84.48999999999999</v>
+        <v>84.66</v>
       </c>
       <c r="C301" s="2">
-        <v>112406339584</v>
+        <v>112632512512</v>
       </c>
       <c r="D301" s="3">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6130,13 +6130,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>64.42</v>
+        <v>64.91</v>
       </c>
       <c r="C302" s="2">
-        <v>49334185984</v>
+        <v>49709445120</v>
       </c>
       <c r="D302" s="3">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6144,10 +6144,10 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>313.19</v>
+        <v>313.44</v>
       </c>
       <c r="C303" s="2">
-        <v>802621423616</v>
+        <v>803262103552</v>
       </c>
       <c r="D303" s="3">
         <v>63</v>
@@ -6158,13 +6158,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>45.76</v>
+        <v>46.21</v>
       </c>
       <c r="C304" s="2">
-        <v>16647442432</v>
+        <v>16811151360</v>
       </c>
       <c r="D304" s="3">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6172,13 +6172,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>104.12</v>
+        <v>105.43</v>
       </c>
       <c r="C305" s="2">
-        <v>6630320128</v>
+        <v>6713740288</v>
       </c>
       <c r="D305" s="3">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6186,10 +6186,10 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>88.17</v>
+        <v>88.005</v>
       </c>
       <c r="C306" s="2">
-        <v>23615275008</v>
+        <v>23571083264</v>
       </c>
       <c r="D306" s="3">
         <v>225</v>
@@ -6200,10 +6200,10 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>248.69</v>
+        <v>250.0025</v>
       </c>
       <c r="C307" s="2">
-        <v>9368003584</v>
+        <v>9417444352</v>
       </c>
       <c r="D307" s="3">
         <v>79</v>
@@ -6214,10 +6214,10 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>453.48</v>
+        <v>458.77</v>
       </c>
       <c r="C308" s="2">
-        <v>28101611520</v>
+        <v>28429426688</v>
       </c>
       <c r="D308" s="3">
         <v>43</v>
@@ -6228,13 +6228,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>191.04</v>
+        <v>191.945</v>
       </c>
       <c r="C309" s="2">
-        <v>94364966912</v>
+        <v>94812004352</v>
       </c>
       <c r="D309" s="3">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6242,13 +6242,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>107.19</v>
+        <v>107.635</v>
       </c>
       <c r="C310" s="2">
-        <v>59133722624</v>
+        <v>59379216384</v>
       </c>
       <c r="D310" s="3">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6256,13 +6256,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>57.98</v>
+        <v>56.395</v>
       </c>
       <c r="C311" s="2">
-        <v>60688244736</v>
+        <v>59029213184</v>
       </c>
       <c r="D311" s="3">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6270,10 +6270,10 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>44.3</v>
+        <v>44.29</v>
       </c>
       <c r="C312" s="2">
-        <v>79077269504</v>
+        <v>79059427328</v>
       </c>
       <c r="D312" s="3">
         <v>448</v>
@@ -6284,10 +6284,10 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>302.18</v>
+        <v>302.315</v>
       </c>
       <c r="C313" s="2">
-        <v>17617092608</v>
+        <v>17624965120</v>
       </c>
       <c r="D313" s="3">
         <v>65</v>
@@ -6298,13 +6298,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>40.8</v>
+        <v>42.06</v>
       </c>
       <c r="C314" s="2">
-        <v>13550046208</v>
+        <v>13968504832</v>
       </c>
       <c r="D314" s="3">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6312,13 +6312,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>136.22</v>
+        <v>139.75</v>
       </c>
       <c r="C315" s="2">
-        <v>58574602240</v>
+        <v>60092502016</v>
       </c>
       <c r="D315" s="3">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6326,10 +6326,10 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>532.6799999999999</v>
+        <v>529.13</v>
       </c>
       <c r="C316" s="2">
-        <v>25261283328</v>
+        <v>25092931584</v>
       </c>
       <c r="D316" s="3">
         <v>37</v>
@@ -6340,10 +6340,10 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>105.73</v>
+        <v>105.21</v>
       </c>
       <c r="C317" s="2">
-        <v>268283543552</v>
+        <v>266964058112</v>
       </c>
       <c r="D317" s="3">
         <v>188</v>
@@ -6354,10 +6354,10 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>109.95</v>
+        <v>110.4243</v>
       </c>
       <c r="C318" s="2">
-        <v>41913925632</v>
+        <v>42094735360</v>
       </c>
       <c r="D318" s="3">
         <v>180</v>
@@ -6368,13 +6368,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>25.78</v>
+        <v>26.275</v>
       </c>
       <c r="C319" s="2">
-        <v>15921830912</v>
+        <v>16227544064</v>
       </c>
       <c r="D319" s="3">
-        <v>771</v>
+        <v>756</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6382,13 +6382,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>89.14</v>
+        <v>89.8</v>
       </c>
       <c r="C320" s="2">
-        <v>147883261952</v>
+        <v>148978204672</v>
       </c>
       <c r="D320" s="3">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6396,10 +6396,10 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>543.78</v>
+        <v>548.86</v>
       </c>
       <c r="C321" s="2">
-        <v>43536879616</v>
+        <v>43943596032</v>
       </c>
       <c r="D321" s="3">
         <v>36</v>
@@ -6410,10 +6410,10 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>326.66</v>
+        <v>331.33</v>
       </c>
       <c r="C322" s="2">
-        <v>2428877144064</v>
+        <v>2463600738304</v>
       </c>
       <c r="D322" s="3">
         <v>60</v>
@@ -6424,13 +6424,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>287.71</v>
+        <v>282.755</v>
       </c>
       <c r="C323" s="2">
-        <v>48253853696</v>
+        <v>47422820352</v>
       </c>
       <c r="D323" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6438,13 +6438,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>139.82</v>
+        <v>140.1</v>
       </c>
       <c r="C324" s="2">
-        <v>23195299840</v>
+        <v>23241750528</v>
       </c>
       <c r="D324" s="3">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6452,13 +6452,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>46.16</v>
+        <v>45.61</v>
       </c>
       <c r="C325" s="2">
-        <v>12853758976</v>
+        <v>12700606464</v>
       </c>
       <c r="D325" s="3">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6466,10 +6466,10 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>1269.11</v>
+        <v>1272.41</v>
       </c>
       <c r="C326" s="2">
-        <v>27946055680</v>
+        <v>28018722816</v>
       </c>
       <c r="D326" s="3">
         <v>15</v>
@@ -6480,13 +6480,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>69.18000000000001</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="C327" s="2">
-        <v>75772854272</v>
+        <v>76506701824</v>
       </c>
       <c r="D327" s="3">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6494,13 +6494,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>18.28</v>
+        <v>18.365</v>
       </c>
       <c r="C328" s="2">
-        <v>7753736192</v>
+        <v>7789790208</v>
       </c>
       <c r="D328" s="3">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6508,13 +6508,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>49.38</v>
+        <v>50</v>
       </c>
       <c r="C329" s="2">
-        <v>24233975808</v>
+        <v>24538249216</v>
       </c>
       <c r="D329" s="3">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6522,13 +6522,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>248.72</v>
+        <v>248.41</v>
       </c>
       <c r="C330" s="2">
-        <v>14174826496</v>
+        <v>14157159424</v>
       </c>
       <c r="D330" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6536,13 +6536,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>70.09999999999999</v>
+        <v>69.88500000000001</v>
       </c>
       <c r="C331" s="2">
-        <v>141841743872</v>
+        <v>141406715904</v>
       </c>
       <c r="D331" s="3">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6550,13 +6550,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>40.44</v>
+        <v>40.5829</v>
       </c>
       <c r="C332" s="2">
-        <v>32138962944</v>
+        <v>32252530688</v>
       </c>
       <c r="D332" s="3">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6564,10 +6564,10 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>431</v>
+        <v>431.17</v>
       </c>
       <c r="C333" s="2">
-        <v>191597166592</v>
+        <v>191672745984</v>
       </c>
       <c r="D333" s="3">
         <v>46</v>
@@ -6578,13 +6578,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>26.95</v>
+        <v>26.79</v>
       </c>
       <c r="C334" s="2">
-        <v>11132048384</v>
+        <v>11065958400</v>
       </c>
       <c r="D334" s="3">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6592,13 +6592,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>108.64</v>
+        <v>109.54</v>
       </c>
       <c r="C335" s="2">
-        <v>166978584576</v>
+        <v>168361885696</v>
       </c>
       <c r="D335" s="3">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6606,10 +6606,10 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>442.61</v>
+        <v>443.03</v>
       </c>
       <c r="C336" s="2">
-        <v>67214311424</v>
+        <v>67278094336</v>
       </c>
       <c r="D336" s="3">
         <v>44</v>
@@ -6620,10 +6620,10 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>560.4</v>
+        <v>556.6263</v>
       </c>
       <c r="C337" s="2">
-        <v>114175901696</v>
+        <v>113407041536</v>
       </c>
       <c r="D337" s="3">
         <v>35</v>
@@ -6634,13 +6634,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>37.66</v>
+        <v>38.19</v>
       </c>
       <c r="C338" s="2">
-        <v>8670536704</v>
+        <v>8792559616</v>
       </c>
       <c r="D338" s="3">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6648,13 +6648,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>227.28</v>
+        <v>224.795</v>
       </c>
       <c r="C339" s="2">
-        <v>51738017792</v>
+        <v>51172331520</v>
       </c>
       <c r="D339" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6662,13 +6662,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>79.31999999999999</v>
+        <v>78.77</v>
       </c>
       <c r="C340" s="2">
-        <v>16850027520</v>
+        <v>16733190144</v>
       </c>
       <c r="D340" s="3">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6676,13 +6676,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>80.81</v>
+        <v>81.36</v>
       </c>
       <c r="C341" s="2">
-        <v>16727992320</v>
+        <v>16841845760</v>
       </c>
       <c r="D341" s="3">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6690,10 +6690,10 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>171.78</v>
+        <v>172.19</v>
       </c>
       <c r="C342" s="2">
-        <v>43155087360</v>
+        <v>43258089472</v>
       </c>
       <c r="D342" s="3">
         <v>115</v>
@@ -6704,10 +6704,10 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>445.15</v>
+        <v>449.225</v>
       </c>
       <c r="C343" s="2">
-        <v>1099520540672</v>
+        <v>1109585821696</v>
       </c>
       <c r="D343" s="3">
         <v>44</v>
@@ -6718,10 +6718,10 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>6248.02</v>
+        <v>6296.58</v>
       </c>
       <c r="C344" s="2">
-        <v>20371918848</v>
+        <v>20530251776</v>
       </c>
       <c r="D344" s="3">
         <v>3</v>
@@ -6732,13 +6732,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>10.8</v>
+        <v>10.915</v>
       </c>
       <c r="C345" s="2">
-        <v>4472280064</v>
+        <v>4519901696</v>
       </c>
       <c r="D345" s="3">
-        <v>1840</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6746,13 +6746,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>20.14</v>
+        <v>20.55</v>
       </c>
       <c r="C346" s="2">
-        <v>11407538176</v>
+        <v>11639767040</v>
       </c>
       <c r="D346" s="3">
-        <v>987</v>
+        <v>967</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6760,13 +6760,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>19.71</v>
+        <v>20.14</v>
       </c>
       <c r="C347" s="2">
-        <v>11320970240</v>
+        <v>11567952896</v>
       </c>
       <c r="D347" s="3">
-        <v>1008</v>
+        <v>987</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6774,10 +6774,10 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>215.95</v>
+        <v>214.225</v>
       </c>
       <c r="C348" s="2">
-        <v>55672340480</v>
+        <v>55227633664</v>
       </c>
       <c r="D348" s="3">
         <v>92</v>
@@ -6788,13 +6788,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>58.84</v>
+        <v>60.125</v>
       </c>
       <c r="C349" s="2">
-        <v>39612383232</v>
+        <v>40477474816</v>
       </c>
       <c r="D349" s="3">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6802,10 +6802,10 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>413.04</v>
+        <v>406.985</v>
       </c>
       <c r="C350" s="2">
-        <v>45290663936</v>
+        <v>44626718720</v>
       </c>
       <c r="D350" s="3">
         <v>48</v>
@@ -6816,13 +6816,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>21.51</v>
+        <v>21.685</v>
       </c>
       <c r="C351" s="2">
-        <v>5486383616</v>
+        <v>5531019264</v>
       </c>
       <c r="D351" s="3">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6830,13 +6830,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>65.95999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C352" s="2">
-        <v>29528576000</v>
+        <v>29859854336</v>
       </c>
       <c r="D352" s="3">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6844,13 +6844,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>81.92</v>
+        <v>82.55</v>
       </c>
       <c r="C353" s="2">
-        <v>16185016320</v>
+        <v>16309487616</v>
       </c>
       <c r="D353" s="3">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6858,10 +6858,10 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>102.7</v>
+        <v>102.74</v>
       </c>
       <c r="C354" s="2">
-        <v>44353355776</v>
+        <v>44370628608</v>
       </c>
       <c r="D354" s="3">
         <v>193</v>
@@ -6872,13 +6872,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>114.55</v>
+        <v>115.22</v>
       </c>
       <c r="C355" s="2">
-        <v>310918479872</v>
+        <v>312737038336</v>
       </c>
       <c r="D355" s="3">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6886,10 +6886,10 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>930.78</v>
+        <v>930.86</v>
       </c>
       <c r="C356" s="2">
-        <v>56664862720</v>
+        <v>56669732864</v>
       </c>
       <c r="D356" s="3">
         <v>21</v>
@@ -6900,10 +6900,10 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>89.62</v>
+        <v>89.61</v>
       </c>
       <c r="C357" s="2">
-        <v>37039140864</v>
+        <v>37035008000</v>
       </c>
       <c r="D357" s="3">
         <v>221</v>
@@ -6914,13 +6914,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>62.21</v>
+        <v>63.835</v>
       </c>
       <c r="C358" s="2">
-        <v>55475458048</v>
+        <v>56924540928</v>
       </c>
       <c r="D358" s="3">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6928,13 +6928,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>237.45</v>
+        <v>216.07</v>
       </c>
       <c r="C359" s="2">
-        <v>72625266688</v>
+        <v>66086092800</v>
       </c>
       <c r="D359" s="3">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6942,13 +6942,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>15.09</v>
+        <v>15.712</v>
       </c>
       <c r="C360" s="2">
-        <v>9929733120</v>
+        <v>10339030016</v>
       </c>
       <c r="D360" s="3">
-        <v>1317</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6956,13 +6956,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>296.95</v>
+        <v>291.38</v>
       </c>
       <c r="C361" s="2">
-        <v>17185417216</v>
+        <v>16863064064</v>
       </c>
       <c r="D361" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6970,13 +6970,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>124.67</v>
+        <v>124.04</v>
       </c>
       <c r="C362" s="2">
-        <v>44949266432</v>
+        <v>44722122752</v>
       </c>
       <c r="D362" s="3">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6984,10 +6984,10 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>84.89</v>
+        <v>84.6053</v>
       </c>
       <c r="C363" s="2">
-        <v>44380491776</v>
+        <v>44231651328</v>
       </c>
       <c r="D363" s="3">
         <v>234</v>
@@ -6998,13 +6998,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="2">
-        <v>17.31</v>
+        <v>17.205</v>
       </c>
       <c r="C364" s="2">
-        <v>40605450240</v>
+        <v>40359145472</v>
       </c>
       <c r="D364" s="3">
-        <v>1148</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7012,13 +7012,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>21.52</v>
+        <v>21.36</v>
       </c>
       <c r="C365" s="2">
-        <v>11771353088</v>
+        <v>11683833856</v>
       </c>
       <c r="D365" s="3">
-        <v>923</v>
+        <v>930</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7026,13 +7026,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>61.19</v>
+        <v>61.12</v>
       </c>
       <c r="C366" s="2">
-        <v>30531667968</v>
+        <v>30496739328</v>
       </c>
       <c r="D366" s="3">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7040,10 +7040,10 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>187.12</v>
+        <v>187.1404</v>
       </c>
       <c r="C367" s="2">
-        <v>257585643520</v>
+        <v>257613725696</v>
       </c>
       <c r="D367" s="3">
         <v>106</v>
@@ -7054,13 +7054,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>35</v>
+        <v>35.195</v>
       </c>
       <c r="C368" s="2">
-        <v>197585846272</v>
+        <v>198686687232</v>
       </c>
       <c r="D368" s="3">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7068,10 +7068,10 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>79.36</v>
+        <v>79.42</v>
       </c>
       <c r="C369" s="2">
-        <v>19266625536</v>
+        <v>19281190912</v>
       </c>
       <c r="D369" s="3">
         <v>250</v>
@@ -7082,13 +7082,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>157</v>
+        <v>156.41</v>
       </c>
       <c r="C370" s="2">
-        <v>370044272640</v>
+        <v>368653697024</v>
       </c>
       <c r="D370" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7096,13 +7096,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>128.85</v>
+        <v>127.79</v>
       </c>
       <c r="C371" s="2">
-        <v>75415904256</v>
+        <v>74795483136</v>
       </c>
       <c r="D371" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7110,10 +7110,10 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>418.18</v>
+        <v>418.84</v>
       </c>
       <c r="C372" s="2">
-        <v>53650821120</v>
+        <v>53735497728</v>
       </c>
       <c r="D372" s="3">
         <v>47</v>
@@ -7124,13 +7124,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>81.45</v>
+        <v>83.84</v>
       </c>
       <c r="C373" s="2">
-        <v>17873793024</v>
+        <v>18398267392</v>
       </c>
       <c r="D373" s="3">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7138,13 +7138,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>155.22</v>
+        <v>156.47</v>
       </c>
       <c r="C374" s="2">
-        <v>13959276544</v>
+        <v>14071691264</v>
       </c>
       <c r="D374" s="3">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7152,13 +7152,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>123.81</v>
+        <v>124.58</v>
       </c>
       <c r="C375" s="2">
-        <v>114334318592</v>
+        <v>115045392384</v>
       </c>
       <c r="D375" s="3">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7166,10 +7166,10 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>97.42</v>
+        <v>97.3446</v>
       </c>
       <c r="C376" s="2">
-        <v>151215308800</v>
+        <v>151098277888</v>
       </c>
       <c r="D376" s="3">
         <v>204</v>
@@ -7180,10 +7180,10 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>133.02</v>
+        <v>133.405</v>
       </c>
       <c r="C377" s="2">
-        <v>52941963264</v>
+        <v>53095190528</v>
       </c>
       <c r="D377" s="3">
         <v>149</v>
@@ -7194,10 +7194,10 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>69.34999999999999</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="C378" s="2">
-        <v>11439282176</v>
+        <v>11457426432</v>
       </c>
       <c r="D378" s="3">
         <v>286</v>
@@ -7208,13 +7208,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>79.3</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="C379" s="2">
-        <v>8981200896</v>
+        <v>9015177216</v>
       </c>
       <c r="D379" s="3">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7222,10 +7222,10 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>265.28</v>
+        <v>266.34</v>
       </c>
       <c r="C380" s="2">
-        <v>18488901632</v>
+        <v>18562779136</v>
       </c>
       <c r="D380" s="3">
         <v>74</v>
@@ -7236,10 +7236,10 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>378.4</v>
+        <v>380.375</v>
       </c>
       <c r="C381" s="2">
-        <v>14772055040</v>
+        <v>14849155072</v>
       </c>
       <c r="D381" s="3">
         <v>52</v>
@@ -7250,13 +7250,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>140.28</v>
+        <v>142.325</v>
       </c>
       <c r="C382" s="2">
-        <v>33037762560</v>
+        <v>33519386624</v>
       </c>
       <c r="D382" s="3">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7264,13 +7264,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>26.63</v>
+        <v>26.61</v>
       </c>
       <c r="C383" s="2">
-        <v>19628120064</v>
+        <v>19613380608</v>
       </c>
       <c r="D383" s="3">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7278,13 +7278,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>96.79000000000001</v>
+        <v>97.9014</v>
       </c>
       <c r="C384" s="2">
-        <v>35328352256</v>
+        <v>35734011904</v>
       </c>
       <c r="D384" s="3">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7292,13 +7292,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>286.98</v>
+        <v>279.295</v>
       </c>
       <c r="C385" s="2">
-        <v>50594291712</v>
+        <v>49239433216</v>
       </c>
       <c r="D385" s="3">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7306,13 +7306,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>110.41</v>
+        <v>113.06</v>
       </c>
       <c r="C386" s="2">
-        <v>50662957056</v>
+        <v>51878936576</v>
       </c>
       <c r="D386" s="3">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7320,10 +7320,10 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>143.44</v>
+        <v>143.09</v>
       </c>
       <c r="C387" s="2">
-        <v>16976555008</v>
+        <v>16935130112</v>
       </c>
       <c r="D387" s="3">
         <v>138</v>
@@ -7334,13 +7334,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>203.34</v>
+        <v>202.775</v>
       </c>
       <c r="C388" s="2">
-        <v>29520087040</v>
+        <v>29438062592</v>
       </c>
       <c r="D388" s="3">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7348,13 +7348,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>229.98</v>
+        <v>234.87</v>
       </c>
       <c r="C389" s="2">
-        <v>53754605568</v>
+        <v>54897573888</v>
       </c>
       <c r="D389" s="3">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7362,13 +7362,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>64.18000000000001</v>
+        <v>63.475</v>
       </c>
       <c r="C390" s="2">
-        <v>71606263808</v>
+        <v>70819684352</v>
       </c>
       <c r="D390" s="3">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7376,13 +7376,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>118.7</v>
+        <v>120.055</v>
       </c>
       <c r="C391" s="2">
-        <v>132231798784</v>
+        <v>133741273088</v>
       </c>
       <c r="D391" s="3">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7390,13 +7390,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>105.84</v>
+        <v>107.12</v>
       </c>
       <c r="C392" s="2">
-        <v>10384829440</v>
+        <v>10510422016</v>
       </c>
       <c r="D392" s="3">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7404,10 +7404,10 @@
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>104.72</v>
+        <v>104.8</v>
       </c>
       <c r="C393" s="2">
-        <v>26780778496</v>
+        <v>26801238016</v>
       </c>
       <c r="D393" s="3">
         <v>189</v>
@@ -7418,13 +7418,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>65.98</v>
+        <v>66.25</v>
       </c>
       <c r="C394" s="2">
-        <v>11331340288</v>
+        <v>11377709056</v>
       </c>
       <c r="D394" s="3">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7432,10 +7432,10 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>771.45</v>
+        <v>770.83</v>
       </c>
       <c r="C395" s="2">
-        <v>84635779072</v>
+        <v>84567760896</v>
       </c>
       <c r="D395" s="3">
         <v>25</v>
@@ -7446,13 +7446,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>20.5</v>
+        <v>20.735</v>
       </c>
       <c r="C396" s="2">
-        <v>19235375104</v>
+        <v>19455879168</v>
       </c>
       <c r="D396" s="3">
-        <v>969</v>
+        <v>958</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7460,10 +7460,10 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>75.72</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="C397" s="2">
-        <v>8159814656</v>
+        <v>8158736384</v>
       </c>
       <c r="D397" s="3">
         <v>262</v>
@@ -7474,13 +7474,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>109.65</v>
+        <v>108.97</v>
       </c>
       <c r="C398" s="2">
-        <v>23236042752</v>
+        <v>23091943424</v>
       </c>
       <c r="D398" s="3">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7488,13 +7488,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>132.21</v>
+        <v>135.08</v>
       </c>
       <c r="C399" s="2">
-        <v>8629003264</v>
+        <v>8816320512</v>
       </c>
       <c r="D399" s="3">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7502,13 +7502,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>219.95</v>
+        <v>185.01</v>
       </c>
       <c r="C400" s="2">
-        <v>32317474816</v>
+        <v>27183704064</v>
       </c>
       <c r="D400" s="3">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7516,13 +7516,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>302.05</v>
+        <v>299.635</v>
       </c>
       <c r="C401" s="2">
-        <v>34697994240</v>
+        <v>34420572160</v>
       </c>
       <c r="D401" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7530,13 +7530,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>40.69</v>
+        <v>40.44</v>
       </c>
       <c r="C402" s="2">
-        <v>20051503104</v>
+        <v>19928305664</v>
       </c>
       <c r="D402" s="3">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7544,10 +7544,10 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>490.97</v>
+        <v>490.205</v>
       </c>
       <c r="C403" s="2">
-        <v>52333473792</v>
+        <v>52251930624</v>
       </c>
       <c r="D403" s="3">
         <v>40</v>
@@ -7558,13 +7558,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>112.59</v>
+        <v>113.455</v>
       </c>
       <c r="C404" s="2">
-        <v>38354456576</v>
+        <v>38649126912</v>
       </c>
       <c r="D404" s="3">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7572,10 +7572,10 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>149.12</v>
+        <v>148.72</v>
       </c>
       <c r="C405" s="2">
-        <v>47163969536</v>
+        <v>47037456384</v>
       </c>
       <c r="D405" s="3">
         <v>133</v>
@@ -7586,10 +7586,10 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>84.67</v>
+        <v>84.95999999999999</v>
       </c>
       <c r="C406" s="2">
-        <v>123714715648</v>
+        <v>124138446848</v>
       </c>
       <c r="D406" s="3">
         <v>234</v>
@@ -7600,10 +7600,10 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>123.17</v>
+        <v>123.43</v>
       </c>
       <c r="C407" s="2">
-        <v>15450567680</v>
+        <v>15483183104</v>
       </c>
       <c r="D407" s="3">
         <v>161</v>
@@ -7614,13 +7614,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>222.57</v>
+        <v>227.145</v>
       </c>
       <c r="C408" s="2">
-        <v>24317775872</v>
+        <v>24817635328</v>
       </c>
       <c r="D408" s="3">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7628,13 +7628,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>102.33</v>
+        <v>102.84</v>
       </c>
       <c r="C409" s="2">
-        <v>117311111168</v>
+        <v>117895774208</v>
       </c>
       <c r="D409" s="3">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7642,13 +7642,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>65.87</v>
+        <v>65.2</v>
       </c>
       <c r="C410" s="2">
-        <v>119886036992</v>
+        <v>118666600448</v>
       </c>
       <c r="D410" s="3">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7656,10 +7656,10 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>189.79</v>
+        <v>190.975</v>
       </c>
       <c r="C411" s="2">
-        <v>10693660672</v>
+        <v>10760429568</v>
       </c>
       <c r="D411" s="3">
         <v>104</v>
@@ -7670,13 +7670,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>44.35</v>
+        <v>45.09</v>
       </c>
       <c r="C412" s="2">
-        <v>6403518976</v>
+        <v>6510364672</v>
       </c>
       <c r="D412" s="3">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7684,10 +7684,10 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>273.23</v>
+        <v>275.63</v>
       </c>
       <c r="C413" s="2">
-        <v>70463291392</v>
+        <v>71082221568</v>
       </c>
       <c r="D413" s="3">
         <v>72</v>
@@ -7698,10 +7698,10 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>150.05</v>
+        <v>150.155</v>
       </c>
       <c r="C414" s="2">
-        <v>15321306112</v>
+        <v>15332026368</v>
       </c>
       <c r="D414" s="3">
         <v>132</v>
@@ -7712,13 +7712,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>57.98</v>
+        <v>58.365</v>
       </c>
       <c r="C415" s="2">
-        <v>82400600064</v>
+        <v>82947760128</v>
       </c>
       <c r="D415" s="3">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7726,10 +7726,10 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>273.52</v>
+        <v>272.68</v>
       </c>
       <c r="C416" s="2">
-        <v>14473720832</v>
+        <v>14429271040</v>
       </c>
       <c r="D416" s="3">
         <v>72</v>
@@ -7740,13 +7740,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>440.12</v>
+        <v>442.895</v>
       </c>
       <c r="C417" s="2">
-        <v>66968657920</v>
+        <v>67390902272</v>
       </c>
       <c r="D417" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7754,13 +7754,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>68.62</v>
+        <v>68.82989999999999</v>
       </c>
       <c r="C418" s="2">
-        <v>74823254016</v>
+        <v>75052122112</v>
       </c>
       <c r="D418" s="3">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7768,13 +7768,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>118.37</v>
+        <v>120.045</v>
       </c>
       <c r="C419" s="2">
-        <v>44303167488</v>
+        <v>44930080768</v>
       </c>
       <c r="D419" s="3">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7782,10 +7782,10 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>383.72</v>
+        <v>386.44</v>
       </c>
       <c r="C420" s="2">
-        <v>123097374720</v>
+        <v>123969953792</v>
       </c>
       <c r="D420" s="3">
         <v>51</v>
@@ -7796,10 +7796,10 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>143.31</v>
+        <v>143.63</v>
       </c>
       <c r="C421" s="2">
-        <v>45092921344</v>
+        <v>45193609216</v>
       </c>
       <c r="D421" s="3">
         <v>138</v>
@@ -7810,13 +7810,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>225.5</v>
+        <v>226.3</v>
       </c>
       <c r="C422" s="2">
-        <v>22245799936</v>
+        <v>22324721664</v>
       </c>
       <c r="D422" s="3">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7824,13 +7824,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>105.44</v>
+        <v>106.77</v>
       </c>
       <c r="C423" s="2">
-        <v>17822945280</v>
+        <v>18047760384</v>
       </c>
       <c r="D423" s="3">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7838,13 +7838,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>73</v>
+        <v>73.93000000000001</v>
       </c>
       <c r="C424" s="2">
-        <v>23513372672</v>
+        <v>23812925440</v>
       </c>
       <c r="D424" s="3">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7852,13 +7852,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>68.28</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="C425" s="2">
-        <v>14139558912</v>
+        <v>13866210304</v>
       </c>
       <c r="D425" s="3">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7866,13 +7866,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>268.73</v>
+        <v>268.645</v>
       </c>
       <c r="C426" s="2">
-        <v>49264660480</v>
+        <v>49249075200</v>
       </c>
       <c r="D426" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7880,10 +7880,10 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>99.14</v>
+        <v>99.065</v>
       </c>
       <c r="C427" s="2">
-        <v>15182598144</v>
+        <v>15171112960</v>
       </c>
       <c r="D427" s="3">
         <v>200</v>
@@ -7894,13 +7894,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>109.08</v>
+        <v>109.31</v>
       </c>
       <c r="C428" s="2">
-        <v>17360627712</v>
+        <v>17397233664</v>
       </c>
       <c r="D428" s="3">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7908,13 +7908,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>34.3</v>
+        <v>34.53</v>
       </c>
       <c r="C429" s="2">
-        <v>14343676928</v>
+        <v>14439859200</v>
       </c>
       <c r="D429" s="3">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7922,13 +7922,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>275.62</v>
+        <v>286.33</v>
       </c>
       <c r="C430" s="2">
-        <v>104627552256</v>
+        <v>108693151744</v>
       </c>
       <c r="D430" s="3">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7936,13 +7936,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>74.22</v>
+        <v>74.72</v>
       </c>
       <c r="C431" s="2">
-        <v>37674369024</v>
+        <v>37928169472</v>
       </c>
       <c r="D431" s="3">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7950,13 +7950,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>14.09</v>
+        <v>14.055</v>
       </c>
       <c r="C432" s="2">
-        <v>100729413632</v>
+        <v>100479197184</v>
       </c>
       <c r="D432" s="3">
-        <v>1410</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7964,13 +7964,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>65.12</v>
+        <v>66.23</v>
       </c>
       <c r="C433" s="2">
-        <v>14074646528</v>
+        <v>14314555392</v>
       </c>
       <c r="D433" s="3">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7978,13 +7978,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>895.58</v>
+        <v>912.98</v>
       </c>
       <c r="C434" s="2">
-        <v>49192689664</v>
+        <v>50148438016</v>
       </c>
       <c r="D434" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7992,13 +7992,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>381.95</v>
+        <v>383.381</v>
       </c>
       <c r="C435" s="2">
-        <v>17969068032</v>
+        <v>18036389888</v>
       </c>
       <c r="D435" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8006,13 +8006,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>81.01000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="C436" s="2">
-        <v>12753971200</v>
+        <v>12823242752</v>
       </c>
       <c r="D436" s="3">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8020,10 +8020,10 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>139.92</v>
+        <v>139.66</v>
       </c>
       <c r="C437" s="2">
-        <v>44090892288</v>
+        <v>44008964096</v>
       </c>
       <c r="D437" s="3">
         <v>142</v>
@@ -8034,10 +8034,10 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>107.56</v>
+        <v>107.82</v>
       </c>
       <c r="C438" s="2">
-        <v>16675995648</v>
+        <v>16716305408</v>
       </c>
       <c r="D438" s="3">
         <v>184</v>
@@ -8048,13 +8048,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>32.28</v>
+        <v>32.435</v>
       </c>
       <c r="C439" s="2">
-        <v>42996314112</v>
+        <v>43202772992</v>
       </c>
       <c r="D439" s="3">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8062,10 +8062,10 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>239.47</v>
+        <v>238.96</v>
       </c>
       <c r="C440" s="2">
-        <v>11248313344</v>
+        <v>11224357888</v>
       </c>
       <c r="D440" s="3">
         <v>83</v>
@@ -8076,13 +8076,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>132.73</v>
+        <v>134.4</v>
       </c>
       <c r="C441" s="2">
-        <v>61262856192</v>
+        <v>62033661952</v>
       </c>
       <c r="D441" s="3">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8090,13 +8090,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>86.02</v>
+        <v>86.13</v>
       </c>
       <c r="C442" s="2">
-        <v>98857623552</v>
+        <v>98984042496</v>
       </c>
       <c r="D442" s="3">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8104,10 +8104,10 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>548.38</v>
+        <v>549.855</v>
       </c>
       <c r="C443" s="2">
-        <v>211521683456</v>
+        <v>212090601472</v>
       </c>
       <c r="D443" s="3">
         <v>36</v>
@@ -8118,10 +8118,10 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>135.37</v>
+        <v>135.41</v>
       </c>
       <c r="C444" s="2">
-        <v>162429108224</v>
+        <v>162477113344</v>
       </c>
       <c r="D444" s="3">
         <v>146</v>
@@ -8132,13 +8132,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="C445" s="2">
-        <v>9967313920</v>
+        <v>9990493184</v>
       </c>
       <c r="D445" s="3">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8146,13 +8146,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>81.81</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="C446" s="2">
-        <v>18490613760</v>
+        <v>19170932736</v>
       </c>
       <c r="D446" s="3">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8160,13 +8160,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>55.51</v>
+        <v>55.1</v>
       </c>
       <c r="C447" s="2">
-        <v>13752435712</v>
+        <v>13650860032</v>
       </c>
       <c r="D447" s="3">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8174,10 +8174,10 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>117.02</v>
+        <v>117.45</v>
       </c>
       <c r="C448" s="2">
-        <v>26569975808</v>
+        <v>26667610112</v>
       </c>
       <c r="D448" s="3">
         <v>169</v>
@@ -8188,13 +8188,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>169.4</v>
+        <v>170.595</v>
       </c>
       <c r="C449" s="2">
-        <v>38782775296</v>
+        <v>39056359424</v>
       </c>
       <c r="D449" s="3">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8202,13 +8202,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>227.14</v>
+        <v>225.455</v>
       </c>
       <c r="C450" s="2">
-        <v>24887275520</v>
+        <v>24702654464</v>
       </c>
       <c r="D450" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8216,13 +8216,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>259.32</v>
+        <v>257.47</v>
       </c>
       <c r="C451" s="2">
-        <v>821914763264</v>
+        <v>816051126272</v>
       </c>
       <c r="D451" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8230,13 +8230,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>56.27</v>
+        <v>56.63</v>
       </c>
       <c r="C452" s="2">
-        <v>20010231808</v>
+        <v>20138252288</v>
       </c>
       <c r="D452" s="3">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8244,10 +8244,10 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>205.25</v>
+        <v>205.795</v>
       </c>
       <c r="C453" s="2">
-        <v>46807674880</v>
+        <v>46931959808</v>
       </c>
       <c r="D453" s="3">
         <v>96</v>
@@ -8258,13 +8258,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>145.75</v>
+        <v>143.79</v>
       </c>
       <c r="C454" s="2">
-        <v>24680429568</v>
+        <v>24348534784</v>
       </c>
       <c r="D454" s="3">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8272,13 +8272,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>171.8</v>
+        <v>168.81</v>
       </c>
       <c r="C455" s="2">
-        <v>155994406912</v>
+        <v>153279479808</v>
       </c>
       <c r="D455" s="3">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8286,13 +8286,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>77.75</v>
+        <v>78.69</v>
       </c>
       <c r="C456" s="2">
-        <v>15680619520</v>
+        <v>15870199808</v>
       </c>
       <c r="D456" s="3">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8300,10 +8300,10 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>382.61</v>
+        <v>384.115</v>
       </c>
       <c r="C457" s="2">
-        <v>16041038848</v>
+        <v>16104136704</v>
       </c>
       <c r="D457" s="3">
         <v>51</v>
@@ -8314,13 +8314,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>52.16</v>
+        <v>52.48</v>
       </c>
       <c r="C458" s="2">
-        <v>17107436544</v>
+        <v>17212389376</v>
       </c>
       <c r="D458" s="3">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8328,13 +8328,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>40.25</v>
+        <v>40.81</v>
       </c>
       <c r="C459" s="2">
-        <v>22126391296</v>
+        <v>22434238464</v>
       </c>
       <c r="D459" s="3">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8342,13 +8342,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>135.31</v>
+        <v>133.965</v>
       </c>
       <c r="C460" s="2">
-        <v>9496122368</v>
+        <v>9401730048</v>
       </c>
       <c r="D460" s="3">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8356,13 +8356,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>435.74</v>
+        <v>442.37</v>
       </c>
       <c r="C461" s="2">
-        <v>21700548608</v>
+        <v>22030733312</v>
       </c>
       <c r="D461" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8370,10 +8370,10 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>504.86</v>
+        <v>508.35</v>
       </c>
       <c r="C462" s="2">
-        <v>470040805376</v>
+        <v>473290113024</v>
       </c>
       <c r="D462" s="3">
         <v>39</v>
@@ -8384,10 +8384,10 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>229.89</v>
+        <v>229.63</v>
       </c>
       <c r="C463" s="2">
-        <v>140162777088</v>
+        <v>140004261888</v>
       </c>
       <c r="D463" s="3">
         <v>86</v>
@@ -8398,10 +8398,10 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>181.5</v>
+        <v>181.76</v>
       </c>
       <c r="C464" s="2">
-        <v>155887812608</v>
+        <v>156111110144</v>
       </c>
       <c r="D464" s="3">
         <v>109</v>
@@ -8412,10 +8412,10 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>465</v>
+        <v>469.045</v>
       </c>
       <c r="C465" s="2">
-        <v>31960008704</v>
+        <v>32238026752</v>
       </c>
       <c r="D465" s="3">
         <v>42</v>
@@ -8426,13 +8426,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>39.45</v>
+        <v>40.3</v>
       </c>
       <c r="C466" s="2">
-        <v>60473696256</v>
+        <v>61776678912</v>
       </c>
       <c r="D466" s="3">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8440,13 +8440,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>238.76</v>
+        <v>239.63</v>
       </c>
       <c r="C467" s="2">
-        <v>500058947584</v>
+        <v>501881077760</v>
       </c>
       <c r="D467" s="3">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8454,13 +8454,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>19.04</v>
+        <v>19.79</v>
       </c>
       <c r="C468" s="2">
-        <v>7401171968</v>
+        <v>7692709376</v>
       </c>
       <c r="D468" s="3">
-        <v>1044</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8468,13 +8468,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>31.08</v>
+        <v>31.45</v>
       </c>
       <c r="C469" s="2">
-        <v>31211780096</v>
+        <v>31583348736</v>
       </c>
       <c r="D469" s="3">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8482,13 +8482,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>125.6</v>
+        <v>128.195</v>
       </c>
       <c r="C470" s="2">
-        <v>45406535680</v>
+        <v>46344675328</v>
       </c>
       <c r="D470" s="3">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8496,10 +8496,10 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>226.19</v>
+        <v>226.275</v>
       </c>
       <c r="C471" s="2">
-        <v>30096615424</v>
+        <v>30107924480</v>
       </c>
       <c r="D471" s="3">
         <v>87</v>
@@ -8510,10 +8510,10 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>230.4</v>
+        <v>229.45</v>
       </c>
       <c r="C472" s="2">
-        <v>33359847424</v>
+        <v>33222295552</v>
       </c>
       <c r="D472" s="3">
         <v>86</v>
@@ -8524,10 +8524,10 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>208.13</v>
+        <v>207.33</v>
       </c>
       <c r="C473" s="2">
-        <v>21665501184</v>
+        <v>21582223360</v>
       </c>
       <c r="D473" s="3">
         <v>95</v>
@@ -8538,10 +8538,10 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>347.74</v>
+        <v>343.345</v>
       </c>
       <c r="C474" s="2">
-        <v>89561128960</v>
+        <v>88429191168</v>
       </c>
       <c r="D474" s="3">
         <v>57</v>
@@ -8552,13 +8552,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>48.22</v>
+        <v>45.61</v>
       </c>
       <c r="C475" s="2">
-        <v>19290507264</v>
+        <v>18246371328</v>
       </c>
       <c r="D475" s="3">
-        <v>412</v>
+        <v>435</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8566,13 +8566,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>10.45</v>
+        <v>10.575</v>
       </c>
       <c r="C476" s="2">
-        <v>12529863680</v>
+        <v>12679742464</v>
       </c>
       <c r="D476" s="3">
-        <v>1902</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8580,13 +8580,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>33.06</v>
+        <v>32.86</v>
       </c>
       <c r="C477" s="2">
-        <v>138984243200</v>
+        <v>138143449088</v>
       </c>
       <c r="D477" s="3">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8594,13 +8594,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>116.54</v>
+        <v>115.68</v>
       </c>
       <c r="C478" s="2">
-        <v>20962050048</v>
+        <v>20807362560</v>
       </c>
       <c r="D478" s="3">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8608,13 +8608,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>291.41</v>
+        <v>293.27</v>
       </c>
       <c r="C479" s="2">
-        <v>17202980864</v>
+        <v>17312782336</v>
       </c>
       <c r="D479" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8622,13 +8622,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>30.31</v>
+        <v>30.44</v>
       </c>
       <c r="C480" s="2">
-        <v>26165440512</v>
+        <v>26277664768</v>
       </c>
       <c r="D480" s="3">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8636,13 +8636,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>12.89</v>
+        <v>13.49</v>
       </c>
       <c r="C481" s="2">
-        <v>31401459712</v>
+        <v>32863123456</v>
       </c>
       <c r="D481" s="3">
-        <v>1542</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8664,13 +8664,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>88.26000000000001</v>
+        <v>88.455</v>
       </c>
       <c r="C483" s="2">
-        <v>27840294912</v>
+        <v>27901804544</v>
       </c>
       <c r="D483" s="3">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8678,13 +8678,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>83.79000000000001</v>
+        <v>83.955</v>
       </c>
       <c r="C484" s="2">
-        <v>41646227456</v>
+        <v>41728237568</v>
       </c>
       <c r="D484" s="3">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8692,13 +8692,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>45.15</v>
+        <v>45.5598</v>
       </c>
       <c r="C485" s="2">
-        <v>165595299840</v>
+        <v>167098302464</v>
       </c>
       <c r="D485" s="3">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8706,13 +8706,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>141.56</v>
+        <v>143.48</v>
       </c>
       <c r="C486" s="2">
-        <v>7785799680</v>
+        <v>7891399680</v>
       </c>
       <c r="D486" s="3">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8720,10 +8720,10 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>160.94</v>
+        <v>160.615</v>
       </c>
       <c r="C487" s="2">
-        <v>65473126400</v>
+        <v>65340911616</v>
       </c>
       <c r="D487" s="3">
         <v>123</v>
@@ -8734,13 +8734,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>34.44</v>
+        <v>34.89</v>
       </c>
       <c r="C488" s="2">
-        <v>41954459648</v>
+        <v>42502647808</v>
       </c>
       <c r="D488" s="3">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8748,10 +8748,10 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>159.26</v>
+        <v>159.18</v>
       </c>
       <c r="C489" s="2">
-        <v>428861685760</v>
+        <v>428646236160</v>
       </c>
       <c r="D489" s="3">
         <v>124</v>
@@ -8762,13 +8762,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>62.34</v>
+        <v>62.245</v>
       </c>
       <c r="C490" s="2">
-        <v>16053609472</v>
+        <v>16029145088</v>
       </c>
       <c r="D490" s="3">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8776,13 +8776,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>34.55</v>
+        <v>34.715</v>
       </c>
       <c r="C491" s="2">
-        <v>8849291264</v>
+        <v>8891552768</v>
       </c>
       <c r="D491" s="3">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8790,10 +8790,10 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>369.72</v>
+        <v>372.92</v>
       </c>
       <c r="C492" s="2">
-        <v>27448973312</v>
+        <v>27686551552</v>
       </c>
       <c r="D492" s="3">
         <v>53</v>
@@ -8804,10 +8804,10 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>213.79</v>
+        <v>213.98</v>
       </c>
       <c r="C493" s="2">
-        <v>22750033920</v>
+        <v>22770253824</v>
       </c>
       <c r="D493" s="3">
         <v>92</v>
@@ -8818,13 +8818,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>33.11</v>
+        <v>33.255</v>
       </c>
       <c r="C494" s="2">
-        <v>24246321152</v>
+        <v>24352503808</v>
       </c>
       <c r="D494" s="3">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8832,13 +8832,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>105.61</v>
+        <v>106.09</v>
       </c>
       <c r="C495" s="2">
-        <v>12018206720</v>
+        <v>12072828928</v>
       </c>
       <c r="D495" s="3">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8846,10 +8846,10 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>61.32</v>
+        <v>61.23</v>
       </c>
       <c r="C496" s="2">
-        <v>33747828736</v>
+        <v>33698295808</v>
       </c>
       <c r="D496" s="3">
         <v>324</v>
@@ -8860,13 +8860,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>107.12</v>
+        <v>108.85</v>
       </c>
       <c r="C497" s="2">
-        <v>433084039168</v>
+        <v>440078368768</v>
       </c>
       <c r="D497" s="3">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8874,13 +8874,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>39.28</v>
+        <v>39.45</v>
       </c>
       <c r="C498" s="2">
-        <v>8346135552</v>
+        <v>8382257152</v>
       </c>
       <c r="D498" s="3">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8888,13 +8888,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>108.4</v>
+        <v>107.24</v>
       </c>
       <c r="C499" s="2">
-        <v>25950527488</v>
+        <v>25672826880</v>
       </c>
       <c r="D499" s="3">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8902,10 +8902,10 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>135.62</v>
+        <v>135.8</v>
       </c>
       <c r="C500" s="2">
-        <v>37985398784</v>
+        <v>38035816448</v>
       </c>
       <c r="D500" s="3">
         <v>146</v>
@@ -8916,13 +8916,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>125.79</v>
+        <v>127.335</v>
       </c>
       <c r="C501" s="2">
-        <v>26263443456</v>
+        <v>26586019840</v>
       </c>
       <c r="D501" s="3">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8930,10 +8930,10 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>249.55</v>
+        <v>250.675</v>
       </c>
       <c r="C502" s="2">
-        <v>12834432000</v>
+        <v>12892291072</v>
       </c>
       <c r="D502" s="3">
         <v>79</v>
@@ -8944,13 +8944,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>37.41</v>
+        <v>37.93</v>
       </c>
       <c r="C503" s="2">
-        <v>5542067200</v>
+        <v>5619102208</v>
       </c>
       <c r="D503" s="3">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8958,10 +8958,10 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>180.88</v>
+        <v>180.885</v>
       </c>
       <c r="C504" s="2">
-        <v>83586818048</v>
+        <v>83589128192</v>
       </c>
       <c r="D504" s="3">
         <v>109</v>

--- a/Project 1: Equal-Weight S&P 500 Index Fund/recommended_trades.xlsx
+++ b/Project 1: Equal-Weight S&P 500 Index Fund/recommended_trades.xlsx
@@ -1930,10 +1930,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>126.065</v>
+        <v>126.3</v>
       </c>
       <c r="C2" s="2">
-        <v>37236576256</v>
+        <v>37305991168</v>
       </c>
       <c r="D2" s="3">
         <v>157</v>
@@ -1944,13 +1944,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>16.035</v>
+        <v>15.84</v>
       </c>
       <c r="C3" s="2">
-        <v>10476659712</v>
+        <v>10349253632</v>
       </c>
       <c r="D3" s="3">
-        <v>1239</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1958,13 +1958,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>71.73</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>4263911168</v>
+        <v>4221111552</v>
       </c>
       <c r="D4" s="3">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1972,13 +1972,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>185.25</v>
+        <v>181.99</v>
       </c>
       <c r="C5" s="2">
-        <v>2913741832192</v>
+        <v>2862466203648</v>
       </c>
       <c r="D5" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1986,13 +1986,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>149.445</v>
+        <v>147.73</v>
       </c>
       <c r="C6" s="2">
-        <v>263664336896</v>
+        <v>260638556160</v>
       </c>
       <c r="D6" s="3">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2000,13 +2000,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>186.755</v>
+        <v>185.33</v>
       </c>
       <c r="C7" s="2">
-        <v>37772881920</v>
+        <v>37484662784</v>
       </c>
       <c r="D7" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2014,13 +2014,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>108.38</v>
+        <v>107.65</v>
       </c>
       <c r="C8" s="2">
-        <v>188467396608</v>
+        <v>187197964288</v>
       </c>
       <c r="D8" s="3">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2028,13 +2028,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>77.19499999999999</v>
+        <v>76.72</v>
       </c>
       <c r="C9" s="2">
-        <v>28749193216</v>
+        <v>28572293120</v>
       </c>
       <c r="D9" s="3">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2042,13 +2042,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>315.77</v>
+        <v>312</v>
       </c>
       <c r="C10" s="2">
-        <v>199346536448</v>
+        <v>196966531072</v>
       </c>
       <c r="D10" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2056,10 +2056,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>528.335</v>
+        <v>526.88</v>
       </c>
       <c r="C11" s="2">
-        <v>240815095808</v>
+        <v>240151904256</v>
       </c>
       <c r="D11" s="3">
         <v>37</v>
@@ -2070,13 +2070,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>187.125</v>
+        <v>188.35</v>
       </c>
       <c r="C12" s="2">
-        <v>93827842048</v>
+        <v>94442078208</v>
       </c>
       <c r="D12" s="3">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2084,13 +2084,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>86.78</v>
+        <v>85.55</v>
       </c>
       <c r="C13" s="2">
-        <v>47263424512</v>
+        <v>46593527808</v>
       </c>
       <c r="D13" s="3">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2098,10 +2098,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>247.19</v>
+        <v>245.76</v>
       </c>
       <c r="C14" s="2">
-        <v>102119874560</v>
+        <v>101529108480</v>
       </c>
       <c r="D14" s="3">
         <v>80</v>
@@ -2112,13 +2112,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>203.075</v>
+        <v>201.57</v>
       </c>
       <c r="C15" s="2">
-        <v>43402407936</v>
+        <v>43080753152</v>
       </c>
       <c r="D15" s="3">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2126,13 +2126,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>82.86499999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C16" s="2">
-        <v>21761093632</v>
+        <v>21376372736</v>
       </c>
       <c r="D16" s="3">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2140,13 +2140,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>82.36</v>
+        <v>81.23999999999999</v>
       </c>
       <c r="C17" s="2">
-        <v>42398187520</v>
+        <v>41821622272</v>
       </c>
       <c r="D17" s="3">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2154,13 +2154,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>20.53</v>
+        <v>19.64</v>
       </c>
       <c r="C18" s="2">
-        <v>13741468672</v>
+        <v>13145758720</v>
       </c>
       <c r="D18" s="3">
-        <v>968</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2168,13 +2168,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>77.88</v>
+        <v>76.84999999999999</v>
       </c>
       <c r="C19" s="2">
-        <v>47057199104</v>
+        <v>46434844672</v>
       </c>
       <c r="D19" s="3">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2182,13 +2182,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>61.67</v>
+        <v>60.69</v>
       </c>
       <c r="C20" s="2">
-        <v>44633845760</v>
+        <v>43924570112</v>
       </c>
       <c r="D20" s="3">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2196,13 +2196,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>144.9914</v>
+        <v>141.78</v>
       </c>
       <c r="C21" s="2">
-        <v>7706524672</v>
+        <v>7535833600</v>
       </c>
       <c r="D21" s="3">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2210,13 +2210,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>223.345</v>
+        <v>220.81</v>
       </c>
       <c r="C22" s="2">
-        <v>47850774528</v>
+        <v>47307657216</v>
       </c>
       <c r="D22" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2224,13 +2224,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>93.005</v>
+        <v>92.63</v>
       </c>
       <c r="C23" s="2">
-        <v>14155546624</v>
+        <v>14098470912</v>
       </c>
       <c r="D23" s="3">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2238,13 +2238,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>205.255</v>
+        <v>200.09</v>
       </c>
       <c r="C24" s="2">
-        <v>24083802112</v>
+        <v>23477760000</v>
       </c>
       <c r="D24" s="3">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2252,13 +2252,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>366.19</v>
+        <v>361.44</v>
       </c>
       <c r="C25" s="2">
-        <v>28019761152</v>
+        <v>27656304640</v>
       </c>
       <c r="D25" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2266,13 +2266,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>47.16</v>
+        <v>46.74</v>
       </c>
       <c r="C26" s="2">
-        <v>6032282624</v>
+        <v>5978560512</v>
       </c>
       <c r="D26" s="3">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2280,13 +2280,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>111.18</v>
+        <v>109.87</v>
       </c>
       <c r="C27" s="2">
-        <v>29223884800</v>
+        <v>28879550464</v>
       </c>
       <c r="D27" s="3">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2294,13 +2294,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>112.7875</v>
+        <v>111.91</v>
       </c>
       <c r="C28" s="2">
-        <v>9919288320</v>
+        <v>9842115584</v>
       </c>
       <c r="D28" s="3">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2308,13 +2308,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>147.39</v>
+        <v>145.66</v>
       </c>
       <c r="C29" s="2">
-        <v>123770314752</v>
+        <v>122317553664</v>
       </c>
       <c r="D29" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2322,13 +2322,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>9.895</v>
+        <v>9.85</v>
       </c>
       <c r="C30" s="2">
-        <v>14663103488</v>
+        <v>14596419584</v>
       </c>
       <c r="D30" s="3">
-        <v>2009</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2336,10 +2336,10 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>115.87</v>
+        <v>115.82</v>
       </c>
       <c r="C31" s="2">
-        <v>186592428032</v>
+        <v>186511900672</v>
       </c>
       <c r="D31" s="3">
         <v>171</v>
@@ -2350,10 +2350,10 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>157.305</v>
+        <v>156.57</v>
       </c>
       <c r="C32" s="2">
-        <v>36254867456</v>
+        <v>36085473280</v>
       </c>
       <c r="D32" s="3">
         <v>126</v>
@@ -2364,10 +2364,10 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>244.43</v>
+        <v>243.28</v>
       </c>
       <c r="C33" s="2">
-        <v>130605547520</v>
+        <v>129991073792</v>
       </c>
       <c r="D33" s="3">
         <v>81</v>
@@ -2378,13 +2378,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>351.68</v>
+        <v>344.86</v>
       </c>
       <c r="C34" s="2">
-        <v>37024518144</v>
+        <v>36306513920</v>
       </c>
       <c r="D34" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2392,13 +2392,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>187.64</v>
+        <v>184.77</v>
       </c>
       <c r="C35" s="2">
-        <v>87448305664</v>
+        <v>86110765056</v>
       </c>
       <c r="D35" s="3">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2406,13 +2406,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>142.6773</v>
+        <v>139.57</v>
       </c>
       <c r="C36" s="2">
-        <v>1463926259712</v>
+        <v>1432044175360</v>
       </c>
       <c r="D36" s="3">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2420,10 +2420,10 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>179.8076</v>
+        <v>179.6</v>
       </c>
       <c r="C37" s="2">
-        <v>55431626752</v>
+        <v>55367630848</v>
       </c>
       <c r="D37" s="3">
         <v>110</v>
@@ -2434,13 +2434,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>306.97</v>
+        <v>304.65</v>
       </c>
       <c r="C38" s="2">
-        <v>26602418176</v>
+        <v>26401363968</v>
       </c>
       <c r="D38" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2448,13 +2448,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>317.73</v>
+        <v>315.06</v>
       </c>
       <c r="C39" s="2">
-        <v>64895082496</v>
+        <v>64349745152</v>
       </c>
       <c r="D39" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2462,13 +2462,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>72.875</v>
+        <v>72.64</v>
       </c>
       <c r="C40" s="2">
-        <v>10963461120</v>
+        <v>10928106496</v>
       </c>
       <c r="D40" s="3">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2476,13 +2476,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>42.06</v>
+        <v>41.87</v>
       </c>
       <c r="C41" s="2">
-        <v>12979675136</v>
+        <v>12921039872</v>
       </c>
       <c r="D41" s="3">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2490,10 +2490,10 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>286.9</v>
+        <v>284.43</v>
       </c>
       <c r="C42" s="2">
-        <v>63727087616</v>
+        <v>63178444800</v>
       </c>
       <c r="D42" s="3">
         <v>69</v>
@@ -2504,13 +2504,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>88.185</v>
+        <v>87.3</v>
       </c>
       <c r="C43" s="2">
-        <v>52498202624</v>
+        <v>51971346432</v>
       </c>
       <c r="D43" s="3">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2518,13 +2518,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>107.75</v>
+        <v>106.8</v>
       </c>
       <c r="C44" s="2">
-        <v>29147019264</v>
+        <v>28890040320</v>
       </c>
       <c r="D44" s="3">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2532,13 +2532,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>122.215</v>
+        <v>120.75</v>
       </c>
       <c r="C45" s="2">
-        <v>21146615808</v>
+        <v>20893130752</v>
       </c>
       <c r="D45" s="3">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2546,13 +2546,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>119.36</v>
+        <v>117.27</v>
       </c>
       <c r="C46" s="2">
-        <v>17245968384</v>
+        <v>16943990784</v>
       </c>
       <c r="D46" s="3">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2560,13 +2560,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>91.765</v>
+        <v>91.58</v>
       </c>
       <c r="C47" s="2">
-        <v>72141881344</v>
+        <v>71996440576</v>
       </c>
       <c r="D47" s="3">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2574,13 +2574,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>186.915</v>
+        <v>184.85</v>
       </c>
       <c r="C48" s="2">
-        <v>26541744128</v>
+        <v>26248517632</v>
       </c>
       <c r="D48" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2588,10 +2588,10 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>880.04</v>
+        <v>881.65</v>
       </c>
       <c r="C49" s="2">
-        <v>363179278336</v>
+        <v>363843747840</v>
       </c>
       <c r="D49" s="3">
         <v>22</v>
@@ -2602,13 +2602,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>187.41</v>
+        <v>185.02</v>
       </c>
       <c r="C50" s="2">
-        <v>15129291776</v>
+        <v>14936350720</v>
       </c>
       <c r="D50" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2616,13 +2616,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>142.345</v>
+        <v>141.97</v>
       </c>
       <c r="C51" s="2">
-        <v>27706599424</v>
+        <v>27633608704</v>
       </c>
       <c r="D51" s="3">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2630,10 +2630,10 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>181</v>
+        <v>180.86</v>
       </c>
       <c r="C52" s="2">
-        <v>13373238272</v>
+        <v>13362894848</v>
       </c>
       <c r="D52" s="3">
         <v>109</v>
@@ -2644,13 +2644,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>167.09</v>
+        <v>165.41</v>
       </c>
       <c r="C53" s="2">
-        <v>123054931968</v>
+        <v>121817686016</v>
       </c>
       <c r="D53" s="3">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2658,10 +2658,10 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>2464.15</v>
+        <v>2450.99</v>
       </c>
       <c r="C54" s="2">
-        <v>44739104768</v>
+        <v>44500172800</v>
       </c>
       <c r="D54" s="3">
         <v>8</v>
@@ -2672,10 +2672,10 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>232.715</v>
+        <v>231.36</v>
       </c>
       <c r="C55" s="2">
-        <v>139999936512</v>
+        <v>139184783360</v>
       </c>
       <c r="D55" s="3">
         <v>85</v>
@@ -2686,13 +2686,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>31.577</v>
+        <v>31.3</v>
       </c>
       <c r="C56" s="2">
-        <v>251149565952</v>
+        <v>248946425856</v>
       </c>
       <c r="D56" s="3">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2700,13 +2700,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>58.945</v>
+        <v>57.82</v>
       </c>
       <c r="C57" s="2">
-        <v>18541031424</v>
+        <v>18187165696</v>
       </c>
       <c r="D57" s="3">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2714,13 +2714,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>44.31</v>
+        <v>43.92</v>
       </c>
       <c r="C58" s="2">
-        <v>22414213120</v>
+        <v>22216931328</v>
       </c>
       <c r="D58" s="3">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2728,13 +2728,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>38.56</v>
+        <v>37.99</v>
       </c>
       <c r="C59" s="2">
-        <v>8826847232</v>
+        <v>8696367104</v>
       </c>
       <c r="D59" s="3">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2742,13 +2742,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>80.77500000000001</v>
+        <v>79.83</v>
       </c>
       <c r="C60" s="2">
-        <v>17625995264</v>
+        <v>17419784192</v>
       </c>
       <c r="D60" s="3">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2756,13 +2756,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>273.105</v>
+        <v>270.79</v>
       </c>
       <c r="C61" s="2">
-        <v>77565919232</v>
+        <v>76908429312</v>
       </c>
       <c r="D61" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2770,13 +2770,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>28.87</v>
+        <v>28.34</v>
       </c>
       <c r="C62" s="2">
-        <v>14459915264</v>
+        <v>14194457600</v>
       </c>
       <c r="D62" s="3">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2784,13 +2784,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>70.58499999999999</v>
+        <v>69.95999999999999</v>
       </c>
       <c r="C63" s="2">
-        <v>34060228608</v>
+        <v>33758638080</v>
       </c>
       <c r="D63" s="3">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2798,13 +2798,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>115.455</v>
+        <v>114.71</v>
       </c>
       <c r="C64" s="2">
-        <v>17389600768</v>
+        <v>17277390848</v>
       </c>
       <c r="D64" s="3">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2812,13 +2812,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>268</v>
+        <v>268.92</v>
       </c>
       <c r="C65" s="2">
-        <v>38790856704</v>
+        <v>38924021760</v>
       </c>
       <c r="D65" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2826,13 +2826,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>415.265</v>
+        <v>400</v>
       </c>
       <c r="C66" s="2">
-        <v>11901495296</v>
+        <v>11463999488</v>
       </c>
       <c r="D66" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2840,13 +2840,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>45.96</v>
+        <v>45.39</v>
       </c>
       <c r="C67" s="2">
-        <v>35792822272</v>
+        <v>35348914176</v>
       </c>
       <c r="D67" s="3">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2854,10 +2854,10 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>3095.84</v>
+        <v>3063.16</v>
       </c>
       <c r="C68" s="2">
-        <v>114340831232</v>
+        <v>113133830144</v>
       </c>
       <c r="D68" s="3">
         <v>6</v>
@@ -2868,13 +2868,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>35.76</v>
+        <v>35.52</v>
       </c>
       <c r="C69" s="2">
-        <v>36355399680</v>
+        <v>36111409152</v>
       </c>
       <c r="D69" s="3">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2882,10 +2882,10 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>716.9299999999999</v>
+        <v>710.28</v>
       </c>
       <c r="C70" s="2">
-        <v>107109343232</v>
+        <v>106115833856</v>
       </c>
       <c r="D70" s="3">
         <v>27</v>
@@ -2896,13 +2896,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>60.9993</v>
+        <v>60.49</v>
       </c>
       <c r="C71" s="2">
-        <v>128150380544</v>
+        <v>127080423424</v>
       </c>
       <c r="D71" s="3">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2910,10 +2910,10 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>166.73</v>
+        <v>165.72</v>
       </c>
       <c r="C72" s="2">
-        <v>19670972416</v>
+        <v>19551811584</v>
       </c>
       <c r="D72" s="3">
         <v>119</v>
@@ -2924,10 +2924,10 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>353.33</v>
+        <v>349.99</v>
       </c>
       <c r="C73" s="2">
-        <v>772121427968</v>
+        <v>764822618112</v>
       </c>
       <c r="D73" s="3">
         <v>56</v>
@@ -2938,13 +2938,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>70.52500000000001</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2">
-        <v>20003993600</v>
+        <v>19855079424</v>
       </c>
       <c r="D74" s="3">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2952,13 +2952,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>51.195</v>
+        <v>50.72</v>
       </c>
       <c r="C75" s="2">
-        <v>73603047424</v>
+        <v>72920145920</v>
       </c>
       <c r="D75" s="3">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2966,13 +2966,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>42.13</v>
+        <v>42.52</v>
       </c>
       <c r="C76" s="2">
-        <v>9874134016</v>
+        <v>9965539328</v>
       </c>
       <c r="D76" s="3">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2980,13 +2980,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>68.56999999999999</v>
+        <v>68.53</v>
       </c>
       <c r="C77" s="2">
-        <v>10754176000</v>
+        <v>10747902976</v>
       </c>
       <c r="D77" s="3">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2994,13 +2994,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>46.605</v>
+        <v>45.71</v>
       </c>
       <c r="C78" s="2">
-        <v>89747243008</v>
+        <v>88023744512</v>
       </c>
       <c r="D78" s="3">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3008,13 +3008,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>32.5305</v>
+        <v>32.31</v>
       </c>
       <c r="C79" s="2">
-        <v>15518999552</v>
+        <v>15413809152</v>
       </c>
       <c r="D79" s="3">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3022,13 +3022,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>92.20999999999999</v>
+        <v>91.25</v>
       </c>
       <c r="C80" s="2">
-        <v>23476666368</v>
+        <v>23232249856</v>
       </c>
       <c r="D80" s="3">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3036,13 +3036,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>57.68</v>
+        <v>57.08</v>
       </c>
       <c r="C81" s="2">
-        <v>48153456640</v>
+        <v>47652556800</v>
       </c>
       <c r="D81" s="3">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3050,13 +3050,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>280.45</v>
+        <v>276.44</v>
       </c>
       <c r="C82" s="2">
-        <v>144809230336</v>
+        <v>142738685952</v>
       </c>
       <c r="D82" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3064,13 +3064,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>203.08</v>
+        <v>200.92</v>
       </c>
       <c r="C83" s="2">
-        <v>84110458880</v>
+        <v>83215843328</v>
       </c>
       <c r="D83" s="3">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3078,13 +3078,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>144.61</v>
+        <v>145.57</v>
       </c>
       <c r="C84" s="2">
-        <v>15267056640</v>
+        <v>15368408064</v>
       </c>
       <c r="D84" s="3">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3092,13 +3092,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>83.69</v>
+        <v>83.92</v>
       </c>
       <c r="C85" s="2">
-        <v>26013530112</v>
+        <v>26085021696</v>
       </c>
       <c r="D85" s="3">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3106,13 +3106,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>105.715</v>
+        <v>103.81</v>
       </c>
       <c r="C86" s="2">
-        <v>45845528576</v>
+        <v>45019385856</v>
       </c>
       <c r="D86" s="3">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3120,13 +3120,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>17.465</v>
+        <v>17.16</v>
       </c>
       <c r="C87" s="2">
-        <v>22810513408</v>
+        <v>22412161024</v>
       </c>
       <c r="D87" s="3">
-        <v>1138</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3134,13 +3134,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>72.05249999999999</v>
+        <v>71.52</v>
       </c>
       <c r="C88" s="2">
-        <v>11170371584</v>
+        <v>11087816704</v>
       </c>
       <c r="D88" s="3">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3148,10 +3148,10 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>229.9</v>
+        <v>229</v>
       </c>
       <c r="C89" s="2">
-        <v>62484525056</v>
+        <v>62239911936</v>
       </c>
       <c r="D89" s="3">
         <v>86</v>
@@ -3162,13 +3162,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>200.72</v>
+        <v>197.87</v>
       </c>
       <c r="C90" s="2">
-        <v>27054448640</v>
+        <v>26670305280</v>
       </c>
       <c r="D90" s="3">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3176,13 +3176,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>125.93</v>
+        <v>123.95</v>
       </c>
       <c r="C91" s="2">
-        <v>13699673088</v>
+        <v>13484272640</v>
       </c>
       <c r="D91" s="3">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3190,13 +3190,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>102.96</v>
+        <v>103.94</v>
       </c>
       <c r="C92" s="2">
-        <v>33401356288</v>
+        <v>33719281664</v>
       </c>
       <c r="D92" s="3">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3204,13 +3204,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>83.7</v>
+        <v>81.23999999999999</v>
       </c>
       <c r="C93" s="2">
-        <v>16321499136</v>
+        <v>15841799168</v>
       </c>
       <c r="D93" s="3">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3218,13 +3218,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>31.555</v>
+        <v>31.25</v>
       </c>
       <c r="C94" s="2">
-        <v>14978622464</v>
+        <v>14833844224</v>
       </c>
       <c r="D94" s="3">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3232,13 +3232,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>94.88</v>
+        <v>94.63</v>
       </c>
       <c r="C95" s="2">
-        <v>23187531776</v>
+        <v>23126435840</v>
       </c>
       <c r="D95" s="3">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3246,10 +3246,10 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>98.72</v>
+        <v>98.52</v>
       </c>
       <c r="C96" s="2">
-        <v>11494857728</v>
+        <v>11471569920</v>
       </c>
       <c r="D96" s="3">
         <v>201</v>
@@ -3260,13 +3260,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>423.01</v>
+        <v>418.86</v>
       </c>
       <c r="C97" s="2">
-        <v>63694737408</v>
+        <v>63069847552</v>
       </c>
       <c r="D97" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3274,13 +3274,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>289.62</v>
+        <v>286.58</v>
       </c>
       <c r="C98" s="2">
-        <v>85690449920</v>
+        <v>84790992896</v>
       </c>
       <c r="D98" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3288,13 +3288,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>109.89</v>
+        <v>109</v>
       </c>
       <c r="C99" s="2">
-        <v>17276135424</v>
+        <v>17136216064</v>
       </c>
       <c r="D99" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3302,13 +3302,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>76.79000000000001</v>
+        <v>76.26000000000001</v>
       </c>
       <c r="C100" s="2">
-        <v>63702528000</v>
+        <v>63262859264</v>
       </c>
       <c r="D100" s="3">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3316,13 +3316,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>161.925</v>
+        <v>164.01</v>
       </c>
       <c r="C101" s="2">
-        <v>20017817600</v>
+        <v>20275570688</v>
       </c>
       <c r="D101" s="3">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3330,13 +3330,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>53.92</v>
+        <v>53.03</v>
       </c>
       <c r="C102" s="2">
-        <v>7099645952</v>
+        <v>6982459904</v>
       </c>
       <c r="D102" s="3">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3344,13 +3344,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>45.41</v>
+        <v>44.84</v>
       </c>
       <c r="C103" s="2">
-        <v>189306568704</v>
+        <v>186930331648</v>
       </c>
       <c r="D103" s="3">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3358,10 +3358,10 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>206.12</v>
+        <v>205.07</v>
       </c>
       <c r="C104" s="2">
-        <v>74145079296</v>
+        <v>73767378944</v>
       </c>
       <c r="D104" s="3">
         <v>96</v>
@@ -3372,10 +3372,10 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>1909.8</v>
+        <v>1890.61</v>
       </c>
       <c r="C105" s="2">
-        <v>52691001344</v>
+        <v>52161552384</v>
       </c>
       <c r="D105" s="3">
         <v>10</v>
@@ -3386,13 +3386,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>237.79</v>
+        <v>236.51</v>
       </c>
       <c r="C106" s="2">
-        <v>33662027776</v>
+        <v>33480826880</v>
       </c>
       <c r="D106" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3400,13 +3400,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>58.68</v>
+        <v>57.73</v>
       </c>
       <c r="C107" s="2">
-        <v>17114374144</v>
+        <v>16837301248</v>
       </c>
       <c r="D107" s="3">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3414,13 +3414,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>66.1497</v>
+        <v>65.8</v>
       </c>
       <c r="C108" s="2">
-        <v>36300902400</v>
+        <v>36109004800</v>
       </c>
       <c r="D108" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3428,13 +3428,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>29.355</v>
+        <v>29.03</v>
       </c>
       <c r="C109" s="2">
-        <v>18523854848</v>
+        <v>18318772224</v>
       </c>
       <c r="D109" s="3">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3442,13 +3442,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>113.875</v>
+        <v>113.38</v>
       </c>
       <c r="C110" s="2">
-        <v>43431923712</v>
+        <v>43243130880</v>
       </c>
       <c r="D110" s="3">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3456,13 +3456,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>390.425</v>
+        <v>388.79</v>
       </c>
       <c r="C111" s="2">
-        <v>19329120256</v>
+        <v>19248177152</v>
       </c>
       <c r="D111" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3470,13 +3470,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>115.47</v>
+        <v>113.71</v>
       </c>
       <c r="C112" s="2">
-        <v>139725635584</v>
+        <v>137595928576</v>
       </c>
       <c r="D112" s="3">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3484,13 +3484,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>558.3099999999999</v>
+        <v>552.04</v>
       </c>
       <c r="C113" s="2">
-        <v>247413964800</v>
+        <v>244635418624</v>
       </c>
       <c r="D113" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3498,13 +3498,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>45.43</v>
+        <v>45.15</v>
       </c>
       <c r="C114" s="2">
-        <v>13542320128</v>
+        <v>13458853888</v>
       </c>
       <c r="D114" s="3">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3512,13 +3512,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>89.53</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="C115" s="2">
-        <v>42745200640</v>
+        <v>42181824512</v>
       </c>
       <c r="D115" s="3">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3526,13 +3526,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>109.59</v>
+        <v>108.54</v>
       </c>
       <c r="C116" s="2">
-        <v>11700046848</v>
+        <v>11587947520</v>
       </c>
       <c r="D116" s="3">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3540,10 +3540,10 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>206.16</v>
+        <v>206.9</v>
       </c>
       <c r="C117" s="2">
-        <v>10551866368</v>
+        <v>10589742080</v>
       </c>
       <c r="D117" s="3">
         <v>96</v>
@@ -3554,10 +3554,10 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>214.975</v>
+        <v>214.59</v>
       </c>
       <c r="C118" s="2">
-        <v>209385652224</v>
+        <v>209010655232</v>
       </c>
       <c r="D118" s="3">
         <v>92</v>
@@ -3568,13 +3568,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>52.985</v>
+        <v>52.63</v>
       </c>
       <c r="C119" s="2">
-        <v>215917051904</v>
+        <v>214470410240</v>
       </c>
       <c r="D119" s="3">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3582,13 +3582,13 @@
         <v>122</v>
       </c>
       <c r="B120" s="2">
-        <v>81.51000000000001</v>
+        <v>81.41</v>
       </c>
       <c r="C120" s="2">
-        <v>33300015104</v>
+        <v>33259161600</v>
       </c>
       <c r="D120" s="3">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3596,13 +3596,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>31.685</v>
+        <v>31.52</v>
       </c>
       <c r="C121" s="2">
-        <v>63570563072</v>
+        <v>63239520256</v>
       </c>
       <c r="D121" s="3">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3610,10 +3610,10 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>494.46</v>
+        <v>490.09</v>
       </c>
       <c r="C122" s="2">
-        <v>50302402560</v>
+        <v>49857835008</v>
       </c>
       <c r="D122" s="3">
         <v>40</v>
@@ -3624,13 +3624,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>46.43</v>
+        <v>45.74</v>
       </c>
       <c r="C123" s="2">
-        <v>8370029056</v>
+        <v>8245641728</v>
       </c>
       <c r="D123" s="3">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3638,13 +3638,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>28</v>
+        <v>27.57</v>
       </c>
       <c r="C124" s="2">
-        <v>21208684544</v>
+        <v>20882978816</v>
       </c>
       <c r="D124" s="3">
-        <v>710</v>
+        <v>721</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3652,13 +3652,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>71.2257</v>
+        <v>71</v>
       </c>
       <c r="C125" s="2">
-        <v>36145405952</v>
+        <v>36030865408</v>
       </c>
       <c r="D125" s="3">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3666,13 +3666,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>56.585</v>
+        <v>56.02</v>
       </c>
       <c r="C126" s="2">
-        <v>40224747520</v>
+        <v>39823106048</v>
       </c>
       <c r="D126" s="3">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3680,13 +3680,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>74.16</v>
+        <v>72.89</v>
       </c>
       <c r="C127" s="2">
-        <v>95075344384</v>
+        <v>93447159808</v>
       </c>
       <c r="D127" s="3">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3694,13 +3694,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>162.51</v>
+        <v>159.31</v>
       </c>
       <c r="C128" s="2">
-        <v>303804317696</v>
+        <v>297822060544</v>
       </c>
       <c r="D128" s="3">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3708,13 +3708,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>56.74</v>
+        <v>55.45</v>
       </c>
       <c r="C129" s="2">
-        <v>12210675712</v>
+        <v>11933062144</v>
       </c>
       <c r="D129" s="3">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3722,13 +3722,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>50.3</v>
+        <v>49.21</v>
       </c>
       <c r="C130" s="2">
-        <v>42047832064</v>
+        <v>41136656384</v>
       </c>
       <c r="D130" s="3">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3736,10 +3736,10 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>44.64</v>
+        <v>44.59</v>
       </c>
       <c r="C131" s="2">
-        <v>28722178048</v>
+        <v>28690008064</v>
       </c>
       <c r="D131" s="3">
         <v>445</v>
@@ -3750,13 +3750,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>78.09</v>
+        <v>77.03</v>
       </c>
       <c r="C132" s="2">
-        <v>35844636672</v>
+        <v>35358076928</v>
       </c>
       <c r="D132" s="3">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3764,10 +3764,10 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>427.37</v>
+        <v>424.04</v>
       </c>
       <c r="C133" s="2">
-        <v>125301465088</v>
+        <v>124325134336</v>
       </c>
       <c r="D133" s="3">
         <v>46</v>
@@ -3778,13 +3778,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>103.0801</v>
+        <v>102.36</v>
       </c>
       <c r="C134" s="2">
-        <v>25770024960</v>
+        <v>25589999616</v>
       </c>
       <c r="D134" s="3">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3792,13 +3792,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>169.29</v>
+        <v>167.77</v>
       </c>
       <c r="C135" s="2">
-        <v>37132234752</v>
+        <v>36798840832</v>
       </c>
       <c r="D135" s="3">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3806,13 +3806,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>136.725</v>
+        <v>135.65</v>
       </c>
       <c r="C136" s="2">
-        <v>15314430976</v>
+        <v>15194019840</v>
       </c>
       <c r="D136" s="3">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3820,10 +3820,10 @@
         <v>139</v>
       </c>
       <c r="B137" s="2">
-        <v>125.715</v>
+        <v>125.71</v>
       </c>
       <c r="C137" s="2">
-        <v>42519703552</v>
+        <v>42518016000</v>
       </c>
       <c r="D137" s="3">
         <v>158</v>
@@ -3834,13 +3834,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>256.305</v>
+        <v>254.75</v>
       </c>
       <c r="C138" s="2">
-        <v>189243310080</v>
+        <v>188095168512</v>
       </c>
       <c r="D138" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3848,13 +3848,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>86.45999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="C139" s="2">
-        <v>157988356096</v>
+        <v>157696000000</v>
       </c>
       <c r="D139" s="3">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3862,13 +3862,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>122.405</v>
+        <v>119.96</v>
       </c>
       <c r="C140" s="2">
-        <v>35662331904</v>
+        <v>34949988352</v>
       </c>
       <c r="D140" s="3">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3876,13 +3876,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>150.64</v>
+        <v>150.21</v>
       </c>
       <c r="C141" s="2">
-        <v>33198794752</v>
+        <v>33104031744</v>
       </c>
       <c r="D141" s="3">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3890,13 +3890,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>143.3</v>
+        <v>142.27</v>
       </c>
       <c r="C142" s="2">
-        <v>20044662784</v>
+        <v>19900588032</v>
       </c>
       <c r="D142" s="3">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3904,13 +3904,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>55.185</v>
+        <v>54.51</v>
       </c>
       <c r="C143" s="2">
-        <v>39033180160</v>
+        <v>38555738112</v>
       </c>
       <c r="D143" s="3">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3918,13 +3918,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>397.89</v>
+        <v>395.36</v>
       </c>
       <c r="C144" s="2">
-        <v>13963671552</v>
+        <v>13874881536</v>
       </c>
       <c r="D144" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3932,10 +3932,10 @@
         <v>147</v>
       </c>
       <c r="B145" s="2">
-        <v>162.735</v>
+        <v>162.45</v>
       </c>
       <c r="C145" s="2">
-        <v>19702489088</v>
+        <v>19667984384</v>
       </c>
       <c r="D145" s="3">
         <v>122</v>
@@ -3946,13 +3946,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>109.15</v>
+        <v>107.88</v>
       </c>
       <c r="C146" s="2">
-        <v>22496796672</v>
+        <v>22235037696</v>
       </c>
       <c r="D146" s="3">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3960,13 +3960,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>90.5433</v>
+        <v>89.45999999999999</v>
       </c>
       <c r="C147" s="2">
-        <v>69777375232</v>
+        <v>68942528512</v>
       </c>
       <c r="D147" s="3">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3974,13 +3974,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>108.59</v>
+        <v>108.81</v>
       </c>
       <c r="C148" s="2">
-        <v>9914711040</v>
+        <v>9934798848</v>
       </c>
       <c r="D148" s="3">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3988,13 +3988,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>51.34</v>
+        <v>50.8</v>
       </c>
       <c r="C149" s="2">
-        <v>32944875520</v>
+        <v>32598358016</v>
       </c>
       <c r="D149" s="3">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4002,13 +4002,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>19.415</v>
+        <v>19.32</v>
       </c>
       <c r="C150" s="2">
-        <v>4091109632</v>
+        <v>4071091200</v>
       </c>
       <c r="D150" s="3">
-        <v>1023</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4016,13 +4016,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>121.86</v>
+        <v>120.33</v>
       </c>
       <c r="C151" s="2">
-        <v>47237324800</v>
+        <v>46644240384</v>
       </c>
       <c r="D151" s="3">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4030,13 +4030,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>124.02</v>
+        <v>122.59</v>
       </c>
       <c r="C152" s="2">
-        <v>33747947520</v>
+        <v>33358821376</v>
       </c>
       <c r="D152" s="3">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4044,13 +4044,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>43.65</v>
+        <v>43.05</v>
       </c>
       <c r="C153" s="2">
-        <v>23341271040</v>
+        <v>23020427264</v>
       </c>
       <c r="D153" s="3">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4058,13 +4058,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>184.42</v>
+        <v>182.53</v>
       </c>
       <c r="C154" s="2">
-        <v>52508246016</v>
+        <v>51970121728</v>
       </c>
       <c r="D154" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4072,13 +4072,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>91.23999999999999</v>
+        <v>89.31</v>
       </c>
       <c r="C155" s="2">
-        <v>31618308096</v>
+        <v>30949486592</v>
       </c>
       <c r="D155" s="3">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4086,10 +4086,10 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>198.235</v>
+        <v>197.71</v>
       </c>
       <c r="C156" s="2">
-        <v>25006354432</v>
+        <v>24940128256</v>
       </c>
       <c r="D156" s="3">
         <v>100</v>
@@ -4100,10 +4100,10 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>361.28</v>
+        <v>355.3</v>
       </c>
       <c r="C157" s="2">
-        <v>15685043200</v>
+        <v>15425420288</v>
       </c>
       <c r="D157" s="3">
         <v>55</v>
@@ -4114,13 +4114,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>70.39</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="C158" s="2">
-        <v>26958174208</v>
+        <v>26517743616</v>
       </c>
       <c r="D158" s="3">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4128,13 +4128,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>171.855</v>
+        <v>170.66</v>
       </c>
       <c r="C159" s="2">
-        <v>61423206400</v>
+        <v>60996104192</v>
       </c>
       <c r="D159" s="3">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4142,10 +4142,10 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>466.885</v>
+        <v>463.18</v>
       </c>
       <c r="C160" s="2">
-        <v>110020517888</v>
+        <v>109147439104</v>
       </c>
       <c r="D160" s="3">
         <v>42</v>
@@ -4156,13 +4156,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>85.59</v>
+        <v>84.43000000000001</v>
       </c>
       <c r="C161" s="2">
-        <v>10198218752</v>
+        <v>10060003328</v>
       </c>
       <c r="D161" s="3">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4170,13 +4170,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>96.73</v>
+        <v>95.55</v>
       </c>
       <c r="C162" s="2">
-        <v>55281201152</v>
+        <v>54606831616</v>
       </c>
       <c r="D162" s="3">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4184,13 +4184,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>143.77</v>
+        <v>140</v>
       </c>
       <c r="C163" s="2">
-        <v>19702816768</v>
+        <v>19186159616</v>
       </c>
       <c r="D163" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4198,13 +4198,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>130.19</v>
+        <v>129.8</v>
       </c>
       <c r="C164" s="2">
-        <v>76142796800</v>
+        <v>75914698752</v>
       </c>
       <c r="D164" s="3">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4212,10 +4212,10 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>247.4</v>
+        <v>246.97</v>
       </c>
       <c r="C165" s="2">
-        <v>14325820416</v>
+        <v>14300921856</v>
       </c>
       <c r="D165" s="3">
         <v>80</v>
@@ -4226,13 +4226,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>769.21</v>
+        <v>757.88</v>
       </c>
       <c r="C166" s="2">
-        <v>71939055616</v>
+        <v>70879436800</v>
       </c>
       <c r="D166" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4240,13 +4240,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>66.455</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C167" s="2">
-        <v>25180131328</v>
+        <v>24780386304</v>
       </c>
       <c r="D167" s="3">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4254,13 +4254,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>42.43</v>
+        <v>41.8</v>
       </c>
       <c r="C168" s="2">
-        <v>15344513024</v>
+        <v>15116677120</v>
       </c>
       <c r="D168" s="3">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4268,13 +4268,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>68.45</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="C169" s="2">
-        <v>23878232064</v>
+        <v>23456135168</v>
       </c>
       <c r="D169" s="3">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4282,13 +4282,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>248.455</v>
+        <v>243.92</v>
       </c>
       <c r="C170" s="2">
-        <v>16507971584</v>
+        <v>16206654464</v>
       </c>
       <c r="D170" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4296,13 +4296,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>217.8</v>
+        <v>215.9</v>
       </c>
       <c r="C171" s="2">
-        <v>86815080448</v>
+        <v>86057738240</v>
       </c>
       <c r="D171" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4310,13 +4310,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>99.04000000000001</v>
+        <v>97.64</v>
       </c>
       <c r="C172" s="2">
-        <v>20941711360</v>
+        <v>20645685248</v>
       </c>
       <c r="D172" s="3">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4324,13 +4324,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>83.04000000000001</v>
+        <v>81.59</v>
       </c>
       <c r="C173" s="2">
-        <v>10243149824</v>
+        <v>10064288768</v>
       </c>
       <c r="D173" s="3">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4338,13 +4338,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>58.17</v>
+        <v>57.3</v>
       </c>
       <c r="C174" s="2">
-        <v>13360542720</v>
+        <v>13160720384</v>
       </c>
       <c r="D174" s="3">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4352,13 +4352,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>79.985</v>
+        <v>79.55</v>
       </c>
       <c r="C175" s="2">
-        <v>49109028864</v>
+        <v>48841949184</v>
       </c>
       <c r="D175" s="3">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4366,13 +4366,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>40.5</v>
+        <v>39.92</v>
       </c>
       <c r="C176" s="2">
-        <v>40280043520</v>
+        <v>39703195648</v>
       </c>
       <c r="D176" s="3">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4380,13 +4380,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>125.055</v>
+        <v>123.76</v>
       </c>
       <c r="C177" s="2">
-        <v>19107403776</v>
+        <v>18909538304</v>
       </c>
       <c r="D177" s="3">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4394,10 +4394,10 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>103.515</v>
+        <v>103.19</v>
       </c>
       <c r="C178" s="2">
-        <v>15333158912</v>
+        <v>15285018624</v>
       </c>
       <c r="D178" s="3">
         <v>192</v>
@@ -4408,13 +4408,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="2">
-        <v>128.04</v>
+        <v>125.7</v>
       </c>
       <c r="C179" s="2">
-        <v>27966879744</v>
+        <v>27455770624</v>
       </c>
       <c r="D179" s="3">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4422,13 +4422,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>12.9742</v>
+        <v>12.89</v>
       </c>
       <c r="C180" s="2">
-        <v>51906793472</v>
+        <v>51569926144</v>
       </c>
       <c r="D180" s="3">
-        <v>1532</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4436,13 +4436,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>149.72</v>
+        <v>148.57</v>
       </c>
       <c r="C181" s="2">
-        <v>27113394176</v>
+        <v>26905137152</v>
       </c>
       <c r="D181" s="3">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4450,13 +4450,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>56.82</v>
+        <v>56.08</v>
       </c>
       <c r="C182" s="2">
-        <v>32463140864</v>
+        <v>32040355840</v>
       </c>
       <c r="D182" s="3">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4464,13 +4464,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>42.91</v>
+        <v>42.51</v>
       </c>
       <c r="C183" s="2">
-        <v>61502472192</v>
+        <v>60929155072</v>
       </c>
       <c r="D183" s="3">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4478,13 +4478,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>429.755</v>
+        <v>422.09</v>
       </c>
       <c r="C184" s="2">
-        <v>16467996672</v>
+        <v>16174277632</v>
       </c>
       <c r="D184" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4492,10 +4492,10 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>264.75</v>
+        <v>263</v>
       </c>
       <c r="C185" s="2">
-        <v>66501758976</v>
+        <v>66062184448</v>
       </c>
       <c r="D185" s="3">
         <v>75</v>
@@ -4506,13 +4506,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>36.8</v>
+        <v>36.3</v>
       </c>
       <c r="C186" s="2">
-        <v>21080399872</v>
+        <v>20793982976</v>
       </c>
       <c r="D186" s="3">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4520,13 +4520,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>161.175</v>
+        <v>159.49</v>
       </c>
       <c r="C187" s="2">
-        <v>9745930240</v>
+        <v>9644041216</v>
       </c>
       <c r="D187" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4534,13 +4534,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>125.14</v>
+        <v>124.82</v>
       </c>
       <c r="C188" s="2">
-        <v>77250174976</v>
+        <v>77052633088</v>
       </c>
       <c r="D188" s="3">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4548,10 +4548,10 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>840.8049999999999</v>
+        <v>841.02</v>
       </c>
       <c r="C189" s="2">
-        <v>21014323200</v>
+        <v>21019697152</v>
       </c>
       <c r="D189" s="3">
         <v>23</v>
@@ -4562,13 +4562,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>58.46</v>
+        <v>58.81</v>
       </c>
       <c r="C190" s="2">
-        <v>34633867264</v>
+        <v>34841219072</v>
       </c>
       <c r="D190" s="3">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4576,13 +4576,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>28.72</v>
+        <v>28.47</v>
       </c>
       <c r="C191" s="2">
-        <v>19554011136</v>
+        <v>19383797760</v>
       </c>
       <c r="D191" s="3">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4590,10 +4590,10 @@
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>247.51</v>
+        <v>245.72</v>
       </c>
       <c r="C192" s="2">
-        <v>18274703360</v>
+        <v>18142539776</v>
       </c>
       <c r="D192" s="3">
         <v>80</v>
@@ -4604,13 +4604,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>93.48909999999999</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="C193" s="2">
-        <v>11699412992</v>
+        <v>11449241600</v>
       </c>
       <c r="D193" s="3">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4618,13 +4618,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>31.38</v>
+        <v>31.08</v>
       </c>
       <c r="C194" s="2">
-        <v>16371855360</v>
+        <v>16215336960</v>
       </c>
       <c r="D194" s="3">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4632,13 +4632,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>33.425</v>
+        <v>33.06</v>
       </c>
       <c r="C195" s="2">
-        <v>16397201408</v>
+        <v>16218145792</v>
       </c>
       <c r="D195" s="3">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4646,13 +4646,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>103.645</v>
+        <v>103.42</v>
       </c>
       <c r="C196" s="2">
-        <v>8514685440</v>
+        <v>8496201216</v>
       </c>
       <c r="D196" s="3">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4660,13 +4660,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>198.89</v>
+        <v>194.38</v>
       </c>
       <c r="C197" s="2">
-        <v>21246623744</v>
+        <v>20764837888</v>
       </c>
       <c r="D197" s="3">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4674,13 +4674,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>57.2601</v>
+        <v>56.77</v>
       </c>
       <c r="C198" s="2">
-        <v>44960403456</v>
+        <v>44575580160</v>
       </c>
       <c r="D198" s="3">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4688,13 +4688,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>78.2</v>
+        <v>77.38</v>
       </c>
       <c r="C199" s="2">
-        <v>27528275968</v>
+        <v>27239616512</v>
       </c>
       <c r="D199" s="3">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4702,13 +4702,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>226.7</v>
+        <v>224.01</v>
       </c>
       <c r="C200" s="2">
-        <v>61898850304</v>
+        <v>61164363776</v>
       </c>
       <c r="D200" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4716,13 +4716,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>112.45</v>
+        <v>113.06</v>
       </c>
       <c r="C201" s="2">
-        <v>122388332544</v>
+        <v>123052244992</v>
       </c>
       <c r="D201" s="3">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4730,13 +4730,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>76.39</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C202" s="2">
-        <v>34745077760</v>
+        <v>34522206208</v>
       </c>
       <c r="D202" s="3">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4744,13 +4744,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>20.23</v>
+        <v>20.1</v>
       </c>
       <c r="C203" s="2">
-        <v>12962797568</v>
+        <v>12879497216</v>
       </c>
       <c r="D203" s="3">
-        <v>982</v>
+        <v>989</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4758,13 +4758,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>78.98999999999999</v>
+        <v>78.68000000000001</v>
       </c>
       <c r="C204" s="2">
-        <v>98528174080</v>
+        <v>98141503488</v>
       </c>
       <c r="D204" s="3">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4772,13 +4772,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>74.22499999999999</v>
+        <v>73.59</v>
       </c>
       <c r="C205" s="2">
-        <v>43435204608</v>
+        <v>43063611392</v>
       </c>
       <c r="D205" s="3">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4786,13 +4786,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>115.225</v>
+        <v>113.58</v>
       </c>
       <c r="C206" s="2">
-        <v>11010301952</v>
+        <v>10853113856</v>
       </c>
       <c r="D206" s="3">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4800,13 +4800,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>33.605</v>
+        <v>33.1</v>
       </c>
       <c r="C207" s="2">
-        <v>27556100096</v>
+        <v>27141998592</v>
       </c>
       <c r="D207" s="3">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4814,13 +4814,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>36.965</v>
+        <v>36.57</v>
       </c>
       <c r="C208" s="2">
-        <v>51385782272</v>
+        <v>50836684800</v>
       </c>
       <c r="D208" s="3">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4828,13 +4828,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>113.29</v>
+        <v>113.95</v>
       </c>
       <c r="C209" s="2">
-        <v>7045878784</v>
+        <v>7086926336</v>
       </c>
       <c r="D209" s="3">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4842,13 +4842,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>129.91</v>
+        <v>128.54</v>
       </c>
       <c r="C210" s="2">
-        <v>1647025061888</v>
+        <v>1629655793664</v>
       </c>
       <c r="D210" s="3">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4856,13 +4856,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>129.5</v>
+        <v>128.11</v>
       </c>
       <c r="C211" s="2">
-        <v>1646372323328</v>
+        <v>1628700803072</v>
       </c>
       <c r="D211" s="3">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4870,13 +4870,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>157.45</v>
+        <v>155.5</v>
       </c>
       <c r="C212" s="2">
-        <v>22111963136</v>
+        <v>21838108672</v>
       </c>
       <c r="D212" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4884,13 +4884,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>123.83</v>
+        <v>122.65</v>
       </c>
       <c r="C213" s="2">
-        <v>32437639168</v>
+        <v>32128534528</v>
       </c>
       <c r="D213" s="3">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4898,13 +4898,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>106.75</v>
+        <v>106.13</v>
       </c>
       <c r="C214" s="2">
-        <v>20420206592</v>
+        <v>20301606912</v>
       </c>
       <c r="D214" s="3">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4912,13 +4912,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>358.06</v>
+        <v>353.22</v>
       </c>
       <c r="C215" s="2">
-        <v>119036329984</v>
+        <v>117427281920</v>
       </c>
       <c r="D215" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4926,13 +4926,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>714.9400000000001</v>
+        <v>708.27</v>
       </c>
       <c r="C216" s="2">
-        <v>35866394624</v>
+        <v>35531780096</v>
       </c>
       <c r="D216" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4940,13 +4940,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>39.78</v>
+        <v>39.55</v>
       </c>
       <c r="C217" s="2">
-        <v>35889315840</v>
+        <v>35681812480</v>
       </c>
       <c r="D217" s="3">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4954,13 +4954,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>64.59999999999999</v>
+        <v>63.75</v>
       </c>
       <c r="C218" s="2">
-        <v>8954140672</v>
+        <v>8836323328</v>
       </c>
       <c r="D218" s="3">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4968,13 +4968,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>12.255</v>
+        <v>12.19</v>
       </c>
       <c r="C219" s="2">
-        <v>17743769600</v>
+        <v>17649655808</v>
       </c>
       <c r="D219" s="3">
-        <v>1622</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4982,10 +4982,10 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>269.41</v>
+        <v>268.69</v>
       </c>
       <c r="C220" s="2">
-        <v>74111729664</v>
+        <v>73913663488</v>
       </c>
       <c r="D220" s="3">
         <v>73</v>
@@ -4996,10 +4996,10 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>328.64</v>
+        <v>326.43</v>
       </c>
       <c r="C221" s="2">
-        <v>330408099840</v>
+        <v>328186167296</v>
       </c>
       <c r="D221" s="3">
         <v>60</v>
@@ -5010,10 +5010,10 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>153.79</v>
+        <v>152.94</v>
       </c>
       <c r="C222" s="2">
-        <v>47221526528</v>
+        <v>46960533504</v>
       </c>
       <c r="D222" s="3">
         <v>129</v>
@@ -5024,13 +5024,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>73.41500000000001</v>
+        <v>72.52</v>
       </c>
       <c r="C223" s="2">
-        <v>22775904256</v>
+        <v>22498242560</v>
       </c>
       <c r="D223" s="3">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5038,10 +5038,10 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>227.2825</v>
+        <v>226.84</v>
       </c>
       <c r="C224" s="2">
-        <v>9066458112</v>
+        <v>9048806400</v>
       </c>
       <c r="D224" s="3">
         <v>87</v>
@@ -5052,13 +5052,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>153.46</v>
+        <v>151.35</v>
       </c>
       <c r="C225" s="2">
-        <v>40609660928</v>
+        <v>40051298304</v>
       </c>
       <c r="D225" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5066,13 +5066,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>76.25</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="C226" s="2">
-        <v>18799742976</v>
+        <v>18720845824</v>
       </c>
       <c r="D226" s="3">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5080,13 +5080,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>190.92</v>
+        <v>189.21</v>
       </c>
       <c r="C227" s="2">
-        <v>127091048448</v>
+        <v>125952745472</v>
       </c>
       <c r="D227" s="3">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5094,13 +5094,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>17.385</v>
+        <v>17.37</v>
       </c>
       <c r="C228" s="2">
-        <v>22453075968</v>
+        <v>22433703936</v>
       </c>
       <c r="D228" s="3">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5108,13 +5108,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>32.635</v>
+        <v>32.43</v>
       </c>
       <c r="C229" s="2">
-        <v>32176670720</v>
+        <v>31974551552</v>
       </c>
       <c r="D229" s="3">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5122,13 +5122,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>40.86</v>
+        <v>40.54</v>
       </c>
       <c r="C230" s="2">
-        <v>22320513024</v>
+        <v>22145705984</v>
       </c>
       <c r="D230" s="3">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5136,13 +5136,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>78.38</v>
+        <v>78.09</v>
       </c>
       <c r="C231" s="2">
-        <v>10268014592</v>
+        <v>10230024192</v>
       </c>
       <c r="D231" s="3">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5150,13 +5150,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>16.8701</v>
+        <v>16.59</v>
       </c>
       <c r="C232" s="2">
-        <v>11998707712</v>
+        <v>11799488512</v>
       </c>
       <c r="D232" s="3">
-        <v>1178</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5164,13 +5164,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>229.695</v>
+        <v>228.23</v>
       </c>
       <c r="C233" s="2">
-        <v>46949433344</v>
+        <v>46649982976</v>
       </c>
       <c r="D233" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5178,13 +5178,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>487.985</v>
+        <v>484.28</v>
       </c>
       <c r="C234" s="2">
-        <v>60971282432</v>
+        <v>60508364800</v>
       </c>
       <c r="D234" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5192,13 +5192,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>49.155</v>
+        <v>49.05</v>
       </c>
       <c r="C235" s="2">
-        <v>20315318272</v>
+        <v>20271923200</v>
       </c>
       <c r="D235" s="3">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5206,13 +5206,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>145.4799</v>
+        <v>144.24</v>
       </c>
       <c r="C236" s="2">
-        <v>132533067776</v>
+        <v>131403513856</v>
       </c>
       <c r="D236" s="3">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5220,13 +5220,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>115.83</v>
+        <v>114</v>
       </c>
       <c r="C237" s="2">
-        <v>64849395712</v>
+        <v>63824838656</v>
       </c>
       <c r="D237" s="3">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5234,10 +5234,10 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>507.04</v>
+        <v>504.08</v>
       </c>
       <c r="C238" s="2">
-        <v>42086801408</v>
+        <v>41841106944</v>
       </c>
       <c r="D238" s="3">
         <v>39</v>
@@ -5248,13 +5248,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>224.015</v>
+        <v>220.89</v>
       </c>
       <c r="C239" s="2">
-        <v>16930247680</v>
+        <v>16694071296</v>
       </c>
       <c r="D239" s="3">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5262,13 +5262,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>81.405</v>
+        <v>80.5</v>
       </c>
       <c r="C240" s="2">
-        <v>20765683712</v>
+        <v>20534827008</v>
       </c>
       <c r="D240" s="3">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5276,13 +5276,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>186.54</v>
+        <v>187.67</v>
       </c>
       <c r="C241" s="2">
-        <v>29491972096</v>
+        <v>29670627328</v>
       </c>
       <c r="D241" s="3">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5290,13 +5290,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>64.48</v>
+        <v>63.63</v>
       </c>
       <c r="C242" s="2">
-        <v>14384714752</v>
+        <v>14195089408</v>
       </c>
       <c r="D242" s="3">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5304,13 +5304,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>34.885</v>
+        <v>35.14</v>
       </c>
       <c r="C243" s="2">
-        <v>146055806976</v>
+        <v>147123437568</v>
       </c>
       <c r="D243" s="3">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>501.566</v>
+        <v>496.98</v>
       </c>
       <c r="C244" s="2">
-        <v>140468584448</v>
+        <v>139184226304</v>
       </c>
       <c r="D244" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5332,13 +5332,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>35.45</v>
+        <v>34.76</v>
       </c>
       <c r="C245" s="2">
-        <v>21782501376</v>
+        <v>21358524416</v>
       </c>
       <c r="D245" s="3">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5346,13 +5346,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>36.96</v>
+        <v>36.26</v>
       </c>
       <c r="C246" s="2">
-        <v>12827226112</v>
+        <v>12584286208</v>
       </c>
       <c r="D246" s="3">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5360,13 +5360,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>35.03</v>
+        <v>33.93</v>
       </c>
       <c r="C247" s="2">
-        <v>13522735104</v>
+        <v>13098099712</v>
       </c>
       <c r="D247" s="3">
-        <v>567</v>
+        <v>585</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5374,13 +5374,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>218.97</v>
+        <v>216.93</v>
       </c>
       <c r="C248" s="2">
-        <v>40629661696</v>
+        <v>40251142144</v>
       </c>
       <c r="D248" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5388,13 +5388,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>67.215</v>
+        <v>66.91</v>
       </c>
       <c r="C249" s="2">
-        <v>27189743616</v>
+        <v>27066368000</v>
       </c>
       <c r="D249" s="3">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5402,13 +5402,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>60.5</v>
+        <v>60.92</v>
       </c>
       <c r="C250" s="2">
-        <v>17643192320</v>
+        <v>17765672960</v>
       </c>
       <c r="D250" s="3">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5416,13 +5416,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>312.09</v>
+        <v>309.31</v>
       </c>
       <c r="C251" s="2">
-        <v>109654384640</v>
+        <v>108677619712</v>
       </c>
       <c r="D251" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5430,13 +5430,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>343.725</v>
+        <v>336.83</v>
       </c>
       <c r="C252" s="2">
-        <v>27175104512</v>
+        <v>26629980160</v>
       </c>
       <c r="D252" s="3">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5444,13 +5444,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>249.54</v>
+        <v>246.64</v>
       </c>
       <c r="C253" s="2">
-        <v>75835957248</v>
+        <v>74954637312</v>
       </c>
       <c r="D253" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5458,13 +5458,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>17.1</v>
+        <v>16.65</v>
       </c>
       <c r="C254" s="2">
-        <v>7963778048</v>
+        <v>7754204672</v>
       </c>
       <c r="D254" s="3">
-        <v>1162</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5472,13 +5472,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>127.795</v>
+        <v>127.23</v>
       </c>
       <c r="C255" s="2">
-        <v>16210795520</v>
+        <v>16139125760</v>
       </c>
       <c r="D255" s="3">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5486,10 +5486,10 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>206.1</v>
+        <v>206.5</v>
       </c>
       <c r="C256" s="2">
-        <v>21299404800</v>
+        <v>21340741632</v>
       </c>
       <c r="D256" s="3">
         <v>96</v>
@@ -5500,13 +5500,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>63.13</v>
+        <v>62.76</v>
       </c>
       <c r="C257" s="2">
-        <v>43313430528</v>
+        <v>43059572736</v>
       </c>
       <c r="D257" s="3">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5514,10 +5514,10 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>169.735</v>
+        <v>169.04</v>
       </c>
       <c r="C258" s="2">
-        <v>12369488896</v>
+        <v>12318839808</v>
       </c>
       <c r="D258" s="3">
         <v>117</v>
@@ -5528,13 +5528,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>172.4</v>
+        <v>169.04</v>
       </c>
       <c r="C259" s="2">
-        <v>448021037056</v>
+        <v>439289315328</v>
       </c>
       <c r="D259" s="3">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5542,13 +5542,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>28.525</v>
+        <v>28.24</v>
       </c>
       <c r="C260" s="2">
-        <v>9173411840</v>
+        <v>9081757696</v>
       </c>
       <c r="D260" s="3">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5556,13 +5556,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>157.68</v>
+        <v>156.02</v>
       </c>
       <c r="C261" s="2">
-        <v>458233806848</v>
+        <v>453409734656</v>
       </c>
       <c r="D261" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5570,13 +5570,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>65.37</v>
+        <v>64.8</v>
       </c>
       <c r="C262" s="2">
-        <v>22406092800</v>
+        <v>22210719744</v>
       </c>
       <c r="D262" s="3">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5584,13 +5584,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>33.78</v>
+        <v>33.6</v>
       </c>
       <c r="C263" s="2">
-        <v>47419686912</v>
+        <v>47167004672</v>
       </c>
       <c r="D263" s="3">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5598,13 +5598,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>12.015</v>
+        <v>11.92</v>
       </c>
       <c r="C264" s="2">
-        <v>11242831872</v>
+        <v>11153937408</v>
       </c>
       <c r="D264" s="3">
-        <v>1654</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5612,13 +5612,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>159.265</v>
+        <v>158.71</v>
       </c>
       <c r="C265" s="2">
-        <v>28407779328</v>
+        <v>28308787200</v>
       </c>
       <c r="D265" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5626,13 +5626,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>35.56</v>
+        <v>35.28</v>
       </c>
       <c r="C266" s="2">
-        <v>43640651776</v>
+        <v>43297021952</v>
       </c>
       <c r="D266" s="3">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5640,13 +5640,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>20.29</v>
+        <v>20</v>
       </c>
       <c r="C267" s="2">
-        <v>12577608704</v>
+        <v>12397839360</v>
       </c>
       <c r="D267" s="3">
-        <v>979</v>
+        <v>994</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5654,13 +5654,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>499.965</v>
+        <v>496.47</v>
       </c>
       <c r="C268" s="2">
-        <v>68594700288</v>
+        <v>68115189760</v>
       </c>
       <c r="D268" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5668,10 +5668,10 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>128.19</v>
+        <v>127.77</v>
       </c>
       <c r="C269" s="2">
-        <v>43351932928</v>
+        <v>43209895936</v>
       </c>
       <c r="D269" s="3">
         <v>155</v>
@@ -5682,13 +5682,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>17.7</v>
+        <v>17.36</v>
       </c>
       <c r="C270" s="2">
-        <v>39438610432</v>
+        <v>38681030656</v>
       </c>
       <c r="D270" s="3">
-        <v>1123</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5696,13 +5696,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>83.63</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="C271" s="2">
-        <v>13231101952</v>
+        <v>13177311232</v>
       </c>
       <c r="D271" s="3">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5710,13 +5710,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>61.365</v>
+        <v>60.71</v>
       </c>
       <c r="C272" s="2">
-        <v>265377841152</v>
+        <v>262545244160</v>
       </c>
       <c r="D272" s="3">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5724,13 +5724,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>49.6371</v>
+        <v>49.49</v>
       </c>
       <c r="C273" s="2">
-        <v>35626827776</v>
+        <v>35521249280</v>
       </c>
       <c r="D273" s="3">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5738,13 +5738,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>63.67</v>
+        <v>62.92</v>
       </c>
       <c r="C274" s="2">
-        <v>14510265344</v>
+        <v>14339341312</v>
       </c>
       <c r="D274" s="3">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5752,13 +5752,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>98.155</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C275" s="2">
-        <v>13466177536</v>
+        <v>13321439232</v>
       </c>
       <c r="D275" s="3">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5766,10 +5766,10 @@
         <v>278</v>
       </c>
       <c r="B276" s="2">
-        <v>125.585</v>
+        <v>125.57</v>
       </c>
       <c r="C276" s="2">
-        <v>35695026176</v>
+        <v>35690762240</v>
       </c>
       <c r="D276" s="3">
         <v>158</v>
@@ -5780,13 +5780,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>216.83</v>
+        <v>215.23</v>
       </c>
       <c r="C277" s="2">
-        <v>19211139072</v>
+        <v>19069378560</v>
       </c>
       <c r="D277" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5794,10 +5794,10 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>187.364</v>
+        <v>186.45</v>
       </c>
       <c r="C278" s="2">
-        <v>35496669184</v>
+        <v>35323510784</v>
       </c>
       <c r="D278" s="3">
         <v>106</v>
@@ -5808,10 +5808,10 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>382.01</v>
+        <v>377.82</v>
       </c>
       <c r="C279" s="2">
-        <v>187030945792</v>
+        <v>184979537920</v>
       </c>
       <c r="D279" s="3">
         <v>52</v>
@@ -5822,13 +5822,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>55.13</v>
+        <v>54.28</v>
       </c>
       <c r="C280" s="2">
-        <v>14735697920</v>
+        <v>14508500992</v>
       </c>
       <c r="D280" s="3">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5836,10 +5836,10 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>447.72</v>
+        <v>449.49</v>
       </c>
       <c r="C281" s="2">
-        <v>425008529408</v>
+        <v>426688708608</v>
       </c>
       <c r="D281" s="3">
         <v>44</v>
@@ -5850,10 +5850,10 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>449.66</v>
+        <v>445.72</v>
       </c>
       <c r="C282" s="2">
-        <v>113238335488</v>
+        <v>112246120448</v>
       </c>
       <c r="D282" s="3">
         <v>44</v>
@@ -5864,13 +5864,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>27.97</v>
+        <v>26.92</v>
       </c>
       <c r="C283" s="2">
-        <v>4742565376</v>
+        <v>4564528640</v>
       </c>
       <c r="D283" s="3">
-        <v>710</v>
+        <v>738</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5878,13 +5878,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>52.05</v>
+        <v>51.3</v>
       </c>
       <c r="C284" s="2">
-        <v>13084744704</v>
+        <v>12896203776</v>
       </c>
       <c r="D284" s="3">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5892,13 +5892,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>225.285</v>
+        <v>223.12</v>
       </c>
       <c r="C285" s="2">
-        <v>132012728320</v>
+        <v>130744074240</v>
       </c>
       <c r="D285" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5906,10 +5906,10 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>693.42</v>
+        <v>690.46</v>
       </c>
       <c r="C286" s="2">
-        <v>93154041856</v>
+        <v>92756402176</v>
       </c>
       <c r="D286" s="3">
         <v>28</v>
@@ -5920,13 +5920,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>32.655</v>
+        <v>32.73</v>
       </c>
       <c r="C287" s="2">
-        <v>19432108032</v>
+        <v>19476740096</v>
       </c>
       <c r="D287" s="3">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5934,13 +5934,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>58.51</v>
+        <v>57.94</v>
       </c>
       <c r="C288" s="2">
-        <v>44727791616</v>
+        <v>44292055040</v>
       </c>
       <c r="D288" s="3">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5948,13 +5948,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>103.63</v>
+        <v>101.94</v>
       </c>
       <c r="C289" s="2">
-        <v>15099304960</v>
+        <v>14853065728</v>
       </c>
       <c r="D289" s="3">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5962,13 +5962,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>96.78</v>
+        <v>95.70999999999999</v>
       </c>
       <c r="C290" s="2">
-        <v>31812843520</v>
+        <v>31461120000</v>
       </c>
       <c r="D290" s="3">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5976,13 +5976,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>88.1384</v>
+        <v>87.73</v>
       </c>
       <c r="C291" s="2">
-        <v>20980023296</v>
+        <v>20882812928</v>
       </c>
       <c r="D291" s="3">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5990,10 +5990,10 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>392.76</v>
+        <v>391.35</v>
       </c>
       <c r="C292" s="2">
-        <v>372190773248</v>
+        <v>370854625280</v>
       </c>
       <c r="D292" s="3">
         <v>50</v>
@@ -6004,13 +6004,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>148</v>
+        <v>145.21</v>
       </c>
       <c r="C293" s="2">
-        <v>17734100992</v>
+        <v>17399789568</v>
       </c>
       <c r="D293" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6018,10 +6018,10 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>204.075</v>
+        <v>202.98</v>
       </c>
       <c r="C294" s="2">
-        <v>61906964480</v>
+        <v>61574791168</v>
       </c>
       <c r="D294" s="3">
         <v>97</v>
@@ -6032,13 +6032,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>59.95</v>
+        <v>59.38</v>
       </c>
       <c r="C295" s="2">
-        <v>13494085632</v>
+        <v>13365784576</v>
       </c>
       <c r="D295" s="3">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6046,13 +6046,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>289.91</v>
+        <v>287.02</v>
       </c>
       <c r="C296" s="2">
-        <v>211661553664</v>
+        <v>209551572992</v>
       </c>
       <c r="D296" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6060,13 +6060,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>83.06</v>
+        <v>83.45999999999999</v>
       </c>
       <c r="C297" s="2">
-        <v>45212381184</v>
+        <v>45430116352</v>
       </c>
       <c r="D297" s="3">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6074,13 +6074,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>428.725</v>
+        <v>421.77</v>
       </c>
       <c r="C298" s="2">
-        <v>58097807360</v>
+        <v>57155313664</v>
       </c>
       <c r="D298" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6102,13 +6102,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>74.97499999999999</v>
+        <v>73.92</v>
       </c>
       <c r="C300" s="2">
-        <v>102104702976</v>
+        <v>100667949056</v>
       </c>
       <c r="D300" s="3">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6116,13 +6116,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>84.66</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C301" s="2">
-        <v>112632512512</v>
+        <v>111807660032</v>
       </c>
       <c r="D301" s="3">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6130,13 +6130,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>64.91</v>
+        <v>63.53</v>
       </c>
       <c r="C302" s="2">
-        <v>49709445120</v>
+        <v>48652607488</v>
       </c>
       <c r="D302" s="3">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6144,10 +6144,10 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>313.44</v>
+        <v>310.73</v>
       </c>
       <c r="C303" s="2">
-        <v>803262103552</v>
+        <v>796317122560</v>
       </c>
       <c r="D303" s="3">
         <v>63</v>
@@ -6158,13 +6158,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>46.21</v>
+        <v>44.99</v>
       </c>
       <c r="C304" s="2">
-        <v>16811151360</v>
+        <v>16367318016</v>
       </c>
       <c r="D304" s="3">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6172,10 +6172,10 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>105.43</v>
+        <v>105.29</v>
       </c>
       <c r="C305" s="2">
-        <v>6713740288</v>
+        <v>6704825344</v>
       </c>
       <c r="D305" s="3">
         <v>188</v>
@@ -6186,13 +6186,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>88.005</v>
+        <v>87.34</v>
       </c>
       <c r="C306" s="2">
-        <v>23571083264</v>
+        <v>23392970752</v>
       </c>
       <c r="D306" s="3">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6200,13 +6200,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>250.0025</v>
+        <v>242.85</v>
       </c>
       <c r="C307" s="2">
-        <v>9417444352</v>
+        <v>9148013568</v>
       </c>
       <c r="D307" s="3">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6214,10 +6214,10 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>458.77</v>
+        <v>455.85</v>
       </c>
       <c r="C308" s="2">
-        <v>28429426688</v>
+        <v>28248477696</v>
       </c>
       <c r="D308" s="3">
         <v>43</v>
@@ -6228,13 +6228,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>191.945</v>
+        <v>189.59</v>
       </c>
       <c r="C309" s="2">
-        <v>94812004352</v>
+        <v>93648732160</v>
       </c>
       <c r="D309" s="3">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6242,13 +6242,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>107.635</v>
+        <v>105.51</v>
       </c>
       <c r="C310" s="2">
-        <v>59379216384</v>
+        <v>58206912512</v>
       </c>
       <c r="D310" s="3">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6256,13 +6256,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>56.395</v>
+        <v>55.11</v>
       </c>
       <c r="C311" s="2">
-        <v>59029213184</v>
+        <v>57684189184</v>
       </c>
       <c r="D311" s="3">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6270,13 +6270,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>44.29</v>
+        <v>44</v>
       </c>
       <c r="C312" s="2">
-        <v>79059427328</v>
+        <v>78541758464</v>
       </c>
       <c r="D312" s="3">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6284,10 +6284,10 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>302.315</v>
+        <v>302.96</v>
       </c>
       <c r="C313" s="2">
-        <v>17624965120</v>
+        <v>17662568448</v>
       </c>
       <c r="D313" s="3">
         <v>65</v>
@@ -6298,13 +6298,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>42.06</v>
+        <v>41.24</v>
       </c>
       <c r="C314" s="2">
-        <v>13968504832</v>
+        <v>13696175104</v>
       </c>
       <c r="D314" s="3">
-        <v>472</v>
+        <v>482</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6312,13 +6312,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>139.75</v>
+        <v>137.95</v>
       </c>
       <c r="C315" s="2">
-        <v>60092502016</v>
+        <v>59318497280</v>
       </c>
       <c r="D315" s="3">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6326,10 +6326,10 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>529.13</v>
+        <v>537.04</v>
       </c>
       <c r="C316" s="2">
-        <v>25092931584</v>
+        <v>25468047360</v>
       </c>
       <c r="D316" s="3">
         <v>37</v>
@@ -6340,13 +6340,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>105.21</v>
+        <v>105</v>
       </c>
       <c r="C317" s="2">
-        <v>266964058112</v>
+        <v>266431201280</v>
       </c>
       <c r="D317" s="3">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6354,13 +6354,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>110.4243</v>
+        <v>108.19</v>
       </c>
       <c r="C318" s="2">
-        <v>42094735360</v>
+        <v>41243000832</v>
       </c>
       <c r="D318" s="3">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6368,13 +6368,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>26.275</v>
+        <v>26.18</v>
       </c>
       <c r="C319" s="2">
-        <v>16227544064</v>
+        <v>16168871936</v>
       </c>
       <c r="D319" s="3">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6382,13 +6382,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>89.8</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="C320" s="2">
-        <v>148978204672</v>
+        <v>147302612992</v>
       </c>
       <c r="D320" s="3">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6396,10 +6396,10 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>548.86</v>
+        <v>542.26</v>
       </c>
       <c r="C321" s="2">
-        <v>43943596032</v>
+        <v>43415179264</v>
       </c>
       <c r="D321" s="3">
         <v>36</v>
@@ -6410,10 +6410,10 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>331.33</v>
+        <v>327.78</v>
       </c>
       <c r="C322" s="2">
-        <v>2463600738304</v>
+        <v>2437204934656</v>
       </c>
       <c r="D322" s="3">
         <v>60</v>
@@ -6424,13 +6424,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>282.755</v>
+        <v>278.85</v>
       </c>
       <c r="C323" s="2">
-        <v>47422820352</v>
+        <v>46767882240</v>
       </c>
       <c r="D323" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6438,13 +6438,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>140.1</v>
+        <v>139.87</v>
       </c>
       <c r="C324" s="2">
-        <v>23241750528</v>
+        <v>23203592192</v>
       </c>
       <c r="D324" s="3">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6452,13 +6452,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>45.61</v>
+        <v>43.83</v>
       </c>
       <c r="C325" s="2">
-        <v>12700606464</v>
+        <v>12204945408</v>
       </c>
       <c r="D325" s="3">
-        <v>435</v>
+        <v>453</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6466,10 +6466,10 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>1272.41</v>
+        <v>1271.49</v>
       </c>
       <c r="C326" s="2">
-        <v>28018722816</v>
+        <v>27998464000</v>
       </c>
       <c r="D326" s="3">
         <v>15</v>
@@ -6480,10 +6480,10 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>69.84999999999999</v>
+        <v>69.91</v>
       </c>
       <c r="C327" s="2">
-        <v>76506701824</v>
+        <v>76572426240</v>
       </c>
       <c r="D327" s="3">
         <v>284</v>
@@ -6494,13 +6494,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>18.365</v>
+        <v>17.95</v>
       </c>
       <c r="C328" s="2">
-        <v>7789790208</v>
+        <v>7613762048</v>
       </c>
       <c r="D328" s="3">
-        <v>1082</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6508,13 +6508,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>50</v>
+        <v>49.45</v>
       </c>
       <c r="C329" s="2">
-        <v>24538249216</v>
+        <v>24268328960</v>
       </c>
       <c r="D329" s="3">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6522,10 +6522,10 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>248.41</v>
+        <v>246.42</v>
       </c>
       <c r="C330" s="2">
-        <v>14157159424</v>
+        <v>14043746304</v>
       </c>
       <c r="D330" s="3">
         <v>80</v>
@@ -6536,13 +6536,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>69.88500000000001</v>
+        <v>69.17</v>
       </c>
       <c r="C331" s="2">
-        <v>141406715904</v>
+        <v>139959959552</v>
       </c>
       <c r="D331" s="3">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6550,13 +6550,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>40.5829</v>
+        <v>40.87</v>
       </c>
       <c r="C332" s="2">
-        <v>32252530688</v>
+        <v>32480696320</v>
       </c>
       <c r="D332" s="3">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6564,10 +6564,10 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>431.17</v>
+        <v>431.6</v>
       </c>
       <c r="C333" s="2">
-        <v>191672745984</v>
+        <v>191863898112</v>
       </c>
       <c r="D333" s="3">
         <v>46</v>
@@ -6578,13 +6578,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>26.79</v>
+        <v>26.51</v>
       </c>
       <c r="C334" s="2">
-        <v>11065958400</v>
+        <v>10950300672</v>
       </c>
       <c r="D334" s="3">
-        <v>742</v>
+        <v>749</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6592,13 +6592,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>109.54</v>
+        <v>108.81</v>
       </c>
       <c r="C335" s="2">
-        <v>168361885696</v>
+        <v>167239876608</v>
       </c>
       <c r="D335" s="3">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6606,13 +6606,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>443.03</v>
+        <v>438.54</v>
       </c>
       <c r="C336" s="2">
-        <v>67278094336</v>
+        <v>66596249600</v>
       </c>
       <c r="D336" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6620,13 +6620,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>556.6263</v>
+        <v>551.63</v>
       </c>
       <c r="C337" s="2">
-        <v>113407041536</v>
+        <v>112389095424</v>
       </c>
       <c r="D337" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6634,13 +6634,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>38.19</v>
+        <v>37.52</v>
       </c>
       <c r="C338" s="2">
-        <v>8792559616</v>
+        <v>8638304256</v>
       </c>
       <c r="D338" s="3">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6648,10 +6648,10 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>224.795</v>
+        <v>224.64</v>
       </c>
       <c r="C339" s="2">
-        <v>51172331520</v>
+        <v>51137048576</v>
       </c>
       <c r="D339" s="3">
         <v>88</v>
@@ -6662,13 +6662,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>78.77</v>
+        <v>77.78</v>
       </c>
       <c r="C340" s="2">
-        <v>16733190144</v>
+        <v>16522883072</v>
       </c>
       <c r="D340" s="3">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6676,13 +6676,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>81.36</v>
+        <v>80.25</v>
       </c>
       <c r="C341" s="2">
-        <v>16841845760</v>
+        <v>16612071424</v>
       </c>
       <c r="D341" s="3">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6690,13 +6690,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>172.19</v>
+        <v>167.76</v>
       </c>
       <c r="C342" s="2">
-        <v>43258089472</v>
+        <v>42145169408</v>
       </c>
       <c r="D342" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6704,10 +6704,10 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>449.225</v>
+        <v>446.8</v>
       </c>
       <c r="C343" s="2">
-        <v>1109585821696</v>
+        <v>1103595962368</v>
       </c>
       <c r="D343" s="3">
         <v>44</v>
@@ -6718,10 +6718,10 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>6296.58</v>
+        <v>6320.97</v>
       </c>
       <c r="C344" s="2">
-        <v>20530251776</v>
+        <v>20609775616</v>
       </c>
       <c r="D344" s="3">
         <v>3</v>
@@ -6732,13 +6732,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>10.915</v>
+        <v>10.91</v>
       </c>
       <c r="C345" s="2">
-        <v>4519901696</v>
+        <v>4517831168</v>
       </c>
       <c r="D345" s="3">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6746,13 +6746,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>20.55</v>
+        <v>20.3</v>
       </c>
       <c r="C346" s="2">
-        <v>11639767040</v>
+        <v>11498164224</v>
       </c>
       <c r="D346" s="3">
-        <v>967</v>
+        <v>979</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6760,13 +6760,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>20.14</v>
+        <v>19.88</v>
       </c>
       <c r="C347" s="2">
-        <v>11567952896</v>
+        <v>11418614784</v>
       </c>
       <c r="D347" s="3">
-        <v>987</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6774,13 +6774,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>214.225</v>
+        <v>213.7</v>
       </c>
       <c r="C348" s="2">
-        <v>55227633664</v>
+        <v>55092285440</v>
       </c>
       <c r="D348" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6788,13 +6788,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>60.125</v>
+        <v>59.22</v>
       </c>
       <c r="C349" s="2">
-        <v>40477474816</v>
+        <v>39868207104</v>
       </c>
       <c r="D349" s="3">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6802,10 +6802,10 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>406.985</v>
+        <v>407.11</v>
       </c>
       <c r="C350" s="2">
-        <v>44626718720</v>
+        <v>44640423936</v>
       </c>
       <c r="D350" s="3">
         <v>48</v>
@@ -6816,13 +6816,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>21.685</v>
+        <v>21.53</v>
       </c>
       <c r="C351" s="2">
-        <v>5531019264</v>
+        <v>5491485184</v>
       </c>
       <c r="D351" s="3">
-        <v>916</v>
+        <v>923</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6830,13 +6830,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>66.7</v>
+        <v>65.25</v>
       </c>
       <c r="C352" s="2">
-        <v>29859854336</v>
+        <v>29210728448</v>
       </c>
       <c r="D352" s="3">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6844,13 +6844,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>82.55</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="C353" s="2">
-        <v>16309487616</v>
+        <v>16121793536</v>
       </c>
       <c r="D353" s="3">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6858,13 +6858,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>102.74</v>
+        <v>102.31</v>
       </c>
       <c r="C354" s="2">
-        <v>44370628608</v>
+        <v>44184924160</v>
       </c>
       <c r="D354" s="3">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6872,13 +6872,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>115.22</v>
+        <v>114.44</v>
       </c>
       <c r="C355" s="2">
-        <v>312737038336</v>
+        <v>310619930624</v>
       </c>
       <c r="D355" s="3">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6886,10 +6886,10 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>930.86</v>
+        <v>925.9299999999999</v>
       </c>
       <c r="C356" s="2">
-        <v>56669732864</v>
+        <v>56369598464</v>
       </c>
       <c r="D356" s="3">
         <v>21</v>
@@ -6900,13 +6900,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>89.61</v>
+        <v>88.51000000000001</v>
       </c>
       <c r="C357" s="2">
-        <v>37035008000</v>
+        <v>36580388864</v>
       </c>
       <c r="D357" s="3">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6914,13 +6914,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>63.835</v>
+        <v>63.52</v>
       </c>
       <c r="C358" s="2">
-        <v>56924540928</v>
+        <v>56643645440</v>
       </c>
       <c r="D358" s="3">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6928,13 +6928,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>216.07</v>
+        <v>218.32</v>
       </c>
       <c r="C359" s="2">
-        <v>66086092800</v>
+        <v>66774265856</v>
       </c>
       <c r="D359" s="3">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6942,13 +6942,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>15.712</v>
+        <v>15.63</v>
       </c>
       <c r="C360" s="2">
-        <v>10339030016</v>
+        <v>10285071360</v>
       </c>
       <c r="D360" s="3">
-        <v>1265</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6956,10 +6956,10 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>291.38</v>
+        <v>290.42</v>
       </c>
       <c r="C361" s="2">
-        <v>16863064064</v>
+        <v>16807506944</v>
       </c>
       <c r="D361" s="3">
         <v>68</v>
@@ -6970,13 +6970,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>124.04</v>
+        <v>122.99</v>
       </c>
       <c r="C362" s="2">
-        <v>44722122752</v>
+        <v>44343549952</v>
       </c>
       <c r="D362" s="3">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6984,13 +6984,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>84.6053</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C363" s="2">
-        <v>44231651328</v>
+        <v>43862921216</v>
       </c>
       <c r="D363" s="3">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6998,13 +6998,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="2">
-        <v>17.205</v>
+        <v>17.08</v>
       </c>
       <c r="C364" s="2">
-        <v>40359145472</v>
+        <v>40065921024</v>
       </c>
       <c r="D364" s="3">
-        <v>1155</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7012,13 +7012,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>21.36</v>
+        <v>21.23</v>
       </c>
       <c r="C365" s="2">
-        <v>11683833856</v>
+        <v>11612724224</v>
       </c>
       <c r="D365" s="3">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7026,13 +7026,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>61.12</v>
+        <v>60.6</v>
       </c>
       <c r="C366" s="2">
-        <v>30496739328</v>
+        <v>30237278208</v>
       </c>
       <c r="D366" s="3">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7040,13 +7040,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>187.1404</v>
+        <v>184.6</v>
       </c>
       <c r="C367" s="2">
-        <v>257613725696</v>
+        <v>254116675584</v>
       </c>
       <c r="D367" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7054,13 +7054,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>35.195</v>
+        <v>35.02</v>
       </c>
       <c r="C368" s="2">
-        <v>198686687232</v>
+        <v>197698764800</v>
       </c>
       <c r="D368" s="3">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7068,13 +7068,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>79.42</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="C369" s="2">
-        <v>19281190912</v>
+        <v>19074832384</v>
       </c>
       <c r="D369" s="3">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7082,13 +7082,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>156.41</v>
+        <v>155.28</v>
       </c>
       <c r="C370" s="2">
-        <v>368653697024</v>
+        <v>365990281216</v>
       </c>
       <c r="D370" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7096,13 +7096,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>127.79</v>
+        <v>126.54</v>
       </c>
       <c r="C371" s="2">
-        <v>74795483136</v>
+        <v>74063855616</v>
       </c>
       <c r="D371" s="3">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7110,13 +7110,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>418.84</v>
+        <v>414.15</v>
       </c>
       <c r="C372" s="2">
-        <v>53735497728</v>
+        <v>53133787136</v>
       </c>
       <c r="D372" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7124,13 +7124,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>83.84</v>
+        <v>84.34999999999999</v>
       </c>
       <c r="C373" s="2">
-        <v>18398267392</v>
+        <v>18510184448</v>
       </c>
       <c r="D373" s="3">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7138,13 +7138,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>156.47</v>
+        <v>153.89</v>
       </c>
       <c r="C374" s="2">
-        <v>14071691264</v>
+        <v>13839666176</v>
       </c>
       <c r="D374" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7152,13 +7152,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>124.58</v>
+        <v>122.24</v>
       </c>
       <c r="C375" s="2">
-        <v>115045392384</v>
+        <v>112884482048</v>
       </c>
       <c r="D375" s="3">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7166,13 +7166,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>97.3446</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="C376" s="2">
-        <v>151098277888</v>
+        <v>149337161728</v>
       </c>
       <c r="D376" s="3">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7180,13 +7180,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>133.405</v>
+        <v>131.46</v>
       </c>
       <c r="C377" s="2">
-        <v>53095190528</v>
+        <v>52321083392</v>
       </c>
       <c r="D377" s="3">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7194,13 +7194,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>69.45999999999999</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="C378" s="2">
-        <v>11457426432</v>
+        <v>11521757184</v>
       </c>
       <c r="D378" s="3">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7208,13 +7208,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>79.59999999999999</v>
+        <v>78.58</v>
       </c>
       <c r="C379" s="2">
-        <v>9015177216</v>
+        <v>8899656704</v>
       </c>
       <c r="D379" s="3">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7222,13 +7222,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>266.34</v>
+        <v>263.14</v>
       </c>
       <c r="C380" s="2">
-        <v>18562779136</v>
+        <v>18339753984</v>
       </c>
       <c r="D380" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7236,10 +7236,10 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>380.375</v>
+        <v>381.49</v>
       </c>
       <c r="C381" s="2">
-        <v>14849155072</v>
+        <v>14892682240</v>
       </c>
       <c r="D381" s="3">
         <v>52</v>
@@ -7250,13 +7250,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>142.325</v>
+        <v>140.57</v>
       </c>
       <c r="C382" s="2">
-        <v>33519386624</v>
+        <v>33106063360</v>
       </c>
       <c r="D382" s="3">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7264,13 +7264,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>26.61</v>
+        <v>26.08</v>
       </c>
       <c r="C383" s="2">
-        <v>19613380608</v>
+        <v>19222734848</v>
       </c>
       <c r="D383" s="3">
-        <v>747</v>
+        <v>762</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7278,13 +7278,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>97.9014</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="C384" s="2">
-        <v>35734011904</v>
+        <v>35226148864</v>
       </c>
       <c r="D384" s="3">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7292,13 +7292,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>279.295</v>
+        <v>275.69</v>
       </c>
       <c r="C385" s="2">
-        <v>49239433216</v>
+        <v>48603873280</v>
       </c>
       <c r="D385" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7306,13 +7306,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>113.06</v>
+        <v>110.48</v>
       </c>
       <c r="C386" s="2">
-        <v>51878936576</v>
+        <v>50695077888</v>
       </c>
       <c r="D386" s="3">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7320,13 +7320,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>143.09</v>
+        <v>141.22</v>
       </c>
       <c r="C387" s="2">
-        <v>16935130112</v>
+        <v>16713810944</v>
       </c>
       <c r="D387" s="3">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7334,13 +7334,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>202.775</v>
+        <v>200.28</v>
       </c>
       <c r="C388" s="2">
-        <v>29438062592</v>
+        <v>29075849216</v>
       </c>
       <c r="D388" s="3">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7348,10 +7348,10 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>234.87</v>
+        <v>234.06</v>
       </c>
       <c r="C389" s="2">
-        <v>54897573888</v>
+        <v>54708248576</v>
       </c>
       <c r="D389" s="3">
         <v>84</v>
@@ -7362,13 +7362,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>63.475</v>
+        <v>62.75</v>
       </c>
       <c r="C390" s="2">
-        <v>70819684352</v>
+        <v>70010798080</v>
       </c>
       <c r="D390" s="3">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7376,13 +7376,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>120.055</v>
+        <v>121.5</v>
       </c>
       <c r="C391" s="2">
-        <v>133741273088</v>
+        <v>135351001088</v>
       </c>
       <c r="D391" s="3">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7390,13 +7390,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>107.12</v>
+        <v>106.88</v>
       </c>
       <c r="C392" s="2">
-        <v>10510422016</v>
+        <v>10486873088</v>
       </c>
       <c r="D392" s="3">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7404,13 +7404,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>104.8</v>
+        <v>103.92</v>
       </c>
       <c r="C393" s="2">
-        <v>26801238016</v>
+        <v>26576187392</v>
       </c>
       <c r="D393" s="3">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7432,10 +7432,10 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>770.83</v>
+        <v>766.4400000000001</v>
       </c>
       <c r="C395" s="2">
-        <v>84567760896</v>
+        <v>84086128640</v>
       </c>
       <c r="D395" s="3">
         <v>25</v>
@@ -7446,13 +7446,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>20.735</v>
+        <v>20.61</v>
       </c>
       <c r="C396" s="2">
-        <v>19455879168</v>
+        <v>19338590208</v>
       </c>
       <c r="D396" s="3">
-        <v>958</v>
+        <v>964</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7460,13 +7460,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>75.70999999999999</v>
+        <v>75.11</v>
       </c>
       <c r="C397" s="2">
-        <v>8158736384</v>
+        <v>8094078976</v>
       </c>
       <c r="D397" s="3">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7474,13 +7474,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>108.97</v>
+        <v>107.84</v>
       </c>
       <c r="C398" s="2">
-        <v>23091943424</v>
+        <v>22852483072</v>
       </c>
       <c r="D398" s="3">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7488,13 +7488,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>135.08</v>
+        <v>131.74</v>
       </c>
       <c r="C399" s="2">
-        <v>8816320512</v>
+        <v>8598327296</v>
       </c>
       <c r="D399" s="3">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7502,13 +7502,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>185.01</v>
+        <v>179.25</v>
       </c>
       <c r="C400" s="2">
-        <v>27183704064</v>
+        <v>26337382400</v>
       </c>
       <c r="D400" s="3">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7516,10 +7516,10 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>299.635</v>
+        <v>298.82</v>
       </c>
       <c r="C401" s="2">
-        <v>34420572160</v>
+        <v>34326947840</v>
       </c>
       <c r="D401" s="3">
         <v>66</v>
@@ -7530,13 +7530,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>40.44</v>
+        <v>40.28</v>
       </c>
       <c r="C402" s="2">
-        <v>19928305664</v>
+        <v>19849459712</v>
       </c>
       <c r="D402" s="3">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7544,10 +7544,10 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>490.205</v>
+        <v>486.71</v>
       </c>
       <c r="C403" s="2">
-        <v>52251930624</v>
+        <v>51879391232</v>
       </c>
       <c r="D403" s="3">
         <v>40</v>
@@ -7558,13 +7558,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>113.455</v>
+        <v>112.59</v>
       </c>
       <c r="C404" s="2">
-        <v>38649126912</v>
+        <v>38354456576</v>
       </c>
       <c r="D404" s="3">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7572,10 +7572,10 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>148.72</v>
+        <v>148.53</v>
       </c>
       <c r="C405" s="2">
-        <v>47037456384</v>
+        <v>46977363968</v>
       </c>
       <c r="D405" s="3">
         <v>133</v>
@@ -7586,13 +7586,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>84.95999999999999</v>
+        <v>84.55</v>
       </c>
       <c r="C406" s="2">
-        <v>124138446848</v>
+        <v>123539390464</v>
       </c>
       <c r="D406" s="3">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7600,10 +7600,10 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>123.43</v>
+        <v>123.24</v>
       </c>
       <c r="C407" s="2">
-        <v>15483183104</v>
+        <v>15459348480</v>
       </c>
       <c r="D407" s="3">
         <v>161</v>
@@ -7614,13 +7614,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>227.145</v>
+        <v>222.88</v>
       </c>
       <c r="C408" s="2">
-        <v>24817635328</v>
+        <v>24351645696</v>
       </c>
       <c r="D408" s="3">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7628,13 +7628,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>102.84</v>
+        <v>100.68</v>
       </c>
       <c r="C409" s="2">
-        <v>117895774208</v>
+        <v>115419553792</v>
       </c>
       <c r="D409" s="3">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7642,13 +7642,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>65.2</v>
+        <v>64.92</v>
       </c>
       <c r="C410" s="2">
-        <v>118666600448</v>
+        <v>118156992512</v>
       </c>
       <c r="D410" s="3">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7656,13 +7656,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>190.975</v>
+        <v>182.65</v>
       </c>
       <c r="C411" s="2">
-        <v>10760429568</v>
+        <v>10291358720</v>
       </c>
       <c r="D411" s="3">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7670,13 +7670,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>45.09</v>
+        <v>44.48</v>
       </c>
       <c r="C412" s="2">
-        <v>6510364672</v>
+        <v>6422289408</v>
       </c>
       <c r="D412" s="3">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7684,10 +7684,10 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>275.63</v>
+        <v>273.56</v>
       </c>
       <c r="C413" s="2">
-        <v>71082221568</v>
+        <v>70548389888</v>
       </c>
       <c r="D413" s="3">
         <v>72</v>
@@ -7698,13 +7698,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>150.155</v>
+        <v>149.15</v>
       </c>
       <c r="C414" s="2">
-        <v>15332026368</v>
+        <v>15229407232</v>
       </c>
       <c r="D414" s="3">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7712,13 +7712,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>58.365</v>
+        <v>57.67</v>
       </c>
       <c r="C415" s="2">
-        <v>82947760128</v>
+        <v>81960026112</v>
       </c>
       <c r="D415" s="3">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7726,13 +7726,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>272.68</v>
+        <v>272.23</v>
       </c>
       <c r="C416" s="2">
-        <v>14429271040</v>
+        <v>14405458944</v>
       </c>
       <c r="D416" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7740,13 +7740,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>442.895</v>
+        <v>441.42</v>
       </c>
       <c r="C417" s="2">
-        <v>67390902272</v>
+        <v>67166470144</v>
       </c>
       <c r="D417" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7754,13 +7754,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>68.82989999999999</v>
+        <v>67.84</v>
       </c>
       <c r="C418" s="2">
-        <v>75052122112</v>
+        <v>73972736000</v>
       </c>
       <c r="D418" s="3">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7768,13 +7768,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>120.045</v>
+        <v>118.29</v>
       </c>
       <c r="C419" s="2">
-        <v>44930080768</v>
+        <v>44273225728</v>
       </c>
       <c r="D419" s="3">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7782,10 +7782,10 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>386.44</v>
+        <v>386.84</v>
       </c>
       <c r="C420" s="2">
-        <v>123969953792</v>
+        <v>124098273280</v>
       </c>
       <c r="D420" s="3">
         <v>51</v>
@@ -7796,13 +7796,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>143.63</v>
+        <v>141.94</v>
       </c>
       <c r="C421" s="2">
-        <v>45193609216</v>
+        <v>44661846016</v>
       </c>
       <c r="D421" s="3">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7810,10 +7810,10 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>226.3</v>
+        <v>226.01</v>
       </c>
       <c r="C422" s="2">
-        <v>22324721664</v>
+        <v>22296111104</v>
       </c>
       <c r="D422" s="3">
         <v>87</v>
@@ -7824,13 +7824,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>106.77</v>
+        <v>103.79</v>
       </c>
       <c r="C423" s="2">
-        <v>18047760384</v>
+        <v>17544038400</v>
       </c>
       <c r="D423" s="3">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7838,13 +7838,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>73.93000000000001</v>
+        <v>73.14</v>
       </c>
       <c r="C424" s="2">
-        <v>23812925440</v>
+        <v>23558465536</v>
       </c>
       <c r="D424" s="3">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7852,13 +7852,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>66.95999999999999</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="C425" s="2">
-        <v>13866210304</v>
+        <v>13831007232</v>
       </c>
       <c r="D425" s="3">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7866,10 +7866,10 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>268.645</v>
+        <v>268.02</v>
       </c>
       <c r="C426" s="2">
-        <v>49249075200</v>
+        <v>49134497792</v>
       </c>
       <c r="D426" s="3">
         <v>74</v>
@@ -7880,13 +7880,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>99.065</v>
+        <v>98.45</v>
       </c>
       <c r="C427" s="2">
-        <v>15171112960</v>
+        <v>15076928512</v>
       </c>
       <c r="D427" s="3">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7894,10 +7894,10 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>109.31</v>
+        <v>109.3</v>
       </c>
       <c r="C428" s="2">
-        <v>17397233664</v>
+        <v>17395642368</v>
       </c>
       <c r="D428" s="3">
         <v>181</v>
@@ -7908,13 +7908,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>34.53</v>
+        <v>34.36</v>
       </c>
       <c r="C429" s="2">
-        <v>14439859200</v>
+        <v>14368768000</v>
       </c>
       <c r="D429" s="3">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7922,13 +7922,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>286.33</v>
+        <v>283.71</v>
       </c>
       <c r="C430" s="2">
-        <v>108693151744</v>
+        <v>107698585600</v>
       </c>
       <c r="D430" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7936,13 +7936,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>74.72</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="C431" s="2">
-        <v>37928169472</v>
+        <v>37456101376</v>
       </c>
       <c r="D431" s="3">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7950,13 +7950,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>14.055</v>
+        <v>14</v>
       </c>
       <c r="C432" s="2">
-        <v>100479197184</v>
+        <v>100086005760</v>
       </c>
       <c r="D432" s="3">
-        <v>1414</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7964,13 +7964,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>66.23</v>
+        <v>65.31</v>
       </c>
       <c r="C433" s="2">
-        <v>14314555392</v>
+        <v>14115710976</v>
       </c>
       <c r="D433" s="3">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7978,13 +7978,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>912.98</v>
+        <v>896.1</v>
       </c>
       <c r="C434" s="2">
-        <v>50148438016</v>
+        <v>49221246976</v>
       </c>
       <c r="D434" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7992,13 +7992,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>383.381</v>
+        <v>379.26</v>
       </c>
       <c r="C435" s="2">
-        <v>18036389888</v>
+        <v>17842513920</v>
       </c>
       <c r="D435" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8006,13 +8006,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>81.45</v>
+        <v>82.17</v>
       </c>
       <c r="C436" s="2">
-        <v>12823242752</v>
+        <v>12936597504</v>
       </c>
       <c r="D436" s="3">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8020,13 +8020,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>139.66</v>
+        <v>138.5</v>
       </c>
       <c r="C437" s="2">
-        <v>44008964096</v>
+        <v>43643428864</v>
       </c>
       <c r="D437" s="3">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8034,13 +8034,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>107.82</v>
+        <v>107.41</v>
       </c>
       <c r="C438" s="2">
-        <v>16716305408</v>
+        <v>16652740608</v>
       </c>
       <c r="D438" s="3">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8048,13 +8048,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>32.435</v>
+        <v>32.07</v>
       </c>
       <c r="C439" s="2">
-        <v>43202772992</v>
+        <v>42716598272</v>
       </c>
       <c r="D439" s="3">
-        <v>612</v>
+        <v>619</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8062,10 +8062,10 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>238.96</v>
+        <v>237.88</v>
       </c>
       <c r="C440" s="2">
-        <v>11224357888</v>
+        <v>11173627904</v>
       </c>
       <c r="D440" s="3">
         <v>83</v>
@@ -8076,13 +8076,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>134.4</v>
+        <v>132.53</v>
       </c>
       <c r="C441" s="2">
-        <v>62033661952</v>
+        <v>61170544640</v>
       </c>
       <c r="D441" s="3">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8090,13 +8090,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>86.13</v>
+        <v>85.45</v>
       </c>
       <c r="C442" s="2">
-        <v>98984042496</v>
+        <v>98202558464</v>
       </c>
       <c r="D442" s="3">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8104,10 +8104,10 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>549.855</v>
+        <v>548.64</v>
       </c>
       <c r="C443" s="2">
-        <v>212090601472</v>
+        <v>211621969920</v>
       </c>
       <c r="D443" s="3">
         <v>36</v>
@@ -8118,13 +8118,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>135.41</v>
+        <v>134.6</v>
       </c>
       <c r="C444" s="2">
-        <v>162477113344</v>
+        <v>161505214464</v>
       </c>
       <c r="D444" s="3">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8132,13 +8132,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>43.1</v>
+        <v>42.08</v>
       </c>
       <c r="C445" s="2">
-        <v>9990493184</v>
+        <v>9754059776</v>
       </c>
       <c r="D445" s="3">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8146,13 +8146,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>84.81999999999999</v>
+        <v>82.47</v>
       </c>
       <c r="C446" s="2">
-        <v>19170932736</v>
+        <v>18639788032</v>
       </c>
       <c r="D446" s="3">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8160,13 +8160,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>55.1</v>
+        <v>55.77</v>
       </c>
       <c r="C447" s="2">
-        <v>13650860032</v>
+        <v>13816850432</v>
       </c>
       <c r="D447" s="3">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8174,13 +8174,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>117.45</v>
+        <v>115.56</v>
       </c>
       <c r="C448" s="2">
-        <v>26667610112</v>
+        <v>26238476288</v>
       </c>
       <c r="D448" s="3">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8188,13 +8188,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>170.595</v>
+        <v>168.65</v>
       </c>
       <c r="C449" s="2">
-        <v>39056359424</v>
+        <v>38611066880</v>
       </c>
       <c r="D449" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8202,13 +8202,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>225.455</v>
+        <v>222.31</v>
       </c>
       <c r="C450" s="2">
-        <v>24702654464</v>
+        <v>24358062080</v>
       </c>
       <c r="D450" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8216,13 +8216,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>257.47</v>
+        <v>253.86</v>
       </c>
       <c r="C451" s="2">
-        <v>816051126272</v>
+        <v>804609261568</v>
       </c>
       <c r="D451" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8230,13 +8230,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>56.63</v>
+        <v>56.46</v>
       </c>
       <c r="C452" s="2">
-        <v>20138252288</v>
+        <v>20077797376</v>
       </c>
       <c r="D452" s="3">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8244,13 +8244,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>205.795</v>
+        <v>204.19</v>
       </c>
       <c r="C453" s="2">
-        <v>46931959808</v>
+        <v>46565937152</v>
       </c>
       <c r="D453" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8258,13 +8258,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>143.79</v>
+        <v>142.18</v>
       </c>
       <c r="C454" s="2">
-        <v>24348534784</v>
+        <v>24075907072</v>
       </c>
       <c r="D454" s="3">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8272,13 +8272,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>168.81</v>
+        <v>168.44</v>
       </c>
       <c r="C455" s="2">
-        <v>153279479808</v>
+        <v>152943525888</v>
       </c>
       <c r="D455" s="3">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8286,10 +8286,10 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>78.69</v>
+        <v>78.63</v>
       </c>
       <c r="C456" s="2">
-        <v>15870199808</v>
+        <v>15858098176</v>
       </c>
       <c r="D456" s="3">
         <v>252</v>
@@ -8300,13 +8300,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>384.115</v>
+        <v>381.92</v>
       </c>
       <c r="C457" s="2">
-        <v>16104136704</v>
+        <v>16012110848</v>
       </c>
       <c r="D457" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8314,13 +8314,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>52.48</v>
+        <v>52.37</v>
       </c>
       <c r="C458" s="2">
-        <v>17212389376</v>
+        <v>17176311808</v>
       </c>
       <c r="D458" s="3">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8328,13 +8328,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>40.81</v>
+        <v>40.03</v>
       </c>
       <c r="C459" s="2">
-        <v>22434238464</v>
+        <v>22005452800</v>
       </c>
       <c r="D459" s="3">
-        <v>487</v>
+        <v>496</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8342,13 +8342,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>133.965</v>
+        <v>134.36</v>
       </c>
       <c r="C460" s="2">
-        <v>9401730048</v>
+        <v>9429451776</v>
       </c>
       <c r="D460" s="3">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8356,13 +8356,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>442.37</v>
+        <v>438.32</v>
       </c>
       <c r="C461" s="2">
-        <v>22030733312</v>
+        <v>21829038080</v>
       </c>
       <c r="D461" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8370,10 +8370,10 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>508.35</v>
+        <v>502.73</v>
       </c>
       <c r="C462" s="2">
-        <v>473290113024</v>
+        <v>468057718784</v>
       </c>
       <c r="D462" s="3">
         <v>39</v>
@@ -8384,10 +8384,10 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>229.63</v>
+        <v>228.53</v>
       </c>
       <c r="C463" s="2">
-        <v>140004261888</v>
+        <v>139333599232</v>
       </c>
       <c r="D463" s="3">
         <v>86</v>
@@ -8398,10 +8398,10 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>181.76</v>
+        <v>180.94</v>
       </c>
       <c r="C464" s="2">
-        <v>156111110144</v>
+        <v>155406843904</v>
       </c>
       <c r="D464" s="3">
         <v>109</v>
@@ -8412,10 +8412,10 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>469.045</v>
+        <v>465.81</v>
       </c>
       <c r="C465" s="2">
-        <v>32238026752</v>
+        <v>32015679488</v>
       </c>
       <c r="D465" s="3">
         <v>42</v>
@@ -8426,13 +8426,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>40.3</v>
+        <v>39.86</v>
       </c>
       <c r="C466" s="2">
-        <v>61776678912</v>
+        <v>61102194688</v>
       </c>
       <c r="D466" s="3">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8440,13 +8440,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>239.63</v>
+        <v>238.99</v>
       </c>
       <c r="C467" s="2">
-        <v>501881077760</v>
+        <v>500540669952</v>
       </c>
       <c r="D467" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8454,13 +8454,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>19.79</v>
+        <v>19.4</v>
       </c>
       <c r="C468" s="2">
-        <v>7692709376</v>
+        <v>7541109248</v>
       </c>
       <c r="D468" s="3">
-        <v>1004</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8468,13 +8468,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>31.45</v>
+        <v>31.06</v>
       </c>
       <c r="C469" s="2">
-        <v>31583348736</v>
+        <v>31191693312</v>
       </c>
       <c r="D469" s="3">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8482,13 +8482,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>128.195</v>
+        <v>126.89</v>
       </c>
       <c r="C470" s="2">
-        <v>46344675328</v>
+        <v>45872889856</v>
       </c>
       <c r="D470" s="3">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8496,10 +8496,10 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>226.275</v>
+        <v>226</v>
       </c>
       <c r="C471" s="2">
-        <v>30107924480</v>
+        <v>30071334912</v>
       </c>
       <c r="D471" s="3">
         <v>87</v>
@@ -8510,10 +8510,10 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>229.45</v>
+        <v>229.76</v>
       </c>
       <c r="C472" s="2">
-        <v>33222295552</v>
+        <v>33267181568</v>
       </c>
       <c r="D472" s="3">
         <v>86</v>
@@ -8524,13 +8524,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>207.33</v>
+        <v>205.11</v>
       </c>
       <c r="C473" s="2">
-        <v>21582223360</v>
+        <v>21351131136</v>
       </c>
       <c r="D473" s="3">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8538,13 +8538,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>343.345</v>
+        <v>340.48</v>
       </c>
       <c r="C474" s="2">
-        <v>88429191168</v>
+        <v>87691304960</v>
       </c>
       <c r="D474" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8552,13 +8552,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>45.61</v>
+        <v>44.93</v>
       </c>
       <c r="C475" s="2">
-        <v>18246371328</v>
+        <v>17974335488</v>
       </c>
       <c r="D475" s="3">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8566,13 +8566,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>10.575</v>
+        <v>10.59</v>
       </c>
       <c r="C476" s="2">
-        <v>12679742464</v>
+        <v>12697728000</v>
       </c>
       <c r="D476" s="3">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8580,13 +8580,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>32.86</v>
+        <v>32.62</v>
       </c>
       <c r="C477" s="2">
-        <v>138143449088</v>
+        <v>137134473216</v>
       </c>
       <c r="D477" s="3">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8594,13 +8594,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>115.68</v>
+        <v>114.7</v>
       </c>
       <c r="C478" s="2">
-        <v>20807362560</v>
+        <v>20631089152</v>
       </c>
       <c r="D478" s="3">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8608,13 +8608,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>293.27</v>
+        <v>289.89</v>
       </c>
       <c r="C479" s="2">
-        <v>17312782336</v>
+        <v>17113250816</v>
       </c>
       <c r="D479" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8622,13 +8622,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>30.44</v>
+        <v>29.86</v>
       </c>
       <c r="C480" s="2">
-        <v>26277664768</v>
+        <v>25776973824</v>
       </c>
       <c r="D480" s="3">
-        <v>653</v>
+        <v>665</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8636,13 +8636,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>13.49</v>
+        <v>13.97</v>
       </c>
       <c r="C481" s="2">
-        <v>32863123456</v>
+        <v>34032457728</v>
       </c>
       <c r="D481" s="3">
-        <v>1473</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8650,13 +8650,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>43.26</v>
+        <v>43.45</v>
       </c>
       <c r="C482" s="2">
-        <v>13840474112</v>
+        <v>13901262848</v>
       </c>
       <c r="D482" s="3">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8664,13 +8664,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>88.455</v>
+        <v>87.27</v>
       </c>
       <c r="C483" s="2">
-        <v>27901804544</v>
+        <v>27528011776</v>
       </c>
       <c r="D483" s="3">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8678,13 +8678,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>83.955</v>
+        <v>82.38</v>
       </c>
       <c r="C484" s="2">
-        <v>41728237568</v>
+        <v>40945414144</v>
       </c>
       <c r="D484" s="3">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8692,13 +8692,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>45.5598</v>
+        <v>44.85</v>
       </c>
       <c r="C485" s="2">
-        <v>167098302464</v>
+        <v>164494999552</v>
       </c>
       <c r="D485" s="3">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8706,13 +8706,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>143.48</v>
+        <v>141.5</v>
       </c>
       <c r="C486" s="2">
-        <v>7891399680</v>
+        <v>7782499840</v>
       </c>
       <c r="D486" s="3">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8720,10 +8720,10 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>160.615</v>
+        <v>160.43</v>
       </c>
       <c r="C487" s="2">
-        <v>65340911616</v>
+        <v>65265647616</v>
       </c>
       <c r="D487" s="3">
         <v>123</v>
@@ -8734,13 +8734,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>34.89</v>
+        <v>34.36</v>
       </c>
       <c r="C488" s="2">
-        <v>42502647808</v>
+        <v>41857007616</v>
       </c>
       <c r="D488" s="3">
-        <v>569</v>
+        <v>578</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8748,13 +8748,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>159.18</v>
+        <v>158.34</v>
       </c>
       <c r="C489" s="2">
-        <v>428646236160</v>
+        <v>426384261120</v>
       </c>
       <c r="D489" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8762,13 +8762,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>62.245</v>
+        <v>61.9</v>
       </c>
       <c r="C490" s="2">
-        <v>16029145088</v>
+        <v>15940301824</v>
       </c>
       <c r="D490" s="3">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8776,13 +8776,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>34.715</v>
+        <v>33.89</v>
       </c>
       <c r="C491" s="2">
-        <v>8891552768</v>
+        <v>8680245248</v>
       </c>
       <c r="D491" s="3">
-        <v>572</v>
+        <v>586</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8790,10 +8790,10 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>372.92</v>
+        <v>375.07</v>
       </c>
       <c r="C492" s="2">
-        <v>27686551552</v>
+        <v>27846172672</v>
       </c>
       <c r="D492" s="3">
         <v>53</v>
@@ -8804,13 +8804,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>213.98</v>
+        <v>212.76</v>
       </c>
       <c r="C493" s="2">
-        <v>22770253824</v>
+        <v>22640429056</v>
       </c>
       <c r="D493" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8818,13 +8818,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>33.255</v>
+        <v>32.88</v>
       </c>
       <c r="C494" s="2">
-        <v>24352503808</v>
+        <v>24077893632</v>
       </c>
       <c r="D494" s="3">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8832,13 +8832,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>106.09</v>
+        <v>104.18</v>
       </c>
       <c r="C495" s="2">
-        <v>12072828928</v>
+        <v>11855475712</v>
       </c>
       <c r="D495" s="3">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8846,13 +8846,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>61.23</v>
+        <v>60.39</v>
       </c>
       <c r="C496" s="2">
-        <v>33698295808</v>
+        <v>33235996672</v>
       </c>
       <c r="D496" s="3">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8860,13 +8860,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>108.85</v>
+        <v>107.42</v>
       </c>
       <c r="C497" s="2">
-        <v>440078368768</v>
+        <v>434296913920</v>
       </c>
       <c r="D497" s="3">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8874,13 +8874,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>39.45</v>
+        <v>39.29</v>
       </c>
       <c r="C498" s="2">
-        <v>8382257152</v>
+        <v>8348260864</v>
       </c>
       <c r="D498" s="3">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8888,13 +8888,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>107.24</v>
+        <v>105.67</v>
       </c>
       <c r="C499" s="2">
-        <v>25672826880</v>
+        <v>25296975872</v>
       </c>
       <c r="D499" s="3">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8902,13 +8902,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>135.8</v>
+        <v>134.35</v>
       </c>
       <c r="C500" s="2">
-        <v>38035816448</v>
+        <v>37629689856</v>
       </c>
       <c r="D500" s="3">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8916,13 +8916,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>127.335</v>
+        <v>126.32</v>
       </c>
       <c r="C501" s="2">
-        <v>26586019840</v>
+        <v>26374100992</v>
       </c>
       <c r="D501" s="3">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8930,10 +8930,10 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>250.675</v>
+        <v>251.41</v>
       </c>
       <c r="C502" s="2">
-        <v>12892291072</v>
+        <v>12930092032</v>
       </c>
       <c r="D502" s="3">
         <v>79</v>
@@ -8944,10 +8944,10 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>37.93</v>
+        <v>37.92</v>
       </c>
       <c r="C503" s="2">
-        <v>5619102208</v>
+        <v>5617619968</v>
       </c>
       <c r="D503" s="3">
         <v>524</v>
@@ -8958,13 +8958,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>180.885</v>
+        <v>178.63</v>
       </c>
       <c r="C504" s="2">
-        <v>83589128192</v>
+        <v>82547064832</v>
       </c>
       <c r="D504" s="3">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Project 1: Equal-Weight S&P 500 Index Fund/recommended_trades.xlsx
+++ b/Project 1: Equal-Weight S&P 500 Index Fund/recommended_trades.xlsx
@@ -1930,13 +1930,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>126.3</v>
+        <v>110.22</v>
       </c>
       <c r="C2" s="2">
-        <v>37305991168</v>
+        <v>32248940544</v>
       </c>
       <c r="D2" s="3">
-        <v>157</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1944,13 +1944,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>15.84</v>
+        <v>13.225</v>
       </c>
       <c r="C3" s="2">
-        <v>10349253632</v>
+        <v>8640712704</v>
       </c>
       <c r="D3" s="3">
-        <v>1255</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1958,13 +1958,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>71.01000000000001</v>
+        <v>59.07</v>
       </c>
       <c r="C4" s="2">
-        <v>4221111552</v>
+        <v>3512910592</v>
       </c>
       <c r="D4" s="3">
-        <v>279</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1972,13 +1972,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>181.99</v>
+        <v>175.3801</v>
       </c>
       <c r="C5" s="2">
-        <v>2862466203648</v>
+        <v>2741927411712</v>
       </c>
       <c r="D5" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1986,13 +1986,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>147.73</v>
+        <v>153.58</v>
       </c>
       <c r="C6" s="2">
-        <v>260638556160</v>
+        <v>271076376576</v>
       </c>
       <c r="D6" s="3">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2000,13 +2000,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>185.33</v>
+        <v>179.98</v>
       </c>
       <c r="C7" s="2">
-        <v>37484662784</v>
+        <v>36149702656</v>
       </c>
       <c r="D7" s="3">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2014,13 +2014,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>107.65</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="C8" s="2">
-        <v>187197964288</v>
+        <v>173119520768</v>
       </c>
       <c r="D8" s="3">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2028,13 +2028,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>76.72</v>
+        <v>81.13</v>
       </c>
       <c r="C9" s="2">
-        <v>28572293120</v>
+        <v>30257756160</v>
       </c>
       <c r="D9" s="3">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2042,10 +2042,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>312</v>
+        <v>314.585</v>
       </c>
       <c r="C10" s="2">
-        <v>196966531072</v>
+        <v>198598443008</v>
       </c>
       <c r="D10" s="3">
         <v>63</v>
@@ -2056,13 +2056,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>526.88</v>
+        <v>519.085</v>
       </c>
       <c r="C11" s="2">
-        <v>240151904256</v>
+        <v>236598951936</v>
       </c>
       <c r="D11" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2070,13 +2070,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>188.35</v>
+        <v>175.06</v>
       </c>
       <c r="C12" s="2">
-        <v>94442078208</v>
+        <v>87234846720</v>
       </c>
       <c r="D12" s="3">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2084,13 +2084,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>85.55</v>
+        <v>79.14</v>
       </c>
       <c r="C13" s="2">
-        <v>46593527808</v>
+        <v>42427113472</v>
       </c>
       <c r="D13" s="3">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2098,13 +2098,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>245.76</v>
+        <v>240.18</v>
       </c>
       <c r="C14" s="2">
-        <v>101529108480</v>
+        <v>98951036928</v>
       </c>
       <c r="D14" s="3">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2112,13 +2112,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>201.57</v>
+        <v>205.59</v>
       </c>
       <c r="C15" s="2">
-        <v>43080753152</v>
+        <v>43947741184</v>
       </c>
       <c r="D15" s="3">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2126,13 +2126,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>81.40000000000001</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="C16" s="2">
-        <v>21376372736</v>
+        <v>21198669824</v>
       </c>
       <c r="D16" s="3">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2140,13 +2140,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>81.23999999999999</v>
+        <v>80.565</v>
       </c>
       <c r="C17" s="2">
-        <v>41821622272</v>
+        <v>41505157120</v>
       </c>
       <c r="D17" s="3">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2154,13 +2154,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>19.64</v>
+        <v>16.705</v>
       </c>
       <c r="C18" s="2">
-        <v>13145758720</v>
+        <v>11186152448</v>
       </c>
       <c r="D18" s="3">
-        <v>1012</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2168,13 +2168,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>76.84999999999999</v>
+        <v>76.38</v>
       </c>
       <c r="C19" s="2">
-        <v>46434844672</v>
+        <v>45374455808</v>
       </c>
       <c r="D19" s="3">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2182,13 +2182,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>60.69</v>
+        <v>61.62</v>
       </c>
       <c r="C20" s="2">
-        <v>43924570112</v>
+        <v>43867279360</v>
       </c>
       <c r="D20" s="3">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2196,13 +2196,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>141.78</v>
+        <v>143.09</v>
       </c>
       <c r="C21" s="2">
-        <v>7535833600</v>
+        <v>7587017728</v>
       </c>
       <c r="D21" s="3">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2210,13 +2210,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>220.81</v>
+        <v>233.55</v>
       </c>
       <c r="C22" s="2">
-        <v>47307657216</v>
+        <v>50331426816</v>
       </c>
       <c r="D22" s="3">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2224,13 +2224,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>92.63</v>
+        <v>108.42</v>
       </c>
       <c r="C23" s="2">
-        <v>14098470912</v>
+        <v>16448721920</v>
       </c>
       <c r="D23" s="3">
-        <v>214</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2238,13 +2238,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>200.09</v>
+        <v>169.99</v>
       </c>
       <c r="C24" s="2">
-        <v>23477760000</v>
+        <v>19947816960</v>
       </c>
       <c r="D24" s="3">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2252,13 +2252,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>361.44</v>
+        <v>300.3</v>
       </c>
       <c r="C25" s="2">
-        <v>27656304640</v>
+        <v>22983067648</v>
       </c>
       <c r="D25" s="3">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2266,13 +2266,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>46.74</v>
+        <v>38.7043</v>
       </c>
       <c r="C26" s="2">
-        <v>5978560512</v>
+        <v>4924115968</v>
       </c>
       <c r="D26" s="3">
-        <v>425</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2280,13 +2280,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>109.87</v>
+        <v>114.34</v>
       </c>
       <c r="C27" s="2">
-        <v>28879550464</v>
+        <v>29908369408</v>
       </c>
       <c r="D27" s="3">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2294,13 +2294,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>111.91</v>
+        <v>104.455</v>
       </c>
       <c r="C28" s="2">
-        <v>9842115584</v>
+        <v>9169059840</v>
       </c>
       <c r="D28" s="3">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2308,13 +2308,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>145.66</v>
+        <v>136.09</v>
       </c>
       <c r="C29" s="2">
-        <v>122317553664</v>
+        <v>113843912704</v>
       </c>
       <c r="D29" s="3">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2322,13 +2322,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>9.85</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C30" s="2">
-        <v>14596419584</v>
+        <v>13326107648</v>
       </c>
       <c r="D30" s="3">
-        <v>2018</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2336,13 +2336,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>115.82</v>
+        <v>97.51000000000001</v>
       </c>
       <c r="C31" s="2">
-        <v>186511900672</v>
+        <v>157543989248</v>
       </c>
       <c r="D31" s="3">
-        <v>171</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2350,13 +2350,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>156.57</v>
+        <v>151.49</v>
       </c>
       <c r="C32" s="2">
-        <v>36085473280</v>
+        <v>34950561792</v>
       </c>
       <c r="D32" s="3">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2364,13 +2364,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>243.28</v>
+        <v>268.71</v>
       </c>
       <c r="C33" s="2">
-        <v>129991073792</v>
+        <v>143733243904</v>
       </c>
       <c r="D33" s="3">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2378,13 +2378,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>344.86</v>
+        <v>339.5</v>
       </c>
       <c r="C34" s="2">
-        <v>36306513920</v>
+        <v>34841526272</v>
       </c>
       <c r="D34" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2392,13 +2392,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>184.77</v>
+        <v>173.66</v>
       </c>
       <c r="C35" s="2">
-        <v>86110765056</v>
+        <v>80952655872</v>
       </c>
       <c r="D35" s="3">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2406,13 +2406,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>139.57</v>
+        <v>130.83</v>
       </c>
       <c r="C36" s="2">
-        <v>1432044175360</v>
+        <v>1349877891072</v>
       </c>
       <c r="D36" s="3">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2420,13 +2420,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>179.6</v>
+        <v>178.955</v>
       </c>
       <c r="C37" s="2">
-        <v>55367630848</v>
+        <v>55401066496</v>
       </c>
       <c r="D37" s="3">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2434,10 +2434,10 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>304.65</v>
+        <v>303.95</v>
       </c>
       <c r="C38" s="2">
-        <v>26401363968</v>
+        <v>26380156928</v>
       </c>
       <c r="D38" s="3">
         <v>65</v>
@@ -2448,13 +2448,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>315.06</v>
+        <v>338.13</v>
       </c>
       <c r="C39" s="2">
-        <v>64349745152</v>
+        <v>68595421184</v>
       </c>
       <c r="D39" s="3">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2462,13 +2462,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>72.64</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="C40" s="2">
-        <v>10928106496</v>
+        <v>9888763904</v>
       </c>
       <c r="D40" s="3">
-        <v>273</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2476,13 +2476,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>41.87</v>
+        <v>40.65</v>
       </c>
       <c r="C41" s="2">
-        <v>12921039872</v>
+        <v>12759628800</v>
       </c>
       <c r="D41" s="3">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2490,13 +2490,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>284.43</v>
+        <v>290.44</v>
       </c>
       <c r="C42" s="2">
-        <v>63178444800</v>
+        <v>64520953856</v>
       </c>
       <c r="D42" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2504,13 +2504,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>87.3</v>
+        <v>83.94</v>
       </c>
       <c r="C43" s="2">
-        <v>51971346432</v>
+        <v>50066350080</v>
       </c>
       <c r="D43" s="3">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2518,13 +2518,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>106.8</v>
+        <v>98.44</v>
       </c>
       <c r="C44" s="2">
-        <v>28890040320</v>
+        <v>27841196032</v>
       </c>
       <c r="D44" s="3">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2532,13 +2532,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>120.75</v>
+        <v>105.6</v>
       </c>
       <c r="C45" s="2">
-        <v>20893130752</v>
+        <v>18271756288</v>
       </c>
       <c r="D45" s="3">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2546,13 +2546,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>117.27</v>
+        <v>112.91</v>
       </c>
       <c r="C46" s="2">
-        <v>16943990784</v>
+        <v>16762845184</v>
       </c>
       <c r="D46" s="3">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2560,13 +2560,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>91.58</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="C47" s="2">
-        <v>71996440576</v>
+        <v>72770945024</v>
       </c>
       <c r="D47" s="3">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2574,13 +2574,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>184.85</v>
+        <v>180.64</v>
       </c>
       <c r="C48" s="2">
-        <v>26248517632</v>
+        <v>25653770240</v>
       </c>
       <c r="D48" s="3">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2588,13 +2588,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>881.65</v>
+        <v>818.3049999999999</v>
       </c>
       <c r="C49" s="2">
-        <v>363843747840</v>
+        <v>337743937536</v>
       </c>
       <c r="D49" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2602,13 +2602,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>185.02</v>
+        <v>182.19</v>
       </c>
       <c r="C50" s="2">
-        <v>14936350720</v>
+        <v>14681380864</v>
       </c>
       <c r="D50" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2616,13 +2616,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>141.97</v>
+        <v>135.5</v>
       </c>
       <c r="C51" s="2">
-        <v>27633608704</v>
+        <v>26377648128</v>
       </c>
       <c r="D51" s="3">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2630,13 +2630,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>180.86</v>
+        <v>196.555</v>
       </c>
       <c r="C52" s="2">
-        <v>13362894848</v>
+        <v>14694451200</v>
       </c>
       <c r="D52" s="3">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2644,13 +2644,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>165.41</v>
+        <v>155.53</v>
       </c>
       <c r="C53" s="2">
-        <v>121817686016</v>
+        <v>116085882880</v>
       </c>
       <c r="D53" s="3">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2658,13 +2658,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>2450.99</v>
+        <v>2543.71</v>
       </c>
       <c r="C54" s="2">
-        <v>44500172800</v>
+        <v>45423030272</v>
       </c>
       <c r="D54" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2672,13 +2672,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>231.36</v>
+        <v>202.13</v>
       </c>
       <c r="C55" s="2">
-        <v>139184783360</v>
+        <v>121925623808</v>
       </c>
       <c r="D55" s="3">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2686,13 +2686,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>31.3</v>
+        <v>28.205</v>
       </c>
       <c r="C56" s="2">
-        <v>248946425856</v>
+        <v>224127369216</v>
       </c>
       <c r="D56" s="3">
-        <v>635</v>
+        <v>704</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2700,13 +2700,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>57.82</v>
+        <v>50.63</v>
       </c>
       <c r="C57" s="2">
-        <v>18187165696</v>
+        <v>15951437824</v>
       </c>
       <c r="D57" s="3">
-        <v>343</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2714,13 +2714,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>43.92</v>
+        <v>38.095</v>
       </c>
       <c r="C58" s="2">
-        <v>22216931328</v>
+        <v>19291498496</v>
       </c>
       <c r="D58" s="3">
-        <v>452</v>
+        <v>521</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2728,13 +2728,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>37.99</v>
+        <v>34.48</v>
       </c>
       <c r="C59" s="2">
-        <v>8696367104</v>
+        <v>7840096256</v>
       </c>
       <c r="D59" s="3">
-        <v>523</v>
+        <v>576</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2742,13 +2742,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>79.83</v>
+        <v>70.34</v>
       </c>
       <c r="C60" s="2">
-        <v>17419784192</v>
+        <v>15308655616</v>
       </c>
       <c r="D60" s="3">
-        <v>249</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2756,13 +2756,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>270.79</v>
+        <v>267.01</v>
       </c>
       <c r="C61" s="2">
-        <v>76908429312</v>
+        <v>77462003712</v>
       </c>
       <c r="D61" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2770,13 +2770,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>28.34</v>
+        <v>25.37</v>
       </c>
       <c r="C62" s="2">
-        <v>14194457600</v>
+        <v>12659072000</v>
       </c>
       <c r="D62" s="3">
-        <v>701</v>
+        <v>783</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2784,13 +2784,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>69.95999999999999</v>
+        <v>61.295</v>
       </c>
       <c r="C63" s="2">
-        <v>33758638080</v>
+        <v>29665124352</v>
       </c>
       <c r="D63" s="3">
-        <v>284</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2798,13 +2798,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>114.71</v>
+        <v>114.18</v>
       </c>
       <c r="C64" s="2">
-        <v>17277390848</v>
+        <v>17200304128</v>
       </c>
       <c r="D64" s="3">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2812,13 +2812,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>268.92</v>
+        <v>259.625</v>
       </c>
       <c r="C65" s="2">
-        <v>38924021760</v>
+        <v>37599674368</v>
       </c>
       <c r="D65" s="3">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2826,13 +2826,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>400</v>
+        <v>355.03</v>
       </c>
       <c r="C66" s="2">
-        <v>11463999488</v>
+        <v>10369219584</v>
       </c>
       <c r="D66" s="3">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2840,13 +2840,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>45.39</v>
+        <v>43.325</v>
       </c>
       <c r="C67" s="2">
-        <v>35348914176</v>
+        <v>33740732416</v>
       </c>
       <c r="D67" s="3">
-        <v>437</v>
+        <v>458</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2854,10 +2854,10 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>3063.16</v>
+        <v>3035.88</v>
       </c>
       <c r="C68" s="2">
-        <v>113133830144</v>
+        <v>108357230592</v>
       </c>
       <c r="D68" s="3">
         <v>6</v>
@@ -2868,13 +2868,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>35.52</v>
+        <v>35.5693</v>
       </c>
       <c r="C69" s="2">
-        <v>36111409152</v>
+        <v>36161531904</v>
       </c>
       <c r="D69" s="3">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2882,13 +2882,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>710.28</v>
+        <v>669.47</v>
       </c>
       <c r="C70" s="2">
-        <v>106115833856</v>
+        <v>99953876992</v>
       </c>
       <c r="D70" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2896,13 +2896,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>60.49</v>
+        <v>59.165</v>
       </c>
       <c r="C71" s="2">
-        <v>127080423424</v>
+        <v>123601608704</v>
       </c>
       <c r="D71" s="3">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2910,13 +2910,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>165.72</v>
+        <v>184.175</v>
       </c>
       <c r="C72" s="2">
-        <v>19551811584</v>
+        <v>21754198016</v>
       </c>
       <c r="D72" s="3">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2924,13 +2924,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>349.99</v>
+        <v>364.4003</v>
       </c>
       <c r="C73" s="2">
-        <v>764822618112</v>
+        <v>794760642560</v>
       </c>
       <c r="D73" s="3">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2938,13 +2938,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>70</v>
+        <v>72.66500000000001</v>
       </c>
       <c r="C74" s="2">
-        <v>19855079424</v>
+        <v>20608739328</v>
       </c>
       <c r="D74" s="3">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2952,13 +2952,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>50.72</v>
+        <v>54.395</v>
       </c>
       <c r="C75" s="2">
-        <v>72920145920</v>
+        <v>79646253056</v>
       </c>
       <c r="D75" s="3">
-        <v>391</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2966,13 +2966,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>42.52</v>
+        <v>40.33</v>
       </c>
       <c r="C76" s="2">
-        <v>9965539328</v>
+        <v>9480091648</v>
       </c>
       <c r="D76" s="3">
-        <v>467</v>
+        <v>492</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2980,13 +2980,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>68.53</v>
+        <v>62.43</v>
       </c>
       <c r="C77" s="2">
-        <v>10747902976</v>
+        <v>9793081344</v>
       </c>
       <c r="D77" s="3">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2994,13 +2994,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>45.71</v>
+        <v>42.015</v>
       </c>
       <c r="C78" s="2">
-        <v>88023744512</v>
+        <v>80908279808</v>
       </c>
       <c r="D78" s="3">
-        <v>434</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3008,13 +3008,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>32.31</v>
+        <v>29.245</v>
       </c>
       <c r="C79" s="2">
-        <v>15413809152</v>
+        <v>13975221248</v>
       </c>
       <c r="D79" s="3">
-        <v>615</v>
+        <v>679</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3022,13 +3022,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>91.25</v>
+        <v>89.63500000000001</v>
       </c>
       <c r="C80" s="2">
-        <v>23232249856</v>
+        <v>22469881856</v>
       </c>
       <c r="D80" s="3">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3036,13 +3036,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>57.08</v>
+        <v>52.75</v>
       </c>
       <c r="C81" s="2">
-        <v>47652556800</v>
+        <v>44184879104</v>
       </c>
       <c r="D81" s="3">
-        <v>348</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3050,13 +3050,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>276.44</v>
+        <v>274.9663</v>
       </c>
       <c r="C82" s="2">
-        <v>142738685952</v>
+        <v>141977747456</v>
       </c>
       <c r="D82" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3064,13 +3064,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>200.92</v>
+        <v>213.7475</v>
       </c>
       <c r="C83" s="2">
-        <v>83215843328</v>
+        <v>87793582080</v>
       </c>
       <c r="D83" s="3">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3078,13 +3078,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>145.57</v>
+        <v>155</v>
       </c>
       <c r="C84" s="2">
-        <v>15368408064</v>
+        <v>16355135488</v>
       </c>
       <c r="D84" s="3">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3092,13 +3092,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>83.92</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="C85" s="2">
-        <v>26085021696</v>
+        <v>23448541184</v>
       </c>
       <c r="D85" s="3">
-        <v>236</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3106,13 +3106,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>103.81</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C86" s="2">
-        <v>45019385856</v>
+        <v>41242873856</v>
       </c>
       <c r="D86" s="3">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3120,13 +3120,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>17.16</v>
+        <v>14.6406</v>
       </c>
       <c r="C87" s="2">
-        <v>22412161024</v>
+        <v>19121649664</v>
       </c>
       <c r="D87" s="3">
-        <v>1158</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3134,13 +3134,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>71.52</v>
+        <v>66.785</v>
       </c>
       <c r="C88" s="2">
-        <v>11087816704</v>
+        <v>10392613888</v>
       </c>
       <c r="D88" s="3">
-        <v>277</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3148,10 +3148,10 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>229</v>
+        <v>230.63</v>
       </c>
       <c r="C89" s="2">
-        <v>62239911936</v>
+        <v>62682931200</v>
       </c>
       <c r="D89" s="3">
         <v>86</v>
@@ -3162,13 +3162,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>197.87</v>
+        <v>205.77</v>
       </c>
       <c r="C90" s="2">
-        <v>26670305280</v>
+        <v>27583057920</v>
       </c>
       <c r="D90" s="3">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3176,13 +3176,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>123.95</v>
+        <v>126.005</v>
       </c>
       <c r="C91" s="2">
-        <v>13484272640</v>
+        <v>13715896320</v>
       </c>
       <c r="D91" s="3">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3190,13 +3190,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>103.94</v>
+        <v>110.295</v>
       </c>
       <c r="C92" s="2">
-        <v>33719281664</v>
+        <v>35469987840</v>
       </c>
       <c r="D92" s="3">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3204,13 +3204,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>81.23999999999999</v>
+        <v>84.31</v>
       </c>
       <c r="C93" s="2">
-        <v>15841799168</v>
+        <v>16267445248</v>
       </c>
       <c r="D93" s="3">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3218,13 +3218,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>31.25</v>
+        <v>27.235</v>
       </c>
       <c r="C94" s="2">
-        <v>14833844224</v>
+        <v>12862927872</v>
       </c>
       <c r="D94" s="3">
-        <v>636</v>
+        <v>729</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3232,13 +3232,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>94.63</v>
+        <v>95.37</v>
       </c>
       <c r="C95" s="2">
-        <v>23126435840</v>
+        <v>23465504768</v>
       </c>
       <c r="D95" s="3">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3246,13 +3246,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>98.52</v>
+        <v>87.735</v>
       </c>
       <c r="C96" s="2">
-        <v>11471569920</v>
+        <v>10215073792</v>
       </c>
       <c r="D96" s="3">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3260,13 +3260,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>418.86</v>
+        <v>450.41</v>
       </c>
       <c r="C97" s="2">
-        <v>63069847552</v>
+        <v>67413319680</v>
       </c>
       <c r="D97" s="3">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3274,13 +3274,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>286.58</v>
+        <v>291.225</v>
       </c>
       <c r="C98" s="2">
-        <v>84790992896</v>
+        <v>86196781056</v>
       </c>
       <c r="D98" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3288,13 +3288,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>109</v>
+        <v>107.87</v>
       </c>
       <c r="C99" s="2">
-        <v>17136216064</v>
+        <v>16920056832</v>
       </c>
       <c r="D99" s="3">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3302,13 +3302,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>76.26000000000001</v>
+        <v>73.56</v>
       </c>
       <c r="C100" s="2">
-        <v>63262859264</v>
+        <v>60811460608</v>
       </c>
       <c r="D100" s="3">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3316,13 +3316,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>164.01</v>
+        <v>136.17</v>
       </c>
       <c r="C101" s="2">
-        <v>20275570688</v>
+        <v>16861385728</v>
       </c>
       <c r="D101" s="3">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3330,13 +3330,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>53.03</v>
+        <v>41.565</v>
       </c>
       <c r="C102" s="2">
-        <v>6982459904</v>
+        <v>5477310976</v>
       </c>
       <c r="D102" s="3">
-        <v>374</v>
+        <v>478</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3344,13 +3344,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>44.84</v>
+        <v>45.78</v>
       </c>
       <c r="C103" s="2">
-        <v>186930331648</v>
+        <v>188848439296</v>
       </c>
       <c r="D103" s="3">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3358,13 +3358,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>205.07</v>
+        <v>203.42</v>
       </c>
       <c r="C104" s="2">
-        <v>73767378944</v>
+        <v>73180135424</v>
       </c>
       <c r="D104" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3372,10 +3372,10 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>1890.61</v>
+        <v>1890.54</v>
       </c>
       <c r="C105" s="2">
-        <v>52161552384</v>
+        <v>52155461632</v>
       </c>
       <c r="D105" s="3">
         <v>10</v>
@@ -3386,13 +3386,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>236.51</v>
+        <v>230.48</v>
       </c>
       <c r="C106" s="2">
-        <v>33480826880</v>
+        <v>32646801408</v>
       </c>
       <c r="D106" s="3">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3400,13 +3400,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>57.73</v>
+        <v>56.87</v>
       </c>
       <c r="C107" s="2">
-        <v>16837301248</v>
+        <v>16590514176</v>
       </c>
       <c r="D107" s="3">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3414,13 +3414,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>65.8</v>
+        <v>69.77</v>
       </c>
       <c r="C108" s="2">
-        <v>36109004800</v>
+        <v>37778984960</v>
       </c>
       <c r="D108" s="3">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3428,13 +3428,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>29.03</v>
+        <v>28.66</v>
       </c>
       <c r="C109" s="2">
-        <v>18318772224</v>
+        <v>18089734144</v>
       </c>
       <c r="D109" s="3">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3442,13 +3442,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>113.38</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="C110" s="2">
-        <v>43243130880</v>
+        <v>38052552704</v>
       </c>
       <c r="D110" s="3">
-        <v>175</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3456,13 +3456,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>388.79</v>
+        <v>330.94</v>
       </c>
       <c r="C111" s="2">
-        <v>19248177152</v>
+        <v>16389506048</v>
       </c>
       <c r="D111" s="3">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3470,13 +3470,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>113.71</v>
+        <v>120.22</v>
       </c>
       <c r="C112" s="2">
-        <v>137595928576</v>
+        <v>143962259456</v>
       </c>
       <c r="D112" s="3">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3484,13 +3484,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>552.04</v>
+        <v>556.72</v>
       </c>
       <c r="C113" s="2">
-        <v>244635418624</v>
+        <v>246709338112</v>
       </c>
       <c r="D113" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3498,13 +3498,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>45.15</v>
+        <v>43.125</v>
       </c>
       <c r="C114" s="2">
-        <v>13458853888</v>
+        <v>12855217152</v>
       </c>
       <c r="D114" s="3">
-        <v>440</v>
+        <v>461</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3512,13 +3512,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>88.34999999999999</v>
+        <v>43.525</v>
       </c>
       <c r="C115" s="2">
-        <v>42181824512</v>
+        <v>41784000512</v>
       </c>
       <c r="D115" s="3">
-        <v>225</v>
+        <v>456</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3526,13 +3526,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>108.54</v>
+        <v>100.41</v>
       </c>
       <c r="C116" s="2">
-        <v>11587947520</v>
+        <v>10720876544</v>
       </c>
       <c r="D116" s="3">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3540,13 +3540,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>206.9</v>
+        <v>195.62</v>
       </c>
       <c r="C117" s="2">
-        <v>10589742080</v>
+        <v>10029711360</v>
       </c>
       <c r="D117" s="3">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3554,13 +3554,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>214.59</v>
+        <v>209.56</v>
       </c>
       <c r="C118" s="2">
-        <v>209010655232</v>
+        <v>203901878272</v>
       </c>
       <c r="D118" s="3">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3568,13 +3568,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>52.63</v>
+        <v>53.195</v>
       </c>
       <c r="C119" s="2">
-        <v>214470410240</v>
+        <v>215698276352</v>
       </c>
       <c r="D119" s="3">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3582,13 +3582,13 @@
         <v>122</v>
       </c>
       <c r="B120" s="2">
-        <v>81.41</v>
+        <v>78.77</v>
       </c>
       <c r="C120" s="2">
-        <v>33259161600</v>
+        <v>32164704256</v>
       </c>
       <c r="D120" s="3">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3596,13 +3596,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>31.52</v>
+        <v>31.305</v>
       </c>
       <c r="C121" s="2">
-        <v>63239520256</v>
+        <v>62808162304</v>
       </c>
       <c r="D121" s="3">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3610,13 +3610,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>490.09</v>
+        <v>508.76</v>
       </c>
       <c r="C122" s="2">
-        <v>49857835008</v>
+        <v>52105166848</v>
       </c>
       <c r="D122" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3624,13 +3624,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>45.74</v>
+        <v>46.87</v>
       </c>
       <c r="C123" s="2">
-        <v>8245641728</v>
+        <v>8449348608</v>
       </c>
       <c r="D123" s="3">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3638,13 +3638,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>27.57</v>
+        <v>26.375</v>
       </c>
       <c r="C124" s="2">
-        <v>20882978816</v>
+        <v>19914338304</v>
       </c>
       <c r="D124" s="3">
-        <v>721</v>
+        <v>753</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3652,13 +3652,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>71</v>
+        <v>69.87</v>
       </c>
       <c r="C125" s="2">
-        <v>36030865408</v>
+        <v>35287216128</v>
       </c>
       <c r="D125" s="3">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3666,13 +3666,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>56.02</v>
+        <v>51.395</v>
       </c>
       <c r="C126" s="2">
-        <v>39823106048</v>
+        <v>36478320640</v>
       </c>
       <c r="D126" s="3">
-        <v>354</v>
+        <v>386</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3680,13 +3680,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>72.89</v>
+        <v>72.185</v>
       </c>
       <c r="C127" s="2">
-        <v>93447159808</v>
+        <v>92714409984</v>
       </c>
       <c r="D127" s="3">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3694,13 +3694,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>159.31</v>
+        <v>166.58</v>
       </c>
       <c r="C128" s="2">
-        <v>297822060544</v>
+        <v>317768007680</v>
       </c>
       <c r="D128" s="3">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3708,13 +3708,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>55.45</v>
+        <v>48.27</v>
       </c>
       <c r="C129" s="2">
-        <v>11933062144</v>
+        <v>10392048640</v>
       </c>
       <c r="D129" s="3">
-        <v>358</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3722,13 +3722,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>49.21</v>
+        <v>47.7</v>
       </c>
       <c r="C130" s="2">
-        <v>41136656384</v>
+        <v>39914074112</v>
       </c>
       <c r="D130" s="3">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3736,13 +3736,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>44.59</v>
+        <v>38.555</v>
       </c>
       <c r="C131" s="2">
-        <v>28690008064</v>
+        <v>24806979584</v>
       </c>
       <c r="D131" s="3">
-        <v>445</v>
+        <v>515</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3750,13 +3750,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>77.03</v>
+        <v>73.27</v>
       </c>
       <c r="C132" s="2">
-        <v>35358076928</v>
+        <v>33635397632</v>
       </c>
       <c r="D132" s="3">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3764,13 +3764,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>424.04</v>
+        <v>390.19</v>
       </c>
       <c r="C133" s="2">
-        <v>124325134336</v>
+        <v>112375111680</v>
       </c>
       <c r="D133" s="3">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3778,13 +3778,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>102.36</v>
+        <v>88.3336</v>
       </c>
       <c r="C134" s="2">
-        <v>25589999616</v>
+        <v>22078808064</v>
       </c>
       <c r="D134" s="3">
-        <v>194</v>
+        <v>225</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3792,13 +3792,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>167.77</v>
+        <v>111.96</v>
       </c>
       <c r="C135" s="2">
-        <v>36798840832</v>
+        <v>24572532736</v>
       </c>
       <c r="D135" s="3">
-        <v>118</v>
+        <v>177</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3806,13 +3806,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>135.65</v>
+        <v>124.09</v>
       </c>
       <c r="C136" s="2">
-        <v>15194019840</v>
+        <v>13927240704</v>
       </c>
       <c r="D136" s="3">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3820,13 +3820,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="2">
-        <v>125.71</v>
+        <v>109.87</v>
       </c>
       <c r="C137" s="2">
-        <v>42518016000</v>
+        <v>37168693248</v>
       </c>
       <c r="D137" s="3">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3834,13 +3834,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>254.75</v>
+        <v>250.1</v>
       </c>
       <c r="C138" s="2">
-        <v>188095168512</v>
+        <v>184661835776</v>
       </c>
       <c r="D138" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3848,13 +3848,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>86.3</v>
+        <v>83.5025</v>
       </c>
       <c r="C139" s="2">
-        <v>157696000000</v>
+        <v>152791203840</v>
       </c>
       <c r="D139" s="3">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3862,13 +3862,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>119.96</v>
+        <v>124.94</v>
       </c>
       <c r="C140" s="2">
-        <v>34949988352</v>
+        <v>38630449152</v>
       </c>
       <c r="D140" s="3">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3876,13 +3876,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>150.21</v>
+        <v>106.93</v>
       </c>
       <c r="C141" s="2">
-        <v>33104031744</v>
+        <v>23525240832</v>
       </c>
       <c r="D141" s="3">
-        <v>132</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3890,10 +3890,10 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>142.27</v>
+        <v>142.47</v>
       </c>
       <c r="C142" s="2">
-        <v>19900588032</v>
+        <v>19927848960</v>
       </c>
       <c r="D142" s="3">
         <v>139</v>
@@ -3904,13 +3904,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>54.51</v>
+        <v>51.59</v>
       </c>
       <c r="C143" s="2">
-        <v>38555738112</v>
+        <v>36575813632</v>
       </c>
       <c r="D143" s="3">
-        <v>364</v>
+        <v>385</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3918,13 +3918,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>395.36</v>
+        <v>378.53</v>
       </c>
       <c r="C144" s="2">
-        <v>13874881536</v>
+        <v>13284245504</v>
       </c>
       <c r="D144" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3932,13 +3932,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="2">
-        <v>162.45</v>
+        <v>148.665</v>
       </c>
       <c r="C145" s="2">
-        <v>19667984384</v>
+        <v>17969584128</v>
       </c>
       <c r="D145" s="3">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3946,13 +3946,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>107.88</v>
+        <v>107.13</v>
       </c>
       <c r="C146" s="2">
-        <v>22235037696</v>
+        <v>22087634944</v>
       </c>
       <c r="D146" s="3">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3960,13 +3960,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>89.45999999999999</v>
+        <v>94.09</v>
       </c>
       <c r="C147" s="2">
-        <v>68942528512</v>
+        <v>72515911680</v>
       </c>
       <c r="D147" s="3">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3974,13 +3974,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>108.81</v>
+        <v>103.09</v>
       </c>
       <c r="C148" s="2">
-        <v>9934798848</v>
+        <v>9412116480</v>
       </c>
       <c r="D148" s="3">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3988,13 +3988,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>50.8</v>
+        <v>46.71</v>
       </c>
       <c r="C149" s="2">
-        <v>32598358016</v>
+        <v>29927098368</v>
       </c>
       <c r="D149" s="3">
-        <v>391</v>
+        <v>425</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4002,13 +4002,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>19.32</v>
+        <v>20.58</v>
       </c>
       <c r="C150" s="2">
-        <v>4071091200</v>
+        <v>4222480896</v>
       </c>
       <c r="D150" s="3">
-        <v>1029</v>
+        <v>966</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4016,13 +4016,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>120.33</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="C151" s="2">
-        <v>46644240384</v>
+        <v>34850299904</v>
       </c>
       <c r="D151" s="3">
-        <v>165</v>
+        <v>221</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4030,13 +4030,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>122.59</v>
+        <v>119.59</v>
       </c>
       <c r="C152" s="2">
-        <v>33358821376</v>
+        <v>32398364672</v>
       </c>
       <c r="D152" s="3">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4044,10 +4044,10 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>43.05</v>
+        <v>43.045</v>
       </c>
       <c r="C153" s="2">
-        <v>23020427264</v>
+        <v>22906697728</v>
       </c>
       <c r="D153" s="3">
         <v>461</v>
@@ -4058,13 +4058,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>182.53</v>
+        <v>173.44</v>
       </c>
       <c r="C154" s="2">
-        <v>51970121728</v>
+        <v>49436295168</v>
       </c>
       <c r="D154" s="3">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4072,13 +4072,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>89.31</v>
+        <v>91.64</v>
       </c>
       <c r="C155" s="2">
-        <v>30949486592</v>
+        <v>31608836096</v>
       </c>
       <c r="D155" s="3">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4086,13 +4086,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>197.71</v>
+        <v>187.29</v>
       </c>
       <c r="C156" s="2">
-        <v>24940128256</v>
+        <v>22984228864</v>
       </c>
       <c r="D156" s="3">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4100,13 +4100,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>355.3</v>
+        <v>391.83</v>
       </c>
       <c r="C157" s="2">
-        <v>15425420288</v>
+        <v>17006831616</v>
       </c>
       <c r="D157" s="3">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4114,13 +4114,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>69.23999999999999</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="C158" s="2">
-        <v>26517743616</v>
+        <v>26707576832</v>
       </c>
       <c r="D158" s="3">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4128,13 +4128,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>170.66</v>
+        <v>146.64</v>
       </c>
       <c r="C159" s="2">
-        <v>60996104192</v>
+        <v>52451807232</v>
       </c>
       <c r="D159" s="3">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4142,13 +4142,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>463.18</v>
+        <v>454.64</v>
       </c>
       <c r="C160" s="2">
-        <v>109147439104</v>
+        <v>107135008768</v>
       </c>
       <c r="D160" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4156,13 +4156,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>84.43000000000001</v>
+        <v>77.075</v>
       </c>
       <c r="C161" s="2">
-        <v>10060003328</v>
+        <v>9137702912</v>
       </c>
       <c r="D161" s="3">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4170,13 +4170,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>95.55</v>
+        <v>97.16</v>
       </c>
       <c r="C162" s="2">
-        <v>54606831616</v>
+        <v>55526944768</v>
       </c>
       <c r="D162" s="3">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4184,13 +4184,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>140</v>
+        <v>125.355</v>
       </c>
       <c r="C163" s="2">
-        <v>19186159616</v>
+        <v>17092782080</v>
       </c>
       <c r="D163" s="3">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4198,13 +4198,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>129.8</v>
+        <v>123.975</v>
       </c>
       <c r="C164" s="2">
-        <v>75914698752</v>
+        <v>72185806848</v>
       </c>
       <c r="D164" s="3">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4212,13 +4212,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>246.97</v>
+        <v>260.13</v>
       </c>
       <c r="C165" s="2">
-        <v>14300921856</v>
+        <v>15077343232</v>
       </c>
       <c r="D165" s="3">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4226,10 +4226,10 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>757.88</v>
+        <v>740.45</v>
       </c>
       <c r="C166" s="2">
-        <v>70879436800</v>
+        <v>69280129024</v>
       </c>
       <c r="D166" s="3">
         <v>26</v>
@@ -4240,13 +4240,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>65.40000000000001</v>
+        <v>61.73</v>
       </c>
       <c r="C167" s="2">
-        <v>24780386304</v>
+        <v>23397644288</v>
       </c>
       <c r="D167" s="3">
-        <v>303</v>
+        <v>322</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4254,13 +4254,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>41.8</v>
+        <v>39.39</v>
       </c>
       <c r="C168" s="2">
-        <v>15116677120</v>
+        <v>16199412736</v>
       </c>
       <c r="D168" s="3">
-        <v>475</v>
+        <v>504</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4268,13 +4268,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>67.23999999999999</v>
+        <v>64.56</v>
       </c>
       <c r="C169" s="2">
-        <v>23456135168</v>
+        <v>22536992768</v>
       </c>
       <c r="D169" s="3">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4282,13 +4282,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>243.92</v>
+        <v>221.45</v>
       </c>
       <c r="C170" s="2">
-        <v>16206654464</v>
+        <v>14713890816</v>
       </c>
       <c r="D170" s="3">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4296,13 +4296,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>215.9</v>
+        <v>211.7</v>
       </c>
       <c r="C171" s="2">
-        <v>86057738240</v>
+        <v>84468301824</v>
       </c>
       <c r="D171" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4310,13 +4310,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>97.64</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="C172" s="2">
-        <v>20645685248</v>
+        <v>20714229760</v>
       </c>
       <c r="D172" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4324,13 +4324,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>81.59</v>
+        <v>64.73</v>
       </c>
       <c r="C173" s="2">
-        <v>10064288768</v>
+        <v>7962696704</v>
       </c>
       <c r="D173" s="3">
-        <v>243</v>
+        <v>307</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4338,13 +4338,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>57.3</v>
+        <v>54.31</v>
       </c>
       <c r="C174" s="2">
-        <v>13160720384</v>
+        <v>12475115520</v>
       </c>
       <c r="D174" s="3">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4352,13 +4352,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>79.55</v>
+        <v>70.81</v>
       </c>
       <c r="C175" s="2">
-        <v>48841949184</v>
+        <v>43046531072</v>
       </c>
       <c r="D175" s="3">
-        <v>249</v>
+        <v>280</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4366,13 +4366,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>39.92</v>
+        <v>40.83</v>
       </c>
       <c r="C176" s="2">
-        <v>39703195648</v>
+        <v>40634793984</v>
       </c>
       <c r="D176" s="3">
-        <v>498</v>
+        <v>486</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4380,13 +4380,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>123.76</v>
+        <v>114.2</v>
       </c>
       <c r="C177" s="2">
-        <v>18909538304</v>
+        <v>16889836544</v>
       </c>
       <c r="D177" s="3">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4394,13 +4394,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>103.19</v>
+        <v>102.765</v>
       </c>
       <c r="C178" s="2">
-        <v>15285018624</v>
+        <v>14732903424</v>
       </c>
       <c r="D178" s="3">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4408,13 +4408,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="2">
-        <v>125.7</v>
+        <v>124.78</v>
       </c>
       <c r="C179" s="2">
-        <v>27455770624</v>
+        <v>27263307776</v>
       </c>
       <c r="D179" s="3">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4422,13 +4422,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>12.89</v>
+        <v>12.26</v>
       </c>
       <c r="C180" s="2">
-        <v>51569926144</v>
+        <v>49067339776</v>
       </c>
       <c r="D180" s="3">
-        <v>1542</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4436,13 +4436,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>148.57</v>
+        <v>152.785</v>
       </c>
       <c r="C181" s="2">
-        <v>26905137152</v>
+        <v>27320709120</v>
       </c>
       <c r="D181" s="3">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4450,13 +4450,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>56.08</v>
+        <v>54.34</v>
       </c>
       <c r="C182" s="2">
-        <v>32040355840</v>
+        <v>31046234112</v>
       </c>
       <c r="D182" s="3">
-        <v>354</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4464,13 +4464,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>42.51</v>
+        <v>37.725</v>
       </c>
       <c r="C183" s="2">
-        <v>60929155072</v>
+        <v>54265524224</v>
       </c>
       <c r="D183" s="3">
-        <v>467</v>
+        <v>526</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4478,13 +4478,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>422.09</v>
+        <v>429.695</v>
       </c>
       <c r="C184" s="2">
-        <v>16174277632</v>
+        <v>16391231488</v>
       </c>
       <c r="D184" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4492,10 +4492,10 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>263</v>
+        <v>262.9524</v>
       </c>
       <c r="C185" s="2">
-        <v>66062184448</v>
+        <v>66135154688</v>
       </c>
       <c r="D185" s="3">
         <v>75</v>
@@ -4506,10 +4506,10 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>36.3</v>
+        <v>36.34</v>
       </c>
       <c r="C186" s="2">
-        <v>20793982976</v>
+        <v>20835975168</v>
       </c>
       <c r="D186" s="3">
         <v>547</v>
@@ -4520,13 +4520,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>159.49</v>
+        <v>157.77</v>
       </c>
       <c r="C187" s="2">
-        <v>9644041216</v>
+        <v>9356771328</v>
       </c>
       <c r="D187" s="3">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4534,13 +4534,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>124.82</v>
+        <v>117.715</v>
       </c>
       <c r="C188" s="2">
-        <v>77052633088</v>
+        <v>71760822272</v>
       </c>
       <c r="D188" s="3">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4548,13 +4548,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>841.02</v>
+        <v>898.6799999999999</v>
       </c>
       <c r="C189" s="2">
-        <v>21019697152</v>
+        <v>22338668544</v>
       </c>
       <c r="D189" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4562,13 +4562,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>58.81</v>
+        <v>57.045</v>
       </c>
       <c r="C190" s="2">
-        <v>34841219072</v>
+        <v>33797167104</v>
       </c>
       <c r="D190" s="3">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4576,13 +4576,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>28.47</v>
+        <v>26.595</v>
       </c>
       <c r="C191" s="2">
-        <v>19383797760</v>
+        <v>18108243968</v>
       </c>
       <c r="D191" s="3">
-        <v>698</v>
+        <v>747</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4590,13 +4590,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>245.72</v>
+        <v>271.02</v>
       </c>
       <c r="C192" s="2">
-        <v>18142539776</v>
+        <v>20043933696</v>
       </c>
       <c r="D192" s="3">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4604,13 +4604,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>91.48999999999999</v>
+        <v>70.065</v>
       </c>
       <c r="C193" s="2">
-        <v>11449241600</v>
+        <v>8739487744</v>
       </c>
       <c r="D193" s="3">
-        <v>217</v>
+        <v>283</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4618,13 +4618,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>31.08</v>
+        <v>29.62</v>
       </c>
       <c r="C194" s="2">
-        <v>16215336960</v>
+        <v>15124950016</v>
       </c>
       <c r="D194" s="3">
-        <v>639</v>
+        <v>671</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4632,13 +4632,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>33.06</v>
+        <v>32.215</v>
       </c>
       <c r="C195" s="2">
-        <v>16218145792</v>
+        <v>15172073472</v>
       </c>
       <c r="D195" s="3">
-        <v>601</v>
+        <v>617</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4646,13 +4646,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>103.42</v>
+        <v>96.14</v>
       </c>
       <c r="C196" s="2">
-        <v>8496201216</v>
+        <v>7898891776</v>
       </c>
       <c r="D196" s="3">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4660,13 +4660,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>194.38</v>
+        <v>167.67</v>
       </c>
       <c r="C197" s="2">
-        <v>20764837888</v>
+        <v>17912352768</v>
       </c>
       <c r="D197" s="3">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4674,13 +4674,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>56.77</v>
+        <v>59.24</v>
       </c>
       <c r="C198" s="2">
-        <v>44575580160</v>
+        <v>46523367424</v>
       </c>
       <c r="D198" s="3">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4688,13 +4688,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>77.38</v>
+        <v>74.47</v>
       </c>
       <c r="C199" s="2">
-        <v>27239616512</v>
+        <v>26215227392</v>
       </c>
       <c r="D199" s="3">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4702,10 +4702,10 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>224.01</v>
+        <v>223.7275</v>
       </c>
       <c r="C200" s="2">
-        <v>61164363776</v>
+        <v>61087227904</v>
       </c>
       <c r="D200" s="3">
         <v>88</v>
@@ -4716,13 +4716,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>113.06</v>
+        <v>113.97</v>
       </c>
       <c r="C201" s="2">
-        <v>123052244992</v>
+        <v>124042674176</v>
       </c>
       <c r="D201" s="3">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4730,13 +4730,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>75.90000000000001</v>
+        <v>64.16</v>
       </c>
       <c r="C202" s="2">
-        <v>34522206208</v>
+        <v>29182408704</v>
       </c>
       <c r="D202" s="3">
-        <v>261</v>
+        <v>309</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4744,13 +4744,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>20.1</v>
+        <v>19.205</v>
       </c>
       <c r="C203" s="2">
-        <v>12879497216</v>
+        <v>12280425472</v>
       </c>
       <c r="D203" s="3">
-        <v>989</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4758,13 +4758,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>78.68000000000001</v>
+        <v>75.69</v>
       </c>
       <c r="C204" s="2">
-        <v>98141503488</v>
+        <v>94310498304</v>
       </c>
       <c r="D204" s="3">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4772,13 +4772,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>73.59</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="C205" s="2">
-        <v>43063611392</v>
+        <v>38526623744</v>
       </c>
       <c r="D205" s="3">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4786,13 +4786,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>113.58</v>
+        <v>110.145</v>
       </c>
       <c r="C206" s="2">
-        <v>10853113856</v>
+        <v>10443915264</v>
       </c>
       <c r="D206" s="3">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4800,13 +4800,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>33.1</v>
+        <v>31.17</v>
       </c>
       <c r="C207" s="2">
-        <v>27141998592</v>
+        <v>26587449344</v>
       </c>
       <c r="D207" s="3">
-        <v>600</v>
+        <v>637</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4814,13 +4814,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>36.57</v>
+        <v>33.13</v>
       </c>
       <c r="C208" s="2">
-        <v>50836684800</v>
+        <v>45583900672</v>
       </c>
       <c r="D208" s="3">
-        <v>543</v>
+        <v>600</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4828,13 +4828,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>113.95</v>
+        <v>110.54</v>
       </c>
       <c r="C209" s="2">
-        <v>7086926336</v>
+        <v>6880296960</v>
       </c>
       <c r="D209" s="3">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4842,13 +4842,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>128.54</v>
+        <v>132.91</v>
       </c>
       <c r="C210" s="2">
-        <v>1629655793664</v>
+        <v>1670718685184</v>
       </c>
       <c r="D210" s="3">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4856,13 +4856,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>128.11</v>
+        <v>131.93</v>
       </c>
       <c r="C211" s="2">
-        <v>1628700803072</v>
+        <v>1667885301760</v>
       </c>
       <c r="D211" s="3">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4870,13 +4870,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>155.5</v>
+        <v>147.04</v>
       </c>
       <c r="C212" s="2">
-        <v>21838108672</v>
+        <v>20650002432</v>
       </c>
       <c r="D212" s="3">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4884,13 +4884,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>122.65</v>
+        <v>120.41</v>
       </c>
       <c r="C213" s="2">
-        <v>32128534528</v>
+        <v>31305877504</v>
       </c>
       <c r="D213" s="3">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4898,13 +4898,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>106.13</v>
+        <v>105.48</v>
       </c>
       <c r="C214" s="2">
-        <v>20301606912</v>
+        <v>20194357248</v>
       </c>
       <c r="D214" s="3">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4912,13 +4912,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>353.22</v>
+        <v>332.4</v>
       </c>
       <c r="C215" s="2">
-        <v>117427281920</v>
+        <v>111271895040</v>
       </c>
       <c r="D215" s="3">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4926,10 +4926,10 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>708.27</v>
+        <v>687.59</v>
       </c>
       <c r="C216" s="2">
-        <v>35531780096</v>
+        <v>34380120064</v>
       </c>
       <c r="D216" s="3">
         <v>28</v>
@@ -4940,13 +4940,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>39.55</v>
+        <v>41.075</v>
       </c>
       <c r="C217" s="2">
-        <v>35681812480</v>
+        <v>36907778048</v>
       </c>
       <c r="D217" s="3">
-        <v>502</v>
+        <v>484</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4954,13 +4954,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>63.75</v>
+        <v>66.721</v>
       </c>
       <c r="C218" s="2">
-        <v>8836323328</v>
+        <v>9256937472</v>
       </c>
       <c r="D218" s="3">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4968,13 +4968,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>12.19</v>
+        <v>10.4688</v>
       </c>
       <c r="C219" s="2">
-        <v>17649655808</v>
+        <v>15157564416</v>
       </c>
       <c r="D219" s="3">
-        <v>1630</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4982,13 +4982,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>268.69</v>
+        <v>254.86</v>
       </c>
       <c r="C220" s="2">
-        <v>73913663488</v>
+        <v>69318860800</v>
       </c>
       <c r="D220" s="3">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4996,13 +4996,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>326.43</v>
+        <v>308.665</v>
       </c>
       <c r="C221" s="2">
-        <v>328186167296</v>
+        <v>308686618624</v>
       </c>
       <c r="D221" s="3">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5010,13 +5010,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>152.94</v>
+        <v>152.66</v>
       </c>
       <c r="C222" s="2">
-        <v>46960533504</v>
+        <v>46875930624</v>
       </c>
       <c r="D222" s="3">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5024,13 +5024,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>72.52</v>
+        <v>73.06</v>
       </c>
       <c r="C223" s="2">
-        <v>22498242560</v>
+        <v>22342987776</v>
       </c>
       <c r="D223" s="3">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5038,13 +5038,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>226.84</v>
+        <v>201.86</v>
       </c>
       <c r="C224" s="2">
-        <v>9048806400</v>
+        <v>8047673856</v>
       </c>
       <c r="D224" s="3">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5052,13 +5052,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>151.35</v>
+        <v>149.565</v>
       </c>
       <c r="C225" s="2">
-        <v>40051298304</v>
+        <v>39113342976</v>
       </c>
       <c r="D225" s="3">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5066,13 +5066,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>75.93000000000001</v>
+        <v>70.62</v>
       </c>
       <c r="C226" s="2">
-        <v>18720845824</v>
+        <v>17297805312</v>
       </c>
       <c r="D226" s="3">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5080,13 +5080,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>189.21</v>
+        <v>193.34</v>
       </c>
       <c r="C227" s="2">
-        <v>125952745472</v>
+        <v>128370221056</v>
       </c>
       <c r="D227" s="3">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5094,13 +5094,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>17.37</v>
+        <v>17.025</v>
       </c>
       <c r="C228" s="2">
-        <v>22433703936</v>
+        <v>21840691200</v>
       </c>
       <c r="D228" s="3">
-        <v>1144</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5108,13 +5108,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>32.43</v>
+        <v>27.065</v>
       </c>
       <c r="C229" s="2">
-        <v>31974551552</v>
+        <v>26747500544</v>
       </c>
       <c r="D229" s="3">
-        <v>613</v>
+        <v>734</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5122,13 +5122,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>40.54</v>
+        <v>39.42</v>
       </c>
       <c r="C230" s="2">
-        <v>22145705984</v>
+        <v>21542281216</v>
       </c>
       <c r="D230" s="3">
-        <v>490</v>
+        <v>504</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5136,13 +5136,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>78.09</v>
+        <v>74.04000000000001</v>
       </c>
       <c r="C231" s="2">
-        <v>10230024192</v>
+        <v>9668513792</v>
       </c>
       <c r="D231" s="3">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5150,13 +5150,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>16.59</v>
+        <v>16.005</v>
       </c>
       <c r="C232" s="2">
-        <v>11799488512</v>
+        <v>11549447168</v>
       </c>
       <c r="D232" s="3">
-        <v>1198</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5164,13 +5164,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>228.23</v>
+        <v>209.9</v>
       </c>
       <c r="C233" s="2">
-        <v>46649982976</v>
+        <v>42917830656</v>
       </c>
       <c r="D233" s="3">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5178,13 +5178,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>484.28</v>
+        <v>496.835</v>
       </c>
       <c r="C234" s="2">
-        <v>60508364800</v>
+        <v>61561331712</v>
       </c>
       <c r="D234" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5192,13 +5192,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>49.05</v>
+        <v>46.74</v>
       </c>
       <c r="C235" s="2">
-        <v>20271923200</v>
+        <v>19266603008</v>
       </c>
       <c r="D235" s="3">
-        <v>405</v>
+        <v>425</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5206,13 +5206,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>144.24</v>
+        <v>148.59</v>
       </c>
       <c r="C236" s="2">
-        <v>131403513856</v>
+        <v>135366377472</v>
       </c>
       <c r="D236" s="3">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5220,13 +5220,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>114</v>
+        <v>112.8041</v>
       </c>
       <c r="C237" s="2">
-        <v>63824838656</v>
+        <v>64433815552</v>
       </c>
       <c r="D237" s="3">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5234,13 +5234,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>504.08</v>
+        <v>442.84</v>
       </c>
       <c r="C238" s="2">
-        <v>41841106944</v>
+        <v>36761210880</v>
       </c>
       <c r="D238" s="3">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5248,13 +5248,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>220.89</v>
+        <v>208.97</v>
       </c>
       <c r="C239" s="2">
-        <v>16694071296</v>
+        <v>15798486016</v>
       </c>
       <c r="D239" s="3">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5262,13 +5262,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>80.5</v>
+        <v>69.02</v>
       </c>
       <c r="C240" s="2">
-        <v>20534827008</v>
+        <v>17617561600</v>
       </c>
       <c r="D240" s="3">
-        <v>246</v>
+        <v>288</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5276,13 +5276,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>187.67</v>
+        <v>134.965</v>
       </c>
       <c r="C241" s="2">
-        <v>29670627328</v>
+        <v>21364959232</v>
       </c>
       <c r="D241" s="3">
-        <v>105</v>
+        <v>147</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5290,13 +5290,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>63.63</v>
+        <v>58.95</v>
       </c>
       <c r="C242" s="2">
-        <v>14195089408</v>
+        <v>13209988096</v>
       </c>
       <c r="D242" s="3">
-        <v>312</v>
+        <v>337</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5304,13 +5304,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>35.14</v>
+        <v>35.035</v>
       </c>
       <c r="C243" s="2">
-        <v>147123437568</v>
+        <v>146726584320</v>
       </c>
       <c r="D243" s="3">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>496.98</v>
+        <v>512.61</v>
       </c>
       <c r="C244" s="2">
-        <v>139184226304</v>
+        <v>143663562752</v>
       </c>
       <c r="D244" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5332,13 +5332,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>34.76</v>
+        <v>33.52</v>
       </c>
       <c r="C245" s="2">
-        <v>21358524416</v>
+        <v>20597872640</v>
       </c>
       <c r="D245" s="3">
-        <v>571</v>
+        <v>593</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5346,13 +5346,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>36.26</v>
+        <v>34.35</v>
       </c>
       <c r="C246" s="2">
-        <v>12584286208</v>
+        <v>11885065216</v>
       </c>
       <c r="D246" s="3">
-        <v>548</v>
+        <v>578</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5360,13 +5360,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>33.93</v>
+        <v>29.565</v>
       </c>
       <c r="C247" s="2">
-        <v>13098099712</v>
+        <v>11380603904</v>
       </c>
       <c r="D247" s="3">
-        <v>585</v>
+        <v>672</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5374,13 +5374,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>216.93</v>
+        <v>198.06</v>
       </c>
       <c r="C248" s="2">
-        <v>40251142144</v>
+        <v>36269142016</v>
       </c>
       <c r="D248" s="3">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5388,13 +5388,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>66.91</v>
+        <v>64.235</v>
       </c>
       <c r="C249" s="2">
-        <v>27066368000</v>
+        <v>25976569856</v>
       </c>
       <c r="D249" s="3">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5402,13 +5402,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>60.92</v>
+        <v>62.1</v>
       </c>
       <c r="C250" s="2">
-        <v>17765672960</v>
+        <v>18124009472</v>
       </c>
       <c r="D250" s="3">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5416,13 +5416,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>309.31</v>
+        <v>286.595</v>
       </c>
       <c r="C251" s="2">
-        <v>108677619712</v>
+        <v>100696588288</v>
       </c>
       <c r="D251" s="3">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5430,13 +5430,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>336.83</v>
+        <v>353.58</v>
       </c>
       <c r="C252" s="2">
-        <v>26629980160</v>
+        <v>27871012864</v>
       </c>
       <c r="D252" s="3">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5444,13 +5444,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>246.64</v>
+        <v>232.94</v>
       </c>
       <c r="C253" s="2">
-        <v>74954637312</v>
+        <v>70438731776</v>
       </c>
       <c r="D253" s="3">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5458,13 +5458,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>16.65</v>
+        <v>14.775</v>
       </c>
       <c r="C254" s="2">
-        <v>7754204672</v>
+        <v>6628375040</v>
       </c>
       <c r="D254" s="3">
-        <v>1194</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5472,13 +5472,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>127.23</v>
+        <v>132.22</v>
       </c>
       <c r="C255" s="2">
-        <v>16139125760</v>
+        <v>16648878080</v>
       </c>
       <c r="D255" s="3">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5486,13 +5486,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>206.5</v>
+        <v>191.52</v>
       </c>
       <c r="C256" s="2">
-        <v>21340741632</v>
+        <v>19792633856</v>
       </c>
       <c r="D256" s="3">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5500,13 +5500,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>62.76</v>
+        <v>55.715</v>
       </c>
       <c r="C257" s="2">
-        <v>43059572736</v>
+        <v>37904027648</v>
       </c>
       <c r="D257" s="3">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5514,13 +5514,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>169.04</v>
+        <v>149.63</v>
       </c>
       <c r="C258" s="2">
-        <v>12318839808</v>
+        <v>10913280000</v>
       </c>
       <c r="D258" s="3">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5528,13 +5528,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>169.04</v>
+        <v>162.27</v>
       </c>
       <c r="C259" s="2">
-        <v>439289315328</v>
+        <v>390747783168</v>
       </c>
       <c r="D259" s="3">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5542,13 +5542,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>28.24</v>
+        <v>27.895</v>
       </c>
       <c r="C260" s="2">
-        <v>9081757696</v>
+        <v>8964337664</v>
       </c>
       <c r="D260" s="3">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5556,13 +5556,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>156.02</v>
+        <v>147.5775</v>
       </c>
       <c r="C261" s="2">
-        <v>453409734656</v>
+        <v>430694596608</v>
       </c>
       <c r="D261" s="3">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5570,13 +5570,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>64.8</v>
+        <v>60.965</v>
       </c>
       <c r="C262" s="2">
-        <v>22210719744</v>
+        <v>20871184384</v>
       </c>
       <c r="D262" s="3">
-        <v>306</v>
+        <v>326</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5584,10 +5584,10 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>33.6</v>
+        <v>33.61</v>
       </c>
       <c r="C263" s="2">
-        <v>47167004672</v>
+        <v>46961909760</v>
       </c>
       <c r="D263" s="3">
         <v>591</v>
@@ -5598,13 +5598,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>11.92</v>
+        <v>10.835</v>
       </c>
       <c r="C264" s="2">
-        <v>11153937408</v>
+        <v>10140682240</v>
       </c>
       <c r="D264" s="3">
-        <v>1667</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5612,13 +5612,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>158.71</v>
+        <v>130.655</v>
       </c>
       <c r="C265" s="2">
-        <v>28308787200</v>
+        <v>23201062912</v>
       </c>
       <c r="D265" s="3">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5626,13 +5626,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>35.28</v>
+        <v>34.44</v>
       </c>
       <c r="C266" s="2">
-        <v>43297021952</v>
+        <v>42302308352</v>
       </c>
       <c r="D266" s="3">
-        <v>563</v>
+        <v>577</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5640,13 +5640,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>20</v>
+        <v>18.295</v>
       </c>
       <c r="C267" s="2">
-        <v>12397839360</v>
+        <v>11340613632</v>
       </c>
       <c r="D267" s="3">
-        <v>994</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5654,13 +5654,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>496.47</v>
+        <v>446.64</v>
       </c>
       <c r="C268" s="2">
-        <v>68115189760</v>
+        <v>61064622080</v>
       </c>
       <c r="D268" s="3">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5668,13 +5668,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>127.77</v>
+        <v>125.86</v>
       </c>
       <c r="C269" s="2">
-        <v>43209895936</v>
+        <v>42563964928</v>
       </c>
       <c r="D269" s="3">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5682,13 +5682,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>17.36</v>
+        <v>16.735</v>
       </c>
       <c r="C270" s="2">
-        <v>38681030656</v>
+        <v>37288427520</v>
       </c>
       <c r="D270" s="3">
-        <v>1145</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5696,13 +5696,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>83.29000000000001</v>
+        <v>80.18000000000001</v>
       </c>
       <c r="C271" s="2">
-        <v>13177311232</v>
+        <v>12685278208</v>
       </c>
       <c r="D271" s="3">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5710,13 +5710,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>60.71</v>
+        <v>57.685</v>
       </c>
       <c r="C272" s="2">
-        <v>262545244160</v>
+        <v>249449578496</v>
       </c>
       <c r="D272" s="3">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5724,13 +5724,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>49.49</v>
+        <v>45.635</v>
       </c>
       <c r="C273" s="2">
-        <v>35521249280</v>
+        <v>32825982976</v>
       </c>
       <c r="D273" s="3">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5738,13 +5738,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>62.92</v>
+        <v>64.485</v>
       </c>
       <c r="C274" s="2">
-        <v>14339341312</v>
+        <v>14541947904</v>
       </c>
       <c r="D274" s="3">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5752,13 +5752,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>97.09999999999999</v>
+        <v>93.15000000000001</v>
       </c>
       <c r="C275" s="2">
-        <v>13321439232</v>
+        <v>12794246144</v>
       </c>
       <c r="D275" s="3">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5766,13 +5766,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="2">
-        <v>125.57</v>
+        <v>114.26</v>
       </c>
       <c r="C276" s="2">
-        <v>35690762240</v>
+        <v>32446754816</v>
       </c>
       <c r="D276" s="3">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5780,13 +5780,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>215.23</v>
+        <v>206.73</v>
       </c>
       <c r="C277" s="2">
-        <v>19069378560</v>
+        <v>18316277760</v>
       </c>
       <c r="D277" s="3">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5794,13 +5794,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>186.45</v>
+        <v>174.7116</v>
       </c>
       <c r="C278" s="2">
-        <v>35323510784</v>
+        <v>33043726336</v>
       </c>
       <c r="D278" s="3">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5808,13 +5808,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>377.82</v>
+        <v>374.14</v>
       </c>
       <c r="C279" s="2">
-        <v>184979537920</v>
+        <v>182560112640</v>
       </c>
       <c r="D279" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5822,13 +5822,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>54.28</v>
+        <v>49.98</v>
       </c>
       <c r="C280" s="2">
-        <v>14508500992</v>
+        <v>13372448768</v>
       </c>
       <c r="D280" s="3">
-        <v>366</v>
+        <v>397</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5836,13 +5836,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>449.49</v>
+        <v>551.1194</v>
       </c>
       <c r="C281" s="2">
-        <v>426688708608</v>
+        <v>523174871040</v>
       </c>
       <c r="D281" s="3">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5850,13 +5850,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>445.72</v>
+        <v>421.18</v>
       </c>
       <c r="C282" s="2">
-        <v>112246120448</v>
+        <v>106066182144</v>
       </c>
       <c r="D282" s="3">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5864,13 +5864,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>26.92</v>
+        <v>25.3225</v>
       </c>
       <c r="C283" s="2">
-        <v>4564528640</v>
+        <v>4295658496</v>
       </c>
       <c r="D283" s="3">
-        <v>738</v>
+        <v>785</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5878,13 +5878,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>51.3</v>
+        <v>51.63</v>
       </c>
       <c r="C284" s="2">
-        <v>12896203776</v>
+        <v>13047882752</v>
       </c>
       <c r="D284" s="3">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5892,13 +5892,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>223.12</v>
+        <v>211.9</v>
       </c>
       <c r="C285" s="2">
-        <v>130744074240</v>
+        <v>122290667520</v>
       </c>
       <c r="D285" s="3">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5906,13 +5906,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>690.46</v>
+        <v>613.58</v>
       </c>
       <c r="C286" s="2">
-        <v>92756402176</v>
+        <v>81306714112</v>
       </c>
       <c r="D286" s="3">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5920,13 +5920,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>32.73</v>
+        <v>28.605</v>
       </c>
       <c r="C287" s="2">
-        <v>19476740096</v>
+        <v>17038109696</v>
       </c>
       <c r="D287" s="3">
-        <v>607</v>
+        <v>695</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5934,13 +5934,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>57.94</v>
+        <v>46.235</v>
       </c>
       <c r="C288" s="2">
-        <v>44292055040</v>
+        <v>35344207872</v>
       </c>
       <c r="D288" s="3">
-        <v>343</v>
+        <v>429</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5948,13 +5948,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>101.94</v>
+        <v>96.8404</v>
       </c>
       <c r="C289" s="2">
-        <v>14853065728</v>
+        <v>14119136256</v>
       </c>
       <c r="D289" s="3">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5962,10 +5962,10 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>95.70999999999999</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="C290" s="2">
-        <v>31461120000</v>
+        <v>31119669248</v>
       </c>
       <c r="D290" s="3">
         <v>207</v>
@@ -5976,13 +5976,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>87.73</v>
+        <v>81.06</v>
       </c>
       <c r="C291" s="2">
-        <v>20882812928</v>
+        <v>18656040960</v>
       </c>
       <c r="D291" s="3">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5990,13 +5990,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>391.35</v>
+        <v>404.705</v>
       </c>
       <c r="C292" s="2">
-        <v>370854625280</v>
+        <v>381317873664</v>
       </c>
       <c r="D292" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6004,13 +6004,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>145.21</v>
+        <v>133.449</v>
       </c>
       <c r="C293" s="2">
-        <v>17399789568</v>
+        <v>15991460864</v>
       </c>
       <c r="D293" s="3">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6018,13 +6018,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>202.98</v>
+        <v>196.81</v>
       </c>
       <c r="C294" s="2">
-        <v>61574791168</v>
+        <v>58696613888</v>
       </c>
       <c r="D294" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6032,13 +6032,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>59.38</v>
+        <v>54.13</v>
       </c>
       <c r="C295" s="2">
-        <v>13365784576</v>
+        <v>12175244288</v>
       </c>
       <c r="D295" s="3">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6046,13 +6046,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>287.02</v>
+        <v>273.795</v>
       </c>
       <c r="C296" s="2">
-        <v>209551572992</v>
+        <v>199531675648</v>
       </c>
       <c r="D296" s="3">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6060,13 +6060,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>83.45999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C297" s="2">
-        <v>45430116352</v>
+        <v>41859284992</v>
       </c>
       <c r="D297" s="3">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6074,13 +6074,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>421.77</v>
+        <v>440.85</v>
       </c>
       <c r="C298" s="2">
-        <v>57155313664</v>
+        <v>59471548416</v>
       </c>
       <c r="D298" s="3">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6088,13 +6088,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>340.05</v>
+        <v>326.51</v>
       </c>
       <c r="C299" s="2">
-        <v>62399172608</v>
+        <v>59900874752</v>
       </c>
       <c r="D299" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6102,13 +6102,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>73.92</v>
+        <v>71.34</v>
       </c>
       <c r="C300" s="2">
-        <v>100667949056</v>
+        <v>97052352512</v>
       </c>
       <c r="D300" s="3">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6116,13 +6116,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>84.04000000000001</v>
+        <v>81.0899</v>
       </c>
       <c r="C301" s="2">
-        <v>111807660032</v>
+        <v>109415407616</v>
       </c>
       <c r="D301" s="3">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6130,13 +6130,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>63.53</v>
+        <v>65.035</v>
       </c>
       <c r="C302" s="2">
-        <v>48652607488</v>
+        <v>48907755520</v>
       </c>
       <c r="D302" s="3">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6144,13 +6144,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>310.73</v>
+        <v>299.895</v>
       </c>
       <c r="C303" s="2">
-        <v>796317122560</v>
+        <v>771677749248</v>
       </c>
       <c r="D303" s="3">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6158,13 +6158,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>44.99</v>
+        <v>37.93</v>
       </c>
       <c r="C304" s="2">
-        <v>16367318016</v>
+        <v>13309219840</v>
       </c>
       <c r="D304" s="3">
-        <v>441</v>
+        <v>524</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6172,13 +6172,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>105.29</v>
+        <v>90.02500000000001</v>
       </c>
       <c r="C305" s="2">
-        <v>6704825344</v>
+        <v>5732989952</v>
       </c>
       <c r="D305" s="3">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6186,13 +6186,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>87.34</v>
+        <v>78.06999999999999</v>
       </c>
       <c r="C306" s="2">
-        <v>23392970752</v>
+        <v>20952115200</v>
       </c>
       <c r="D306" s="3">
-        <v>227</v>
+        <v>254</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6200,13 +6200,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>242.85</v>
+        <v>216.8452</v>
       </c>
       <c r="C307" s="2">
-        <v>9148013568</v>
+        <v>8170163200</v>
       </c>
       <c r="D307" s="3">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6214,13 +6214,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>455.85</v>
+        <v>408.86</v>
       </c>
       <c r="C308" s="2">
-        <v>28248477696</v>
+        <v>25269264384</v>
       </c>
       <c r="D308" s="3">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6228,13 +6228,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>189.59</v>
+        <v>195.88</v>
       </c>
       <c r="C309" s="2">
-        <v>93648732160</v>
+        <v>96755712000</v>
       </c>
       <c r="D309" s="3">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6242,13 +6242,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>105.51</v>
+        <v>98.259</v>
       </c>
       <c r="C310" s="2">
-        <v>58206912512</v>
+        <v>54238183424</v>
       </c>
       <c r="D310" s="3">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6256,13 +6256,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>55.11</v>
+        <v>54.885</v>
       </c>
       <c r="C311" s="2">
-        <v>57684189184</v>
+        <v>57493135360</v>
       </c>
       <c r="D311" s="3">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6270,13 +6270,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>44</v>
+        <v>42.995</v>
       </c>
       <c r="C312" s="2">
-        <v>78541758464</v>
+        <v>76334612480</v>
       </c>
       <c r="D312" s="3">
-        <v>451</v>
+        <v>462</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6284,13 +6284,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>302.96</v>
+        <v>336.505</v>
       </c>
       <c r="C313" s="2">
-        <v>17662568448</v>
+        <v>19618242560</v>
       </c>
       <c r="D313" s="3">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6298,13 +6298,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>41.24</v>
+        <v>37.52</v>
       </c>
       <c r="C314" s="2">
-        <v>13696175104</v>
+        <v>12467145728</v>
       </c>
       <c r="D314" s="3">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6312,13 +6312,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>137.95</v>
+        <v>155.64</v>
       </c>
       <c r="C315" s="2">
-        <v>59318497280</v>
+        <v>62231719936</v>
       </c>
       <c r="D315" s="3">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6326,13 +6326,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>537.04</v>
+        <v>444.85</v>
       </c>
       <c r="C316" s="2">
-        <v>25468047360</v>
+        <v>21254043648</v>
       </c>
       <c r="D316" s="3">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6340,13 +6340,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>105</v>
+        <v>107.715</v>
       </c>
       <c r="C317" s="2">
-        <v>266431201280</v>
+        <v>273328963584</v>
       </c>
       <c r="D317" s="3">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6354,13 +6354,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>108.19</v>
+        <v>100.68</v>
       </c>
       <c r="C318" s="2">
-        <v>41243000832</v>
+        <v>38318104576</v>
       </c>
       <c r="D318" s="3">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6368,13 +6368,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>26.18</v>
+        <v>26.088</v>
       </c>
       <c r="C319" s="2">
-        <v>16168871936</v>
+        <v>15801161728</v>
       </c>
       <c r="D319" s="3">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6382,13 +6382,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>88.79000000000001</v>
+        <v>85.535</v>
       </c>
       <c r="C320" s="2">
-        <v>147302612992</v>
+        <v>141728940032</v>
       </c>
       <c r="D320" s="3">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6396,13 +6396,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>542.26</v>
+        <v>520.83</v>
       </c>
       <c r="C321" s="2">
-        <v>43415179264</v>
+        <v>41191718912</v>
       </c>
       <c r="D321" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6410,13 +6410,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>327.78</v>
+        <v>321.875</v>
       </c>
       <c r="C322" s="2">
-        <v>2437204934656</v>
+        <v>2391453990912</v>
       </c>
       <c r="D322" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6424,13 +6424,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>278.85</v>
+        <v>280.73</v>
       </c>
       <c r="C323" s="2">
-        <v>46767882240</v>
+        <v>46887526400</v>
       </c>
       <c r="D323" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6438,13 +6438,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>139.87</v>
+        <v>126.56</v>
       </c>
       <c r="C324" s="2">
-        <v>23203592192</v>
+        <v>21002504192</v>
       </c>
       <c r="D324" s="3">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6452,13 +6452,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>43.83</v>
+        <v>41.2</v>
       </c>
       <c r="C325" s="2">
-        <v>12204945408</v>
+        <v>11457184768</v>
       </c>
       <c r="D325" s="3">
-        <v>453</v>
+        <v>482</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6466,13 +6466,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>1271.49</v>
+        <v>1108.98</v>
       </c>
       <c r="C326" s="2">
-        <v>27998464000</v>
+        <v>24247625728</v>
       </c>
       <c r="D326" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6480,13 +6480,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>69.91</v>
+        <v>68.89</v>
       </c>
       <c r="C327" s="2">
-        <v>76572426240</v>
+        <v>75455217664</v>
       </c>
       <c r="D327" s="3">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6494,13 +6494,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>17.95</v>
+        <v>17.03</v>
       </c>
       <c r="C328" s="2">
-        <v>7613762048</v>
+        <v>7244971008</v>
       </c>
       <c r="D328" s="3">
-        <v>1107</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6508,13 +6508,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>49.45</v>
+        <v>49.2</v>
       </c>
       <c r="C329" s="2">
-        <v>24268328960</v>
+        <v>24172746752</v>
       </c>
       <c r="D329" s="3">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6522,13 +6522,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>246.42</v>
+        <v>224.61</v>
       </c>
       <c r="C330" s="2">
-        <v>14043746304</v>
+        <v>12806027264</v>
       </c>
       <c r="D330" s="3">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6536,13 +6536,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>69.17</v>
+        <v>67.53</v>
       </c>
       <c r="C331" s="2">
-        <v>139959959552</v>
+        <v>136661131264</v>
       </c>
       <c r="D331" s="3">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6550,13 +6550,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>40.87</v>
+        <v>40.665</v>
       </c>
       <c r="C332" s="2">
-        <v>32480696320</v>
+        <v>32288010240</v>
       </c>
       <c r="D332" s="3">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6564,13 +6564,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>431.6</v>
+        <v>387.15</v>
       </c>
       <c r="C333" s="2">
-        <v>191863898112</v>
+        <v>175961227264</v>
       </c>
       <c r="D333" s="3">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6578,13 +6578,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>26.51</v>
+        <v>27.529</v>
       </c>
       <c r="C334" s="2">
-        <v>10950300672</v>
+        <v>11376496640</v>
       </c>
       <c r="D334" s="3">
-        <v>749</v>
+        <v>722</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6592,13 +6592,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>108.81</v>
+        <v>92.47499999999999</v>
       </c>
       <c r="C335" s="2">
-        <v>167239876608</v>
+        <v>141483982848</v>
       </c>
       <c r="D335" s="3">
-        <v>182</v>
+        <v>214</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6606,10 +6606,10 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>438.54</v>
+        <v>438.39</v>
       </c>
       <c r="C336" s="2">
-        <v>66596249600</v>
+        <v>66328408064</v>
       </c>
       <c r="D336" s="3">
         <v>45</v>
@@ -6620,13 +6620,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>551.63</v>
+        <v>555.05</v>
       </c>
       <c r="C337" s="2">
-        <v>112389095424</v>
+        <v>113583210496</v>
       </c>
       <c r="D337" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6634,13 +6634,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>37.52</v>
+        <v>38.515</v>
       </c>
       <c r="C338" s="2">
-        <v>8638304256</v>
+        <v>8824440832</v>
       </c>
       <c r="D338" s="3">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6648,13 +6648,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>224.64</v>
+        <v>203</v>
       </c>
       <c r="C339" s="2">
-        <v>51137048576</v>
+        <v>46084046848</v>
       </c>
       <c r="D339" s="3">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6662,13 +6662,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>77.78</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="C340" s="2">
-        <v>16522883072</v>
+        <v>15905698816</v>
       </c>
       <c r="D340" s="3">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6676,13 +6676,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>80.25</v>
+        <v>69.53</v>
       </c>
       <c r="C341" s="2">
-        <v>16612071424</v>
+        <v>14392987648</v>
       </c>
       <c r="D341" s="3">
-        <v>247</v>
+        <v>285</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6690,13 +6690,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>167.76</v>
+        <v>152.57</v>
       </c>
       <c r="C342" s="2">
-        <v>42145169408</v>
+        <v>37947518976</v>
       </c>
       <c r="D342" s="3">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6704,13 +6704,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>446.8</v>
+        <v>415.4101</v>
       </c>
       <c r="C343" s="2">
-        <v>1103595962368</v>
+        <v>1026063007744</v>
       </c>
       <c r="D343" s="3">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6718,10 +6718,10 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>6320.97</v>
+        <v>5949.7</v>
       </c>
       <c r="C344" s="2">
-        <v>20609775616</v>
+        <v>19421784064</v>
       </c>
       <c r="D344" s="3">
         <v>3</v>
@@ -6732,13 +6732,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>10.91</v>
+        <v>9.125</v>
       </c>
       <c r="C345" s="2">
-        <v>4517831168</v>
+        <v>3779575040</v>
       </c>
       <c r="D345" s="3">
-        <v>1822</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6746,13 +6746,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>20.3</v>
+        <v>20.865</v>
       </c>
       <c r="C346" s="2">
-        <v>11498164224</v>
+        <v>11626457088</v>
       </c>
       <c r="D346" s="3">
-        <v>979</v>
+        <v>952</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6760,13 +6760,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>19.88</v>
+        <v>20.155</v>
       </c>
       <c r="C347" s="2">
-        <v>11418614784</v>
+        <v>11647634432</v>
       </c>
       <c r="D347" s="3">
-        <v>1000</v>
+        <v>986</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6774,13 +6774,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>213.7</v>
+        <v>195.245</v>
       </c>
       <c r="C348" s="2">
-        <v>55092285440</v>
+        <v>50334552064</v>
       </c>
       <c r="D348" s="3">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6788,13 +6788,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>59.22</v>
+        <v>52.7884</v>
       </c>
       <c r="C349" s="2">
-        <v>39868207104</v>
+        <v>37415780352</v>
       </c>
       <c r="D349" s="3">
-        <v>335</v>
+        <v>376</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6802,13 +6802,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>407.11</v>
+        <v>401</v>
       </c>
       <c r="C350" s="2">
-        <v>44640423936</v>
+        <v>43816468480</v>
       </c>
       <c r="D350" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6816,13 +6816,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>21.53</v>
+        <v>18.67</v>
       </c>
       <c r="C351" s="2">
-        <v>5491485184</v>
+        <v>4771454464</v>
       </c>
       <c r="D351" s="3">
-        <v>923</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6830,13 +6830,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>65.25</v>
+        <v>66.7</v>
       </c>
       <c r="C352" s="2">
-        <v>29210728448</v>
+        <v>29859921920</v>
       </c>
       <c r="D352" s="3">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6844,13 +6844,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>81.59999999999999</v>
+        <v>75.17</v>
       </c>
       <c r="C353" s="2">
-        <v>16121793536</v>
+        <v>14851411968</v>
       </c>
       <c r="D353" s="3">
-        <v>243</v>
+        <v>264</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6858,13 +6858,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>102.31</v>
+        <v>91.64</v>
       </c>
       <c r="C354" s="2">
-        <v>44184924160</v>
+        <v>39545315328</v>
       </c>
       <c r="D354" s="3">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6872,13 +6872,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>114.44</v>
+        <v>110.86</v>
       </c>
       <c r="C355" s="2">
-        <v>310619930624</v>
+        <v>303736455168</v>
       </c>
       <c r="D355" s="3">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6886,10 +6886,10 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>925.9299999999999</v>
+        <v>933.545</v>
       </c>
       <c r="C356" s="2">
-        <v>56369598464</v>
+        <v>56253833216</v>
       </c>
       <c r="D356" s="3">
         <v>21</v>
@@ -6900,13 +6900,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>88.51000000000001</v>
+        <v>81.44</v>
       </c>
       <c r="C357" s="2">
-        <v>36580388864</v>
+        <v>33532512256</v>
       </c>
       <c r="D357" s="3">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6914,13 +6914,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>63.52</v>
+        <v>63.15</v>
       </c>
       <c r="C358" s="2">
-        <v>56643645440</v>
+        <v>55867670528</v>
       </c>
       <c r="D358" s="3">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6928,13 +6928,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>218.32</v>
+        <v>229.7799</v>
       </c>
       <c r="C359" s="2">
-        <v>66774265856</v>
+        <v>71171112960</v>
       </c>
       <c r="D359" s="3">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6942,13 +6942,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>15.63</v>
+        <v>13.515</v>
       </c>
       <c r="C360" s="2">
-        <v>10285071360</v>
+        <v>8932185088</v>
       </c>
       <c r="D360" s="3">
-        <v>1271</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6956,13 +6956,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>290.42</v>
+        <v>265.435</v>
       </c>
       <c r="C361" s="2">
-        <v>16807506944</v>
+        <v>15381719040</v>
       </c>
       <c r="D361" s="3">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6970,13 +6970,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>122.99</v>
+        <v>114.08</v>
       </c>
       <c r="C362" s="2">
-        <v>44343549952</v>
+        <v>41183449088</v>
       </c>
       <c r="D362" s="3">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6984,13 +6984,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>83.90000000000001</v>
+        <v>84.38</v>
       </c>
       <c r="C363" s="2">
-        <v>43862921216</v>
+        <v>44114284544</v>
       </c>
       <c r="D363" s="3">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6998,13 +6998,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="2">
-        <v>17.08</v>
+        <v>17.235</v>
       </c>
       <c r="C364" s="2">
-        <v>40065921024</v>
+        <v>43108872192</v>
       </c>
       <c r="D364" s="3">
-        <v>1163</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7012,13 +7012,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>21.23</v>
+        <v>19.4</v>
       </c>
       <c r="C365" s="2">
-        <v>11612724224</v>
+        <v>10612847616</v>
       </c>
       <c r="D365" s="3">
-        <v>936</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7026,13 +7026,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>60.6</v>
+        <v>61.05</v>
       </c>
       <c r="C366" s="2">
-        <v>30237278208</v>
+        <v>30470727680</v>
       </c>
       <c r="D366" s="3">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7040,13 +7040,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>184.6</v>
+        <v>176.06</v>
       </c>
       <c r="C367" s="2">
-        <v>254116675584</v>
+        <v>242360664064</v>
       </c>
       <c r="D367" s="3">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7054,13 +7054,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>35.02</v>
+        <v>33.11</v>
       </c>
       <c r="C368" s="2">
-        <v>197698764800</v>
+        <v>186937737216</v>
       </c>
       <c r="D368" s="3">
-        <v>567</v>
+        <v>600</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7068,13 +7068,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>78.56999999999999</v>
+        <v>75.78</v>
       </c>
       <c r="C369" s="2">
-        <v>19074832384</v>
+        <v>18317162496</v>
       </c>
       <c r="D369" s="3">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7082,13 +7082,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>155.28</v>
+        <v>153.18</v>
       </c>
       <c r="C370" s="2">
-        <v>365990281216</v>
+        <v>361334734848</v>
       </c>
       <c r="D370" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7096,13 +7096,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>126.54</v>
+        <v>142.64</v>
       </c>
       <c r="C371" s="2">
-        <v>74063855616</v>
+        <v>83458670592</v>
       </c>
       <c r="D371" s="3">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7110,13 +7110,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>414.15</v>
+        <v>383.81</v>
       </c>
       <c r="C372" s="2">
-        <v>53133787136</v>
+        <v>49293103104</v>
       </c>
       <c r="D372" s="3">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7124,13 +7124,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>84.34999999999999</v>
+        <v>74.20999999999999</v>
       </c>
       <c r="C373" s="2">
-        <v>18510184448</v>
+        <v>16285012992</v>
       </c>
       <c r="D373" s="3">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7138,13 +7138,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>153.89</v>
+        <v>150.91</v>
       </c>
       <c r="C374" s="2">
-        <v>13839666176</v>
+        <v>13569088512</v>
       </c>
       <c r="D374" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7152,13 +7152,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>122.24</v>
+        <v>115.6</v>
       </c>
       <c r="C375" s="2">
-        <v>112884482048</v>
+        <v>106798448640</v>
       </c>
       <c r="D375" s="3">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7166,10 +7166,10 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>96.20999999999999</v>
+        <v>96.455</v>
       </c>
       <c r="C376" s="2">
-        <v>149337161728</v>
+        <v>149731917824</v>
       </c>
       <c r="D376" s="3">
         <v>206</v>
@@ -7180,13 +7180,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>131.46</v>
+        <v>122.65</v>
       </c>
       <c r="C377" s="2">
-        <v>52321083392</v>
+        <v>48845975552</v>
       </c>
       <c r="D377" s="3">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7194,13 +7194,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>69.84999999999999</v>
+        <v>65.41</v>
       </c>
       <c r="C378" s="2">
-        <v>11521757184</v>
+        <v>10800040960</v>
       </c>
       <c r="D378" s="3">
-        <v>284</v>
+        <v>303</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7208,13 +7208,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>78.58</v>
+        <v>79.325</v>
       </c>
       <c r="C379" s="2">
-        <v>8899656704</v>
+        <v>8988474368</v>
       </c>
       <c r="D379" s="3">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7222,13 +7222,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>263.14</v>
+        <v>158.7</v>
       </c>
       <c r="C380" s="2">
-        <v>18339753984</v>
+        <v>11080608768</v>
       </c>
       <c r="D380" s="3">
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7236,13 +7236,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>381.49</v>
+        <v>349.24</v>
       </c>
       <c r="C381" s="2">
-        <v>14892682240</v>
+        <v>13638519808</v>
       </c>
       <c r="D381" s="3">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7250,13 +7250,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>140.57</v>
+        <v>128.73</v>
       </c>
       <c r="C382" s="2">
-        <v>33106063360</v>
+        <v>30317586432</v>
       </c>
       <c r="D382" s="3">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7264,13 +7264,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>26.08</v>
+        <v>25.49</v>
       </c>
       <c r="C383" s="2">
-        <v>19222734848</v>
+        <v>18788399104</v>
       </c>
       <c r="D383" s="3">
-        <v>762</v>
+        <v>779</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7278,13 +7278,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>96.51000000000001</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="C384" s="2">
-        <v>35226148864</v>
+        <v>35276341248</v>
       </c>
       <c r="D384" s="3">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7292,13 +7292,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>275.69</v>
+        <v>264.67</v>
       </c>
       <c r="C385" s="2">
-        <v>48603873280</v>
+        <v>46665560064</v>
       </c>
       <c r="D385" s="3">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7306,13 +7306,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>110.48</v>
+        <v>120.72</v>
       </c>
       <c r="C386" s="2">
-        <v>50695077888</v>
+        <v>53755166720</v>
       </c>
       <c r="D386" s="3">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7320,10 +7320,10 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>141.22</v>
+        <v>142</v>
       </c>
       <c r="C387" s="2">
-        <v>16713810944</v>
+        <v>16874286080</v>
       </c>
       <c r="D387" s="3">
         <v>140</v>
@@ -7334,13 +7334,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>200.28</v>
+        <v>189.33</v>
       </c>
       <c r="C388" s="2">
-        <v>29075849216</v>
+        <v>27490529280</v>
       </c>
       <c r="D388" s="3">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7348,13 +7348,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>234.06</v>
+        <v>224.68</v>
       </c>
       <c r="C389" s="2">
-        <v>54708248576</v>
+        <v>52382117888</v>
       </c>
       <c r="D389" s="3">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7362,13 +7362,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>62.75</v>
+        <v>58.85</v>
       </c>
       <c r="C390" s="2">
-        <v>70010798080</v>
+        <v>64619655168</v>
       </c>
       <c r="D390" s="3">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7376,13 +7376,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>121.5</v>
+        <v>108.89</v>
       </c>
       <c r="C391" s="2">
-        <v>135351001088</v>
+        <v>121521242112</v>
       </c>
       <c r="D391" s="3">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7390,13 +7390,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>106.88</v>
+        <v>95.17</v>
       </c>
       <c r="C392" s="2">
-        <v>10486873088</v>
+        <v>9318132736</v>
       </c>
       <c r="D392" s="3">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7404,13 +7404,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>103.92</v>
+        <v>95.27</v>
       </c>
       <c r="C393" s="2">
-        <v>26576187392</v>
+        <v>24405600256</v>
       </c>
       <c r="D393" s="3">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7418,13 +7418,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>66.25</v>
+        <v>61.99</v>
       </c>
       <c r="C394" s="2">
-        <v>11377709056</v>
+        <v>11290672128</v>
       </c>
       <c r="D394" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7432,13 +7432,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>766.4400000000001</v>
+        <v>825.4</v>
       </c>
       <c r="C395" s="2">
-        <v>84086128640</v>
+        <v>89604603904</v>
       </c>
       <c r="D395" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7446,13 +7446,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>20.61</v>
+        <v>17.5668</v>
       </c>
       <c r="C396" s="2">
-        <v>19338590208</v>
+        <v>16484280320</v>
       </c>
       <c r="D396" s="3">
-        <v>964</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7460,13 +7460,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>75.11</v>
+        <v>74.075</v>
       </c>
       <c r="C397" s="2">
-        <v>8094078976</v>
+        <v>7932099072</v>
       </c>
       <c r="D397" s="3">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7474,13 +7474,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>107.84</v>
+        <v>102.58</v>
       </c>
       <c r="C398" s="2">
-        <v>22852483072</v>
+        <v>21423011840</v>
       </c>
       <c r="D398" s="3">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7488,13 +7488,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>131.74</v>
+        <v>112.59</v>
       </c>
       <c r="C399" s="2">
-        <v>8598327296</v>
+        <v>7475367936</v>
       </c>
       <c r="D399" s="3">
-        <v>150</v>
+        <v>176</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7502,13 +7502,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>179.25</v>
+        <v>137.625</v>
       </c>
       <c r="C400" s="2">
-        <v>26337382400</v>
+        <v>20240648192</v>
       </c>
       <c r="D400" s="3">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7516,13 +7516,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>298.82</v>
+        <v>280.665</v>
       </c>
       <c r="C401" s="2">
-        <v>34326947840</v>
+        <v>32237182976</v>
       </c>
       <c r="D401" s="3">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7530,13 +7530,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>40.28</v>
+        <v>38.085</v>
       </c>
       <c r="C402" s="2">
-        <v>19849459712</v>
+        <v>18436833280</v>
       </c>
       <c r="D402" s="3">
-        <v>493</v>
+        <v>522</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7544,13 +7544,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>486.71</v>
+        <v>498.97</v>
       </c>
       <c r="C403" s="2">
-        <v>51879391232</v>
+        <v>53245587456</v>
       </c>
       <c r="D403" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7558,13 +7558,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>112.59</v>
+        <v>113.58</v>
       </c>
       <c r="C404" s="2">
-        <v>38354456576</v>
+        <v>38461825024</v>
       </c>
       <c r="D404" s="3">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7572,13 +7572,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>148.53</v>
+        <v>148.29</v>
       </c>
       <c r="C405" s="2">
-        <v>46977363968</v>
+        <v>46907981824</v>
       </c>
       <c r="D405" s="3">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7586,13 +7586,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>84.55</v>
+        <v>73.33</v>
       </c>
       <c r="C406" s="2">
-        <v>123539390464</v>
+        <v>106733281280</v>
       </c>
       <c r="D406" s="3">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7600,13 +7600,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>123.24</v>
+        <v>108.13</v>
       </c>
       <c r="C407" s="2">
-        <v>15459348480</v>
+        <v>13422716928</v>
       </c>
       <c r="D407" s="3">
-        <v>161</v>
+        <v>183</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7614,13 +7614,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>222.88</v>
+        <v>209.19</v>
       </c>
       <c r="C408" s="2">
-        <v>24351645696</v>
+        <v>22672640000</v>
       </c>
       <c r="D408" s="3">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7628,13 +7628,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>100.68</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="C409" s="2">
-        <v>115419553792</v>
+        <v>107656151040</v>
       </c>
       <c r="D409" s="3">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7642,13 +7642,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>64.92</v>
+        <v>56.275</v>
       </c>
       <c r="C410" s="2">
-        <v>118156992512</v>
+        <v>102482968576</v>
       </c>
       <c r="D410" s="3">
-        <v>306</v>
+        <v>353</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7656,13 +7656,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>182.65</v>
+        <v>138.02</v>
       </c>
       <c r="C411" s="2">
-        <v>10291358720</v>
+        <v>7806107648</v>
       </c>
       <c r="D411" s="3">
-        <v>108</v>
+        <v>144</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7670,13 +7670,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>44.48</v>
+        <v>32.25</v>
       </c>
       <c r="C412" s="2">
-        <v>6422289408</v>
+        <v>4676250112</v>
       </c>
       <c r="D412" s="3">
-        <v>446</v>
+        <v>616</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7684,13 +7684,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>273.56</v>
+        <v>255.54</v>
       </c>
       <c r="C413" s="2">
-        <v>70548389888</v>
+        <v>65711853568</v>
       </c>
       <c r="D413" s="3">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7698,13 +7698,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>149.15</v>
+        <v>129.68</v>
       </c>
       <c r="C414" s="2">
-        <v>15229407232</v>
+        <v>13244347392</v>
       </c>
       <c r="D414" s="3">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7712,13 +7712,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>57.67</v>
+        <v>59.3</v>
       </c>
       <c r="C415" s="2">
-        <v>81960026112</v>
+        <v>84276568064</v>
       </c>
       <c r="D415" s="3">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7726,13 +7726,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>272.23</v>
+        <v>255.86</v>
       </c>
       <c r="C416" s="2">
-        <v>14405458944</v>
+        <v>13539215360</v>
       </c>
       <c r="D416" s="3">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7740,13 +7740,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>441.42</v>
+        <v>448.15</v>
       </c>
       <c r="C417" s="2">
-        <v>67166470144</v>
+        <v>68156444672</v>
       </c>
       <c r="D417" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7754,13 +7754,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>67.84</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="C418" s="2">
-        <v>73972736000</v>
+        <v>76720193536</v>
       </c>
       <c r="D418" s="3">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7768,13 +7768,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>118.29</v>
+        <v>112.74</v>
       </c>
       <c r="C419" s="2">
-        <v>44273225728</v>
+        <v>42210758656</v>
       </c>
       <c r="D419" s="3">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7782,13 +7782,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>386.84</v>
+        <v>375.67</v>
       </c>
       <c r="C420" s="2">
-        <v>124098273280</v>
+        <v>119538196480</v>
       </c>
       <c r="D420" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7796,13 +7796,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>141.94</v>
+        <v>72.705</v>
       </c>
       <c r="C421" s="2">
-        <v>44661846016</v>
+        <v>45753765888</v>
       </c>
       <c r="D421" s="3">
-        <v>140</v>
+        <v>273</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7810,13 +7810,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>226.01</v>
+        <v>221.25</v>
       </c>
       <c r="C422" s="2">
-        <v>22296111104</v>
+        <v>21855385600</v>
       </c>
       <c r="D422" s="3">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7824,13 +7824,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>103.79</v>
+        <v>100.015</v>
       </c>
       <c r="C423" s="2">
-        <v>17544038400</v>
+        <v>16566884352</v>
       </c>
       <c r="D423" s="3">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7838,13 +7838,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>73.14</v>
+        <v>68.83</v>
       </c>
       <c r="C424" s="2">
-        <v>23558465536</v>
+        <v>21931991040</v>
       </c>
       <c r="D424" s="3">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7852,13 +7852,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>66.79000000000001</v>
+        <v>66.55</v>
       </c>
       <c r="C425" s="2">
-        <v>13831007232</v>
+        <v>13832285184</v>
       </c>
       <c r="D425" s="3">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7866,13 +7866,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>268.02</v>
+        <v>258.48</v>
       </c>
       <c r="C426" s="2">
-        <v>49134497792</v>
+        <v>47385587712</v>
       </c>
       <c r="D426" s="3">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7880,13 +7880,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>98.45</v>
+        <v>85.0556</v>
       </c>
       <c r="C427" s="2">
-        <v>15076928512</v>
+        <v>13033069568</v>
       </c>
       <c r="D427" s="3">
-        <v>201</v>
+        <v>233</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7894,13 +7894,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>109.3</v>
+        <v>96.65000000000001</v>
       </c>
       <c r="C428" s="2">
-        <v>17395642368</v>
+        <v>15405332480</v>
       </c>
       <c r="D428" s="3">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7908,13 +7908,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>34.36</v>
+        <v>31.965</v>
       </c>
       <c r="C429" s="2">
-        <v>14368768000</v>
+        <v>13367220224</v>
       </c>
       <c r="D429" s="3">
-        <v>578</v>
+        <v>621</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7922,13 +7922,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>283.71</v>
+        <v>286.365</v>
       </c>
       <c r="C430" s="2">
-        <v>107698585600</v>
+        <v>108755116032</v>
       </c>
       <c r="D430" s="3">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7936,13 +7936,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>73.79000000000001</v>
+        <v>69.95</v>
       </c>
       <c r="C431" s="2">
-        <v>37456101376</v>
+        <v>35319574528</v>
       </c>
       <c r="D431" s="3">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7950,13 +7950,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>14</v>
+        <v>15.37</v>
       </c>
       <c r="C432" s="2">
-        <v>100086005760</v>
+        <v>109880131584</v>
       </c>
       <c r="D432" s="3">
-        <v>1420</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7964,13 +7964,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>65.31</v>
+        <v>64.45</v>
       </c>
       <c r="C433" s="2">
-        <v>14115710976</v>
+        <v>13939890176</v>
       </c>
       <c r="D433" s="3">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7978,13 +7978,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>896.1</v>
+        <v>849.11</v>
       </c>
       <c r="C434" s="2">
-        <v>49221246976</v>
+        <v>46856605696</v>
       </c>
       <c r="D434" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7992,13 +7992,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>379.26</v>
+        <v>413.68</v>
       </c>
       <c r="C435" s="2">
-        <v>17842513920</v>
+        <v>19473819648</v>
       </c>
       <c r="D435" s="3">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8006,13 +8006,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>82.17</v>
+        <v>70.09</v>
       </c>
       <c r="C436" s="2">
-        <v>12936597504</v>
+        <v>11091041280</v>
       </c>
       <c r="D436" s="3">
-        <v>241</v>
+        <v>283</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8020,13 +8020,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>138.5</v>
+        <v>124.22</v>
       </c>
       <c r="C437" s="2">
-        <v>43643428864</v>
+        <v>38997504000</v>
       </c>
       <c r="D437" s="3">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8034,13 +8034,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>107.41</v>
+        <v>95.95269999999999</v>
       </c>
       <c r="C438" s="2">
-        <v>16652740608</v>
+        <v>14778058752</v>
       </c>
       <c r="D438" s="3">
-        <v>185</v>
+        <v>207</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8048,13 +8048,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>32.07</v>
+        <v>28.365</v>
       </c>
       <c r="C439" s="2">
-        <v>42716598272</v>
+        <v>37781614592</v>
       </c>
       <c r="D439" s="3">
-        <v>619</v>
+        <v>700</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8062,13 +8062,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>237.88</v>
+        <v>204.405</v>
       </c>
       <c r="C440" s="2">
-        <v>11173627904</v>
+        <v>9605440512</v>
       </c>
       <c r="D440" s="3">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8076,13 +8076,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>132.53</v>
+        <v>118.19</v>
       </c>
       <c r="C441" s="2">
-        <v>61170544640</v>
+        <v>54557093888</v>
       </c>
       <c r="D441" s="3">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8090,13 +8090,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>85.45</v>
+        <v>89.685</v>
       </c>
       <c r="C442" s="2">
-        <v>98202558464</v>
+        <v>102606815232</v>
       </c>
       <c r="D442" s="3">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8104,13 +8104,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>548.64</v>
+        <v>501.06</v>
       </c>
       <c r="C443" s="2">
-        <v>211621969920</v>
+        <v>193384120320</v>
       </c>
       <c r="D443" s="3">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8118,13 +8118,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>134.6</v>
+        <v>140.65</v>
       </c>
       <c r="C444" s="2">
-        <v>161505214464</v>
+        <v>165469093888</v>
       </c>
       <c r="D444" s="3">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8132,13 +8132,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>42.08</v>
+        <v>29.475</v>
       </c>
       <c r="C445" s="2">
-        <v>9754059776</v>
+        <v>6703764992</v>
       </c>
       <c r="D445" s="3">
-        <v>472</v>
+        <v>674</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8146,13 +8146,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>82.47</v>
+        <v>84.355</v>
       </c>
       <c r="C446" s="2">
-        <v>18639788032</v>
+        <v>18871226368</v>
       </c>
       <c r="D446" s="3">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8160,13 +8160,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>55.77</v>
+        <v>51.05</v>
       </c>
       <c r="C447" s="2">
-        <v>13816850432</v>
+        <v>12676838400</v>
       </c>
       <c r="D447" s="3">
-        <v>356</v>
+        <v>389</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8174,13 +8174,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>115.56</v>
+        <v>106.675</v>
       </c>
       <c r="C448" s="2">
-        <v>26238476288</v>
+        <v>23926671360</v>
       </c>
       <c r="D448" s="3">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8188,10 +8188,10 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>168.65</v>
+        <v>169.485</v>
       </c>
       <c r="C449" s="2">
-        <v>38611066880</v>
+        <v>38802235392</v>
       </c>
       <c r="D449" s="3">
         <v>117</v>
@@ -8202,13 +8202,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>222.31</v>
+        <v>205.02</v>
       </c>
       <c r="C450" s="2">
-        <v>24358062080</v>
+        <v>22307817472</v>
       </c>
       <c r="D450" s="3">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8216,13 +8216,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>253.86</v>
+        <v>259.32</v>
       </c>
       <c r="C451" s="2">
-        <v>804609261568</v>
+        <v>823079075840</v>
       </c>
       <c r="D451" s="3">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8230,13 +8230,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>56.46</v>
+        <v>53.09</v>
       </c>
       <c r="C452" s="2">
-        <v>20077797376</v>
+        <v>18876680192</v>
       </c>
       <c r="D452" s="3">
-        <v>352</v>
+        <v>374</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8244,13 +8244,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>204.19</v>
+        <v>198.72</v>
       </c>
       <c r="C453" s="2">
-        <v>46565937152</v>
+        <v>45387251712</v>
       </c>
       <c r="D453" s="3">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8258,13 +8258,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>142.18</v>
+        <v>136.91</v>
       </c>
       <c r="C454" s="2">
-        <v>24075907072</v>
+        <v>23251564544</v>
       </c>
       <c r="D454" s="3">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8272,13 +8272,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>168.44</v>
+        <v>161.34</v>
       </c>
       <c r="C455" s="2">
-        <v>152943525888</v>
+        <v>146491228160</v>
       </c>
       <c r="D455" s="3">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8286,13 +8286,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>78.63</v>
+        <v>78.42</v>
       </c>
       <c r="C456" s="2">
-        <v>15858098176</v>
+        <v>15532728320</v>
       </c>
       <c r="D456" s="3">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8300,13 +8300,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>381.92</v>
+        <v>388.18</v>
       </c>
       <c r="C457" s="2">
-        <v>16012110848</v>
+        <v>16333992960</v>
       </c>
       <c r="D457" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8314,13 +8314,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>52.37</v>
+        <v>44.13</v>
       </c>
       <c r="C458" s="2">
-        <v>17176311808</v>
+        <v>14473757696</v>
       </c>
       <c r="D458" s="3">
-        <v>379</v>
+        <v>450</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8328,13 +8328,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>40.03</v>
+        <v>37.035</v>
       </c>
       <c r="C459" s="2">
-        <v>22005452800</v>
+        <v>13059726336</v>
       </c>
       <c r="D459" s="3">
-        <v>496</v>
+        <v>536</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8342,13 +8342,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>134.36</v>
+        <v>126.64</v>
       </c>
       <c r="C460" s="2">
-        <v>9429451776</v>
+        <v>8786169856</v>
       </c>
       <c r="D460" s="3">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8356,13 +8356,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>438.32</v>
+        <v>406.375</v>
       </c>
       <c r="C461" s="2">
-        <v>21829038080</v>
+        <v>20028151808</v>
       </c>
       <c r="D461" s="3">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8370,10 +8370,10 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>502.73</v>
+        <v>504.095</v>
       </c>
       <c r="C462" s="2">
-        <v>468057718784</v>
+        <v>466945736704</v>
       </c>
       <c r="D462" s="3">
         <v>39</v>
@@ -8384,13 +8384,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>228.53</v>
+        <v>211.975</v>
       </c>
       <c r="C463" s="2">
-        <v>139333599232</v>
+        <v>129189437440</v>
       </c>
       <c r="D463" s="3">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8398,13 +8398,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>180.94</v>
+        <v>156.335</v>
       </c>
       <c r="C464" s="2">
-        <v>155406843904</v>
+        <v>133580447744</v>
       </c>
       <c r="D464" s="3">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8412,13 +8412,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>465.81</v>
+        <v>438.055</v>
       </c>
       <c r="C465" s="2">
-        <v>32015679488</v>
+        <v>29911578624</v>
       </c>
       <c r="D465" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8426,13 +8426,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>39.86</v>
+        <v>33.605</v>
       </c>
       <c r="C466" s="2">
-        <v>61102194688</v>
+        <v>52321976320</v>
       </c>
       <c r="D466" s="3">
-        <v>498</v>
+        <v>591</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8440,10 +8440,10 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>238.99</v>
+        <v>237.9012</v>
       </c>
       <c r="C467" s="2">
-        <v>500540669952</v>
+        <v>494786936832</v>
       </c>
       <c r="D467" s="3">
         <v>83</v>
@@ -8454,13 +8454,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>19.4</v>
+        <v>17.64</v>
       </c>
       <c r="C468" s="2">
-        <v>7541109248</v>
+        <v>6859631104</v>
       </c>
       <c r="D468" s="3">
-        <v>1024</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8468,13 +8468,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>31.06</v>
+        <v>30.375</v>
       </c>
       <c r="C469" s="2">
-        <v>31191693312</v>
+        <v>30782937088</v>
       </c>
       <c r="D469" s="3">
-        <v>640</v>
+        <v>654</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8482,13 +8482,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>126.89</v>
+        <v>147.81</v>
       </c>
       <c r="C470" s="2">
-        <v>45872889856</v>
+        <v>52196585472</v>
       </c>
       <c r="D470" s="3">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8496,13 +8496,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>226</v>
+        <v>203.69</v>
       </c>
       <c r="C471" s="2">
-        <v>30071334912</v>
+        <v>27063476224</v>
       </c>
       <c r="D471" s="3">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8510,13 +8510,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>229.76</v>
+        <v>242.27</v>
       </c>
       <c r="C472" s="2">
-        <v>33267181568</v>
+        <v>35135692800</v>
       </c>
       <c r="D472" s="3">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8524,13 +8524,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>205.11</v>
+        <v>200.89</v>
       </c>
       <c r="C473" s="2">
-        <v>21351131136</v>
+        <v>20718589952</v>
       </c>
       <c r="D473" s="3">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8538,13 +8538,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>340.48</v>
+        <v>355.4017</v>
       </c>
       <c r="C474" s="2">
-        <v>87691304960</v>
+        <v>91727405056</v>
       </c>
       <c r="D474" s="3">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8552,13 +8552,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>44.93</v>
+        <v>43.26</v>
       </c>
       <c r="C475" s="2">
-        <v>17974335488</v>
+        <v>17406871552</v>
       </c>
       <c r="D475" s="3">
-        <v>442</v>
+        <v>459</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8566,13 +8566,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>10.59</v>
+        <v>9.775</v>
       </c>
       <c r="C476" s="2">
-        <v>12697728000</v>
+        <v>11725405184</v>
       </c>
       <c r="D476" s="3">
-        <v>1877</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8580,13 +8580,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>32.62</v>
+        <v>33.5201</v>
       </c>
       <c r="C477" s="2">
-        <v>137134473216</v>
+        <v>140919832576</v>
       </c>
       <c r="D477" s="3">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8594,13 +8594,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>114.7</v>
+        <v>106</v>
       </c>
       <c r="C478" s="2">
-        <v>20631089152</v>
+        <v>18987780096</v>
       </c>
       <c r="D478" s="3">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8608,13 +8608,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>289.89</v>
+        <v>269.39</v>
       </c>
       <c r="C479" s="2">
-        <v>17113250816</v>
+        <v>15921731584</v>
       </c>
       <c r="D479" s="3">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8622,13 +8622,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>29.86</v>
+        <v>21.675</v>
       </c>
       <c r="C480" s="2">
-        <v>25776973824</v>
+        <v>18711181312</v>
       </c>
       <c r="D480" s="3">
-        <v>665</v>
+        <v>917</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8636,13 +8636,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>13.97</v>
+        <v>11.635</v>
       </c>
       <c r="C481" s="2">
-        <v>34032457728</v>
+        <v>28358918144</v>
       </c>
       <c r="D481" s="3">
-        <v>1423</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8650,13 +8650,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>43.45</v>
+        <v>44.91</v>
       </c>
       <c r="C482" s="2">
-        <v>13901262848</v>
+        <v>14456349696</v>
       </c>
       <c r="D482" s="3">
-        <v>457</v>
+        <v>442</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8664,13 +8664,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>87.27</v>
+        <v>87.06</v>
       </c>
       <c r="C483" s="2">
-        <v>27528011776</v>
+        <v>27461771264</v>
       </c>
       <c r="D483" s="3">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8678,13 +8678,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>82.38</v>
+        <v>84.55</v>
       </c>
       <c r="C484" s="2">
-        <v>40945414144</v>
+        <v>43858538496</v>
       </c>
       <c r="D484" s="3">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8692,13 +8692,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>44.85</v>
+        <v>42.72</v>
       </c>
       <c r="C485" s="2">
-        <v>164494999552</v>
+        <v>156303081472</v>
       </c>
       <c r="D485" s="3">
-        <v>443</v>
+        <v>465</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8706,13 +8706,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>141.5</v>
+        <v>133.665</v>
       </c>
       <c r="C486" s="2">
-        <v>7782499840</v>
+        <v>7327220736</v>
       </c>
       <c r="D486" s="3">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8720,13 +8720,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>160.43</v>
+        <v>158.65</v>
       </c>
       <c r="C487" s="2">
-        <v>65265647616</v>
+        <v>64262610944</v>
       </c>
       <c r="D487" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8734,13 +8734,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>34.36</v>
+        <v>33.8</v>
       </c>
       <c r="C488" s="2">
-        <v>41857007616</v>
+        <v>41114992640</v>
       </c>
       <c r="D488" s="3">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8748,13 +8748,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>158.34</v>
+        <v>162.81</v>
       </c>
       <c r="C489" s="2">
-        <v>426384261120</v>
+        <v>438212853760</v>
       </c>
       <c r="D489" s="3">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8762,13 +8762,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>61.9</v>
+        <v>65.31</v>
       </c>
       <c r="C490" s="2">
-        <v>15940301824</v>
+        <v>16818827264</v>
       </c>
       <c r="D490" s="3">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8776,13 +8776,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>33.89</v>
+        <v>35.455</v>
       </c>
       <c r="C491" s="2">
-        <v>8680245248</v>
+        <v>9438724096</v>
       </c>
       <c r="D491" s="3">
-        <v>586</v>
+        <v>560</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8790,10 +8790,10 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>375.07</v>
+        <v>373.82</v>
       </c>
       <c r="C492" s="2">
-        <v>27846172672</v>
+        <v>27610793984</v>
       </c>
       <c r="D492" s="3">
         <v>53</v>
@@ -8804,13 +8804,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>212.76</v>
+        <v>211.31</v>
       </c>
       <c r="C493" s="2">
-        <v>22640429056</v>
+        <v>22150148096</v>
       </c>
       <c r="D493" s="3">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8818,13 +8818,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>32.88</v>
+        <v>31.235</v>
       </c>
       <c r="C494" s="2">
-        <v>24077893632</v>
+        <v>22824914944</v>
       </c>
       <c r="D494" s="3">
-        <v>604</v>
+        <v>636</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8832,13 +8832,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>104.18</v>
+        <v>91.14</v>
       </c>
       <c r="C495" s="2">
-        <v>11855475712</v>
+        <v>10384126976</v>
       </c>
       <c r="D495" s="3">
-        <v>190</v>
+        <v>218</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8846,13 +8846,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>60.39</v>
+        <v>59.8724</v>
       </c>
       <c r="C496" s="2">
-        <v>33235996672</v>
+        <v>33021603840</v>
       </c>
       <c r="D496" s="3">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8860,13 +8860,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>107.42</v>
+        <v>116.025</v>
       </c>
       <c r="C497" s="2">
-        <v>434296913920</v>
+        <v>462533689344</v>
       </c>
       <c r="D497" s="3">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8874,13 +8874,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>39.29</v>
+        <v>34.4</v>
       </c>
       <c r="C498" s="2">
-        <v>8348260864</v>
+        <v>7283030528</v>
       </c>
       <c r="D498" s="3">
-        <v>505</v>
+        <v>577</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8888,13 +8888,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>105.67</v>
+        <v>92.25</v>
       </c>
       <c r="C499" s="2">
-        <v>25296975872</v>
+        <v>22216474624</v>
       </c>
       <c r="D499" s="3">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8902,13 +8902,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>134.35</v>
+        <v>125.52</v>
       </c>
       <c r="C500" s="2">
-        <v>37629689856</v>
+        <v>35172085760</v>
       </c>
       <c r="D500" s="3">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8916,13 +8916,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>126.32</v>
+        <v>118.39</v>
       </c>
       <c r="C501" s="2">
-        <v>26374100992</v>
+        <v>24739248128</v>
       </c>
       <c r="D501" s="3">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8930,13 +8930,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>251.41</v>
+        <v>231.789</v>
       </c>
       <c r="C502" s="2">
-        <v>12930092032</v>
+        <v>11899676672</v>
       </c>
       <c r="D502" s="3">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8944,13 +8944,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>37.92</v>
+        <v>34.51</v>
       </c>
       <c r="C503" s="2">
-        <v>5617619968</v>
+        <v>5112483328</v>
       </c>
       <c r="D503" s="3">
-        <v>524</v>
+        <v>576</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8958,10 +8958,10 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>178.63</v>
+        <v>177.71</v>
       </c>
       <c r="C504" s="2">
-        <v>82547064832</v>
+        <v>81802936320</v>
       </c>
       <c r="D504" s="3">
         <v>111</v>
